--- a/Femto Project 비용 List.xlsx
+++ b/Femto Project 비용 List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3735" yWindow="1890" windowWidth="28800" windowHeight="12060" activeTab="11"/>
+    <workbookView xWindow="3735" yWindow="1890" windowWidth="28800" windowHeight="12060" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="전체 비용 List" sheetId="9" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="484">
   <si>
     <t>Vendor</t>
   </si>
@@ -321,9 +321,6 @@
     <t>Coms 컨넥터-DC파워 2.5Ø x 0.7(각형)</t>
   </si>
   <si>
-    <t>P004707690</t>
-  </si>
-  <si>
     <t>악어클립 대(검정색)</t>
   </si>
   <si>
@@ -1652,10 +1649,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>FLUX REMOVER PRINTED BOTTLE, 180ML, BLUE</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>VERMASON</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -1740,75 +1733,99 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
+    <t>50058 양단 케이블 L=100mm, Red</t>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <t>포밍테이블</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200x900 연체리 + 배송비 (7000원)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>11번가</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipette Main V1.0 PCB Layout</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipette Main V1.0 PCB Soldering</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipette JTAG V1.0 PCB Layout</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipette JTAG V1.0 PCB Soldering</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipette Transformer V2.0 PCB Soldering</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipette Transformer V2.0 PCB Layout</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>미지급</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipette Transformer/JTAG 부품 구입</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요 소모 용품도 같이 구매</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">P007250454 </t>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">P001909482 </t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>P008152676</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>P008152648</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
     <t>P005634320</t>
     <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
-    <t>50058 양단 케이블 L=100mm, Red</t>
-    <phoneticPr fontId="35" type="noConversion"/>
-  </si>
-  <si>
-    <t>포밍테이블</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>1200x900 연체리 + 배송비 (7000원)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>11번가</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pipette Main V1.0 PCB Layout</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pipette Main V1.0 PCB Soldering</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pipette JTAG V1.0 PCB Layout</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pipette JTAG V1.0 PCB Soldering</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pipette Transformer V2.0 PCB Soldering</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pipette Transformer V2.0 PCB Layout</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>미지급</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pipette Transformer/JTAG 부품 구입</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>필요 소모 용품도 같이 구매</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">P007250454 </t>
-    <phoneticPr fontId="35" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">P001909482 </t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>P008152676</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>P008152648</t>
+    <t>P005627974</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLUX REMOVER PRINTED BOTTLE, 180ML, BLUE - 뚜껑 없음</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLUX REMOVER PRINTED BOTTLE, 180ML, BLUE - 뚜껑 있음</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>P001890797</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>DESCO</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>뚜껑이 없이 배송됨 - 35283으로 교환</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -1816,7 +1833,11 @@
     <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
-    <t>P005627974</t>
+    <t>P004707690</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coms 컨넥터-DC파워 2.5Ø x 0.7(각형)</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -2130,7 +2151,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2343,6 +2364,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF66FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3196,7 +3223,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="466">
+  <cellXfs count="474">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
@@ -3752,9 +3779,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="14" xfId="79" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="15" xfId="78" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="78" applyFill="1" applyBorder="1">
@@ -4219,6 +4243,25 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="69" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="0" fillId="39" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="39" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4302,6 +4345,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="15" xfId="78" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="78" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="96">
@@ -4723,142 +4772,142 @@
       <c r="F3" s="195"/>
     </row>
     <row r="4" spans="2:7" s="197" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="382" t="s">
+      <c r="B4" s="381" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" s="382" t="s">
         <v>197</v>
       </c>
-      <c r="C4" s="383" t="s">
+      <c r="D4" s="383" t="s">
+        <v>352</v>
+      </c>
+      <c r="E4" s="383" t="s">
+        <v>386</v>
+      </c>
+      <c r="F4" s="383" t="s">
+        <v>387</v>
+      </c>
+      <c r="G4" s="384" t="s">
         <v>198</v>
-      </c>
-      <c r="D4" s="384" t="s">
-        <v>353</v>
-      </c>
-      <c r="E4" s="384" t="s">
-        <v>387</v>
-      </c>
-      <c r="F4" s="384" t="s">
-        <v>388</v>
-      </c>
-      <c r="G4" s="385" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="5" spans="2:7" s="197" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="199" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C5" s="200"/>
-      <c r="D5" s="343">
+      <c r="D5" s="342">
         <f>SUM(D6:D28)</f>
         <v>2054200</v>
       </c>
-      <c r="E5" s="343">
+      <c r="E5" s="342">
         <f>SUM(E6:E28)</f>
         <v>4875000</v>
       </c>
-      <c r="F5" s="369">
+      <c r="F5" s="368">
         <f>SUM(F6:F28)</f>
         <v>1000000</v>
       </c>
-      <c r="G5" s="381"/>
+      <c r="G5" s="380"/>
     </row>
     <row r="6" spans="2:7" s="197" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="373">
+      <c r="B6" s="372">
         <v>43062</v>
       </c>
-      <c r="C6" s="374" t="s">
-        <v>383</v>
-      </c>
-      <c r="D6" s="375"/>
-      <c r="E6" s="375">
+      <c r="C6" s="373" t="s">
+        <v>382</v>
+      </c>
+      <c r="D6" s="374"/>
+      <c r="E6" s="374">
         <v>900000</v>
       </c>
-      <c r="F6" s="388"/>
-      <c r="G6" s="370"/>
+      <c r="F6" s="387"/>
+      <c r="G6" s="369"/>
     </row>
     <row r="7" spans="2:7" s="197" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="377">
+      <c r="B7" s="376">
         <v>43062</v>
       </c>
-      <c r="C7" s="378" t="s">
-        <v>385</v>
-      </c>
-      <c r="D7" s="379"/>
-      <c r="E7" s="379"/>
-      <c r="F7" s="379">
+      <c r="C7" s="377" t="s">
+        <v>384</v>
+      </c>
+      <c r="D7" s="378"/>
+      <c r="E7" s="378"/>
+      <c r="F7" s="378">
         <v>1000000</v>
       </c>
-      <c r="G7" s="380"/>
+      <c r="G7" s="379"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="203">
         <v>43075</v>
       </c>
       <c r="C8" s="204" t="s">
-        <v>354</v>
-      </c>
-      <c r="D8" s="349">
+        <v>353</v>
+      </c>
+      <c r="D8" s="348">
         <v>62080</v>
       </c>
-      <c r="E8" s="349"/>
-      <c r="F8" s="389"/>
-      <c r="G8" s="371"/>
+      <c r="E8" s="348"/>
+      <c r="F8" s="388"/>
+      <c r="G8" s="370"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="203">
         <v>43136</v>
       </c>
       <c r="C9" s="204" t="s">
-        <v>355</v>
-      </c>
-      <c r="D9" s="349">
+        <v>354</v>
+      </c>
+      <c r="D9" s="348">
         <v>81880</v>
       </c>
-      <c r="E9" s="349"/>
-      <c r="F9" s="389"/>
-      <c r="G9" s="371"/>
+      <c r="E9" s="348"/>
+      <c r="F9" s="388"/>
+      <c r="G9" s="370"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="203">
         <v>43139</v>
       </c>
       <c r="C10" s="204" t="s">
-        <v>355</v>
-      </c>
-      <c r="D10" s="349">
+        <v>354</v>
+      </c>
+      <c r="D10" s="348">
         <v>42900</v>
       </c>
-      <c r="E10" s="349"/>
-      <c r="F10" s="389"/>
-      <c r="G10" s="371"/>
+      <c r="E10" s="348"/>
+      <c r="F10" s="388"/>
+      <c r="G10" s="370"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="203">
         <v>43143</v>
       </c>
       <c r="C11" s="204" t="s">
-        <v>382</v>
-      </c>
-      <c r="D11" s="349"/>
-      <c r="E11" s="349">
+        <v>381</v>
+      </c>
+      <c r="D11" s="348"/>
+      <c r="E11" s="348">
         <v>830000</v>
       </c>
-      <c r="F11" s="389"/>
-      <c r="G11" s="371"/>
+      <c r="F11" s="388"/>
+      <c r="G11" s="370"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="203">
         <v>43173</v>
       </c>
       <c r="C12" s="204" t="s">
-        <v>391</v>
-      </c>
-      <c r="D12" s="349">
+        <v>390</v>
+      </c>
+      <c r="D12" s="348">
         <v>514080</v>
       </c>
-      <c r="E12" s="349"/>
-      <c r="F12" s="389"/>
-      <c r="G12" s="371" t="s">
-        <v>200</v>
+      <c r="E12" s="348"/>
+      <c r="F12" s="388"/>
+      <c r="G12" s="370" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
@@ -4866,15 +4915,15 @@
         <v>43193</v>
       </c>
       <c r="C13" s="204" t="s">
+        <v>288</v>
+      </c>
+      <c r="D13" s="348">
+        <v>869390</v>
+      </c>
+      <c r="E13" s="348"/>
+      <c r="F13" s="388"/>
+      <c r="G13" s="370" t="s">
         <v>289</v>
-      </c>
-      <c r="D13" s="349">
-        <v>869390</v>
-      </c>
-      <c r="E13" s="349"/>
-      <c r="F13" s="389"/>
-      <c r="G13" s="371" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
@@ -4882,123 +4931,123 @@
         <v>43210</v>
       </c>
       <c r="C14" s="204" t="s">
-        <v>352</v>
-      </c>
-      <c r="D14" s="349"/>
-      <c r="E14" s="349">
+        <v>351</v>
+      </c>
+      <c r="D14" s="348"/>
+      <c r="E14" s="348">
         <v>620000</v>
       </c>
-      <c r="F14" s="389"/>
-      <c r="G14" s="371"/>
+      <c r="F14" s="388"/>
+      <c r="G14" s="370"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="203">
         <v>43220</v>
       </c>
       <c r="C15" s="204" t="s">
-        <v>392</v>
-      </c>
-      <c r="D15" s="349">
+        <v>391</v>
+      </c>
+      <c r="D15" s="348">
         <v>88000</v>
       </c>
-      <c r="E15" s="349"/>
-      <c r="F15" s="389"/>
-      <c r="G15" s="371"/>
+      <c r="E15" s="348"/>
+      <c r="F15" s="388"/>
+      <c r="G15" s="370"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="436">
+      <c r="B16" s="435">
         <v>43219</v>
       </c>
       <c r="C16" s="204" t="s">
+        <v>461</v>
+      </c>
+      <c r="D16" s="348"/>
+      <c r="E16" s="394">
+        <v>1250000</v>
+      </c>
+      <c r="F16" s="388"/>
+      <c r="G16" s="370" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="435">
+        <v>43219</v>
+      </c>
+      <c r="C17" s="204" t="s">
+        <v>462</v>
+      </c>
+      <c r="D17" s="348"/>
+      <c r="E17" s="394">
+        <v>300000</v>
+      </c>
+      <c r="F17" s="388"/>
+      <c r="G17" s="370" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="435">
+        <v>43222</v>
+      </c>
+      <c r="C18" s="204" t="s">
+        <v>463</v>
+      </c>
+      <c r="D18" s="348"/>
+      <c r="E18" s="394">
+        <v>250000</v>
+      </c>
+      <c r="F18" s="388"/>
+      <c r="G18" s="370" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="435">
+        <v>43222</v>
+      </c>
+      <c r="C19" s="204" t="s">
         <v>464</v>
       </c>
-      <c r="D16" s="349"/>
-      <c r="E16" s="395">
-        <v>1250000</v>
-      </c>
-      <c r="F16" s="389"/>
-      <c r="G16" s="371" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="436">
-        <v>43219</v>
-      </c>
-      <c r="C17" s="204" t="s">
+      <c r="D19" s="348"/>
+      <c r="E19" s="394">
+        <v>90000</v>
+      </c>
+      <c r="F19" s="388"/>
+      <c r="G19" s="370" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="435">
+        <v>43222</v>
+      </c>
+      <c r="C20" s="204" t="s">
+        <v>466</v>
+      </c>
+      <c r="D20" s="348"/>
+      <c r="E20" s="394">
+        <v>500000</v>
+      </c>
+      <c r="F20" s="388"/>
+      <c r="G20" s="370" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="435">
+        <v>43222</v>
+      </c>
+      <c r="C21" s="204" t="s">
         <v>465</v>
       </c>
-      <c r="D17" s="349"/>
-      <c r="E17" s="395">
-        <v>300000</v>
-      </c>
-      <c r="F17" s="389"/>
-      <c r="G17" s="371" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="436">
-        <v>43222</v>
-      </c>
-      <c r="C18" s="204" t="s">
-        <v>466</v>
-      </c>
-      <c r="D18" s="349"/>
-      <c r="E18" s="395">
-        <v>250000</v>
-      </c>
-      <c r="F18" s="389"/>
-      <c r="G18" s="371" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="436">
-        <v>43222</v>
-      </c>
-      <c r="C19" s="204" t="s">
+      <c r="D21" s="348"/>
+      <c r="E21" s="394">
+        <v>135000</v>
+      </c>
+      <c r="F21" s="388"/>
+      <c r="G21" s="370" t="s">
         <v>467</v>
-      </c>
-      <c r="D19" s="349"/>
-      <c r="E19" s="395">
-        <v>90000</v>
-      </c>
-      <c r="F19" s="389"/>
-      <c r="G19" s="371" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="436">
-        <v>43222</v>
-      </c>
-      <c r="C20" s="204" t="s">
-        <v>469</v>
-      </c>
-      <c r="D20" s="349"/>
-      <c r="E20" s="395">
-        <v>500000</v>
-      </c>
-      <c r="F20" s="389"/>
-      <c r="G20" s="371" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="436">
-        <v>43222</v>
-      </c>
-      <c r="C21" s="204" t="s">
-        <v>468</v>
-      </c>
-      <c r="D21" s="349"/>
-      <c r="E21" s="395">
-        <v>135000</v>
-      </c>
-      <c r="F21" s="389"/>
-      <c r="G21" s="371" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
@@ -5006,64 +5055,64 @@
         <v>43228</v>
       </c>
       <c r="C22" s="204" t="s">
-        <v>471</v>
-      </c>
-      <c r="D22" s="349">
+        <v>468</v>
+      </c>
+      <c r="D22" s="348">
         <v>395870</v>
       </c>
-      <c r="E22" s="349"/>
-      <c r="F22" s="389"/>
-      <c r="G22" s="371" t="s">
-        <v>472</v>
+      <c r="E22" s="348"/>
+      <c r="F22" s="388"/>
+      <c r="G22" s="370" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="23" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="203"/>
       <c r="C23" s="204"/>
-      <c r="D23" s="349"/>
-      <c r="E23" s="349"/>
-      <c r="F23" s="389"/>
-      <c r="G23" s="371"/>
+      <c r="D23" s="348"/>
+      <c r="E23" s="348"/>
+      <c r="F23" s="388"/>
+      <c r="G23" s="370"/>
     </row>
     <row r="24" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B24" s="203"/>
       <c r="C24" s="204"/>
-      <c r="D24" s="349"/>
-      <c r="E24" s="349"/>
-      <c r="F24" s="389"/>
-      <c r="G24" s="371"/>
+      <c r="D24" s="348"/>
+      <c r="E24" s="348"/>
+      <c r="F24" s="388"/>
+      <c r="G24" s="370"/>
     </row>
     <row r="25" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B25" s="203"/>
       <c r="C25" s="204"/>
-      <c r="D25" s="349"/>
-      <c r="E25" s="349"/>
-      <c r="F25" s="389"/>
-      <c r="G25" s="371"/>
+      <c r="D25" s="348"/>
+      <c r="E25" s="348"/>
+      <c r="F25" s="388"/>
+      <c r="G25" s="370"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="203"/>
       <c r="C26" s="204"/>
-      <c r="D26" s="349"/>
-      <c r="E26" s="349"/>
-      <c r="F26" s="389"/>
-      <c r="G26" s="371"/>
+      <c r="D26" s="348"/>
+      <c r="E26" s="348"/>
+      <c r="F26" s="388"/>
+      <c r="G26" s="370"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="203"/>
       <c r="C27" s="204"/>
-      <c r="D27" s="349"/>
-      <c r="E27" s="349"/>
-      <c r="F27" s="389"/>
-      <c r="G27" s="371"/>
+      <c r="D27" s="348"/>
+      <c r="E27" s="348"/>
+      <c r="F27" s="388"/>
+      <c r="G27" s="370"/>
     </row>
     <row r="28" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="205"/>
       <c r="C28" s="206"/>
-      <c r="D28" s="353"/>
-      <c r="E28" s="353"/>
-      <c r="F28" s="390"/>
-      <c r="G28" s="372"/>
+      <c r="D28" s="352"/>
+      <c r="E28" s="352"/>
+      <c r="F28" s="389"/>
+      <c r="G28" s="371"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -5095,7 +5144,7 @@
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B1" s="56" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -5105,70 +5154,70 @@
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="56" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M3" s="56" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="4" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="56" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H4" s="56" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="M4" s="56" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="260" t="s">
-        <v>298</v>
-      </c>
-      <c r="D5" s="261" t="s">
+      <c r="C5" s="259" t="s">
+        <v>297</v>
+      </c>
+      <c r="D5" s="260" t="s">
+        <v>293</v>
+      </c>
+      <c r="E5" s="260" t="s">
         <v>294</v>
       </c>
-      <c r="E5" s="261" t="s">
+      <c r="F5" s="261" t="s">
         <v>295</v>
       </c>
-      <c r="F5" s="262" t="s">
-        <v>296</v>
-      </c>
-      <c r="H5" s="260" t="s">
-        <v>298</v>
-      </c>
-      <c r="I5" s="261" t="s">
+      <c r="H5" s="259" t="s">
+        <v>297</v>
+      </c>
+      <c r="I5" s="260" t="s">
+        <v>293</v>
+      </c>
+      <c r="J5" s="260" t="s">
         <v>294</v>
       </c>
-      <c r="J5" s="261" t="s">
+      <c r="K5" s="261" t="s">
         <v>295</v>
       </c>
-      <c r="K5" s="262" t="s">
-        <v>296</v>
-      </c>
-      <c r="M5" s="260" t="s">
-        <v>298</v>
-      </c>
-      <c r="N5" s="261" t="s">
+      <c r="M5" s="259" t="s">
+        <v>297</v>
+      </c>
+      <c r="N5" s="260" t="s">
+        <v>293</v>
+      </c>
+      <c r="O5" s="260" t="s">
         <v>294</v>
       </c>
-      <c r="O5" s="261" t="s">
+      <c r="P5" s="261" t="s">
         <v>295</v>
       </c>
-      <c r="P5" s="262" t="s">
-        <v>296</v>
-      </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C6" s="257" t="s">
-        <v>292</v>
+      <c r="C6" s="256" t="s">
+        <v>291</v>
       </c>
       <c r="D6" s="140">
         <v>169</v>
@@ -5180,8 +5229,8 @@
         <f>D6*E6</f>
         <v>106470</v>
       </c>
-      <c r="H6" s="257" t="s">
-        <v>292</v>
+      <c r="H6" s="256" t="s">
+        <v>291</v>
       </c>
       <c r="I6" s="140">
         <v>169</v>
@@ -5193,13 +5242,13 @@
         <f>I6*J6</f>
         <v>42250</v>
       </c>
-      <c r="M6" s="257" t="s">
-        <v>292</v>
-      </c>
-      <c r="N6" s="356">
+      <c r="M6" s="256" t="s">
+        <v>291</v>
+      </c>
+      <c r="N6" s="355">
         <v>179</v>
       </c>
-      <c r="O6" s="356">
+      <c r="O6" s="355">
         <v>250</v>
       </c>
       <c r="P6" s="202">
@@ -5208,112 +5257,112 @@
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C7" s="258" t="s">
-        <v>291</v>
-      </c>
-      <c r="D7" s="251">
+      <c r="C7" s="257" t="s">
+        <v>290</v>
+      </c>
+      <c r="D7" s="250">
         <v>15</v>
       </c>
-      <c r="E7" s="253" t="s">
-        <v>301</v>
-      </c>
-      <c r="F7" s="252">
+      <c r="E7" s="252" t="s">
+        <v>300</v>
+      </c>
+      <c r="F7" s="251">
         <f>F6*D7/100</f>
         <v>15970.5</v>
       </c>
-      <c r="H7" s="258" t="s">
-        <v>291</v>
-      </c>
-      <c r="I7" s="251">
+      <c r="H7" s="257" t="s">
+        <v>290</v>
+      </c>
+      <c r="I7" s="250">
         <v>0</v>
       </c>
-      <c r="J7" s="253" t="s">
-        <v>301</v>
-      </c>
-      <c r="K7" s="252">
+      <c r="J7" s="252" t="s">
+        <v>300</v>
+      </c>
+      <c r="K7" s="251">
         <f>K6*I7/100</f>
         <v>0</v>
       </c>
-      <c r="M7" s="258" t="s">
-        <v>291</v>
-      </c>
-      <c r="N7" s="251">
+      <c r="M7" s="257" t="s">
+        <v>290</v>
+      </c>
+      <c r="N7" s="250">
         <v>0</v>
       </c>
-      <c r="O7" s="253" t="s">
-        <v>301</v>
-      </c>
-      <c r="P7" s="252">
+      <c r="O7" s="252" t="s">
+        <v>300</v>
+      </c>
+      <c r="P7" s="251">
         <f>P6*N7/100</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="259" t="s">
-        <v>303</v>
-      </c>
-      <c r="D8" s="254">
+      <c r="C8" s="258" t="s">
+        <v>302</v>
+      </c>
+      <c r="D8" s="253">
         <v>15</v>
       </c>
-      <c r="E8" s="255" t="s">
-        <v>302</v>
-      </c>
-      <c r="F8" s="256">
+      <c r="E8" s="254" t="s">
+        <v>301</v>
+      </c>
+      <c r="F8" s="255">
         <f>F6*D8/100</f>
         <v>15970.5</v>
       </c>
-      <c r="H8" s="259" t="s">
-        <v>303</v>
-      </c>
-      <c r="I8" s="254">
+      <c r="H8" s="258" t="s">
+        <v>302</v>
+      </c>
+      <c r="I8" s="253">
         <v>0</v>
       </c>
-      <c r="J8" s="255" t="s">
-        <v>302</v>
-      </c>
-      <c r="K8" s="256">
+      <c r="J8" s="254" t="s">
+        <v>301</v>
+      </c>
+      <c r="K8" s="255">
         <f>K6*I8/100</f>
         <v>0</v>
       </c>
-      <c r="M8" s="259" t="s">
-        <v>303</v>
-      </c>
-      <c r="N8" s="254">
+      <c r="M8" s="258" t="s">
+        <v>302</v>
+      </c>
+      <c r="N8" s="253">
         <v>0</v>
       </c>
-      <c r="O8" s="255" t="s">
-        <v>301</v>
-      </c>
-      <c r="P8" s="256">
+      <c r="O8" s="254" t="s">
+        <v>300</v>
+      </c>
+      <c r="P8" s="255">
         <f>P6*N8/100</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:16" s="56" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="442" t="s">
-        <v>297</v>
-      </c>
-      <c r="D9" s="443"/>
-      <c r="E9" s="443"/>
-      <c r="F9" s="265">
+      <c r="C9" s="448" t="s">
+        <v>296</v>
+      </c>
+      <c r="D9" s="449"/>
+      <c r="E9" s="449"/>
+      <c r="F9" s="264">
         <f>SUM(F6:F8)</f>
         <v>138411</v>
       </c>
-      <c r="H9" s="442" t="s">
-        <v>297</v>
-      </c>
-      <c r="I9" s="443"/>
-      <c r="J9" s="443"/>
-      <c r="K9" s="265">
+      <c r="H9" s="448" t="s">
+        <v>296</v>
+      </c>
+      <c r="I9" s="449"/>
+      <c r="J9" s="449"/>
+      <c r="K9" s="264">
         <f>SUM(K6:K8)</f>
         <v>42250</v>
       </c>
-      <c r="M9" s="442" t="s">
-        <v>297</v>
-      </c>
-      <c r="N9" s="443"/>
-      <c r="O9" s="443"/>
-      <c r="P9" s="265">
+      <c r="M9" s="448" t="s">
+        <v>296</v>
+      </c>
+      <c r="N9" s="449"/>
+      <c r="O9" s="449"/>
+      <c r="P9" s="264">
         <f>SUM(P6:P8)</f>
         <v>44750</v>
       </c>
@@ -5331,46 +5380,46 @@
       <c r="P10" s="5"/>
     </row>
     <row r="11" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="263" t="s">
+      <c r="C11" s="262" t="s">
+        <v>297</v>
+      </c>
+      <c r="D11" s="263" t="s">
         <v>298</v>
       </c>
-      <c r="D11" s="264" t="s">
-        <v>299</v>
-      </c>
       <c r="E11" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="F11" s="33" t="s">
         <v>295</v>
       </c>
-      <c r="F11" s="33" t="s">
-        <v>296</v>
-      </c>
-      <c r="H11" s="263" t="s">
+      <c r="H11" s="262" t="s">
+        <v>297</v>
+      </c>
+      <c r="I11" s="263" t="s">
         <v>298</v>
       </c>
-      <c r="I11" s="264" t="s">
-        <v>299</v>
-      </c>
       <c r="J11" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="K11" s="33" t="s">
         <v>295</v>
       </c>
-      <c r="K11" s="33" t="s">
-        <v>296</v>
-      </c>
-      <c r="M11" s="263" t="s">
+      <c r="M11" s="262" t="s">
+        <v>297</v>
+      </c>
+      <c r="N11" s="263" t="s">
         <v>298</v>
       </c>
-      <c r="N11" s="264" t="s">
-        <v>299</v>
-      </c>
       <c r="O11" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="P11" s="33" t="s">
         <v>295</v>
       </c>
-      <c r="P11" s="33" t="s">
-        <v>296</v>
-      </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C12" s="266" t="s">
-        <v>292</v>
+      <c r="C12" s="265" t="s">
+        <v>291</v>
       </c>
       <c r="D12" s="140">
         <v>4</v>
@@ -5383,8 +5432,8 @@
         <f>D12*E12</f>
         <v>553644</v>
       </c>
-      <c r="H12" s="266" t="s">
-        <v>292</v>
+      <c r="H12" s="265" t="s">
+        <v>291</v>
       </c>
       <c r="I12" s="140">
         <v>4</v>
@@ -5397,13 +5446,13 @@
         <f>I12*J12</f>
         <v>169000</v>
       </c>
-      <c r="M12" s="266" t="s">
-        <v>292</v>
-      </c>
-      <c r="N12" s="356">
+      <c r="M12" s="265" t="s">
+        <v>291</v>
+      </c>
+      <c r="N12" s="355">
         <v>3</v>
       </c>
-      <c r="O12" s="356">
+      <c r="O12" s="355">
         <v>50000</v>
       </c>
       <c r="P12" s="99">
@@ -5412,8 +5461,8 @@
       </c>
     </row>
     <row r="13" spans="2:16" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="259" t="s">
-        <v>307</v>
+      <c r="C13" s="258" t="s">
+        <v>306</v>
       </c>
       <c r="D13" s="4">
         <v>4</v>
@@ -5421,12 +5470,12 @@
       <c r="E13" s="4">
         <v>0</v>
       </c>
-      <c r="F13" s="267">
+      <c r="F13" s="266">
         <f>D13*E13</f>
         <v>0</v>
       </c>
-      <c r="H13" s="259" t="s">
-        <v>307</v>
+      <c r="H13" s="258" t="s">
+        <v>306</v>
       </c>
       <c r="I13" s="4">
         <v>4</v>
@@ -5434,56 +5483,56 @@
       <c r="J13" s="4">
         <v>0</v>
       </c>
-      <c r="K13" s="267">
+      <c r="K13" s="266">
         <f>I13*J13</f>
         <v>0</v>
       </c>
-      <c r="M13" s="259" t="s">
-        <v>307</v>
-      </c>
-      <c r="N13" s="353">
+      <c r="M13" s="258" t="s">
+        <v>306</v>
+      </c>
+      <c r="N13" s="352">
         <v>3</v>
       </c>
-      <c r="O13" s="353">
+      <c r="O13" s="352">
         <v>0</v>
       </c>
-      <c r="P13" s="267">
+      <c r="P13" s="266">
         <f>N13*O13</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="442" t="s">
-        <v>300</v>
-      </c>
-      <c r="D14" s="443"/>
-      <c r="E14" s="463">
+      <c r="C14" s="448" t="s">
+        <v>299</v>
+      </c>
+      <c r="D14" s="449"/>
+      <c r="E14" s="469">
         <f>F12</f>
         <v>553644</v>
       </c>
-      <c r="F14" s="464"/>
-      <c r="H14" s="442" t="s">
-        <v>300</v>
-      </c>
-      <c r="I14" s="443"/>
-      <c r="J14" s="463">
+      <c r="F14" s="470"/>
+      <c r="H14" s="448" t="s">
+        <v>299</v>
+      </c>
+      <c r="I14" s="449"/>
+      <c r="J14" s="469">
         <f>K12</f>
         <v>169000</v>
       </c>
-      <c r="K14" s="464"/>
-      <c r="M14" s="442" t="s">
-        <v>300</v>
-      </c>
-      <c r="N14" s="443"/>
-      <c r="O14" s="463">
+      <c r="K14" s="470"/>
+      <c r="M14" s="448" t="s">
+        <v>299</v>
+      </c>
+      <c r="N14" s="449"/>
+      <c r="O14" s="469">
         <f>P12</f>
         <v>150000</v>
       </c>
-      <c r="P14" s="464"/>
+      <c r="P14" s="470"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C15" s="465"/>
-      <c r="D15" s="465"/>
+      <c r="C15" s="471"/>
+      <c r="D15" s="471"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
@@ -5497,35 +5546,35 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="M17" s="56" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="3:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="260" t="s">
-        <v>298</v>
-      </c>
-      <c r="D18" s="261" t="s">
+      <c r="C18" s="259" t="s">
+        <v>297</v>
+      </c>
+      <c r="D18" s="260" t="s">
+        <v>293</v>
+      </c>
+      <c r="E18" s="260" t="s">
         <v>294</v>
       </c>
-      <c r="E18" s="261" t="s">
+      <c r="F18" s="261" t="s">
         <v>295</v>
       </c>
-      <c r="F18" s="262" t="s">
-        <v>296</v>
-      </c>
       <c r="M18" s="56" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="3:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="257" t="s">
-        <v>304</v>
+      <c r="C19" s="256" t="s">
+        <v>303</v>
       </c>
       <c r="D19" s="140">
         <v>52</v>
@@ -5537,40 +5586,40 @@
         <f>D19*E19</f>
         <v>34840</v>
       </c>
-      <c r="M19" s="260" t="s">
-        <v>298</v>
-      </c>
-      <c r="N19" s="261" t="s">
+      <c r="M19" s="259" t="s">
+        <v>297</v>
+      </c>
+      <c r="N19" s="260" t="s">
+        <v>293</v>
+      </c>
+      <c r="O19" s="260" t="s">
         <v>294</v>
       </c>
-      <c r="O19" s="261" t="s">
+      <c r="P19" s="261" t="s">
         <v>295</v>
       </c>
-      <c r="P19" s="262" t="s">
-        <v>296</v>
-      </c>
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C20" s="258" t="s">
-        <v>291</v>
-      </c>
-      <c r="D20" s="251">
+      <c r="C20" s="257" t="s">
+        <v>290</v>
+      </c>
+      <c r="D20" s="250">
         <v>15</v>
       </c>
-      <c r="E20" s="253" t="s">
-        <v>301</v>
-      </c>
-      <c r="F20" s="252">
+      <c r="E20" s="252" t="s">
+        <v>300</v>
+      </c>
+      <c r="F20" s="251">
         <f>F19*D20/100</f>
         <v>5226</v>
       </c>
-      <c r="M20" s="257" t="s">
-        <v>292</v>
-      </c>
-      <c r="N20" s="356">
+      <c r="M20" s="256" t="s">
+        <v>291</v>
+      </c>
+      <c r="N20" s="355">
         <v>72</v>
       </c>
-      <c r="O20" s="356">
+      <c r="O20" s="355">
         <v>250</v>
       </c>
       <c r="P20" s="202">
@@ -5579,53 +5628,53 @@
       </c>
     </row>
     <row r="21" spans="3:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="259" t="s">
-        <v>303</v>
-      </c>
-      <c r="D21" s="254">
+      <c r="C21" s="258" t="s">
+        <v>302</v>
+      </c>
+      <c r="D21" s="253">
         <v>15</v>
       </c>
-      <c r="E21" s="255" t="s">
-        <v>302</v>
-      </c>
-      <c r="F21" s="256">
+      <c r="E21" s="254" t="s">
+        <v>301</v>
+      </c>
+      <c r="F21" s="255">
         <f>F19*D21/100</f>
         <v>5226</v>
       </c>
-      <c r="M21" s="258" t="s">
-        <v>291</v>
-      </c>
-      <c r="N21" s="251">
+      <c r="M21" s="257" t="s">
+        <v>290</v>
+      </c>
+      <c r="N21" s="250">
         <v>0</v>
       </c>
-      <c r="O21" s="253" t="s">
-        <v>301</v>
-      </c>
-      <c r="P21" s="252">
+      <c r="O21" s="252" t="s">
+        <v>300</v>
+      </c>
+      <c r="P21" s="251">
         <f>P20*N21/100</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="3:16" s="56" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="442" t="s">
-        <v>297</v>
-      </c>
-      <c r="D22" s="443"/>
-      <c r="E22" s="443"/>
-      <c r="F22" s="265">
+      <c r="C22" s="448" t="s">
+        <v>296</v>
+      </c>
+      <c r="D22" s="449"/>
+      <c r="E22" s="449"/>
+      <c r="F22" s="264">
         <f>SUM(F19:F21)</f>
         <v>45292</v>
       </c>
-      <c r="M22" s="259" t="s">
-        <v>303</v>
-      </c>
-      <c r="N22" s="254">
+      <c r="M22" s="258" t="s">
+        <v>302</v>
+      </c>
+      <c r="N22" s="253">
         <v>0</v>
       </c>
-      <c r="O22" s="255" t="s">
-        <v>301</v>
-      </c>
-      <c r="P22" s="256">
+      <c r="O22" s="254" t="s">
+        <v>300</v>
+      </c>
+      <c r="P22" s="255">
         <f>P20*N22/100</f>
         <v>0</v>
       </c>
@@ -5634,28 +5683,28 @@
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
-      <c r="M23" s="442" t="s">
-        <v>297</v>
-      </c>
-      <c r="N23" s="443"/>
-      <c r="O23" s="443"/>
-      <c r="P23" s="265">
+      <c r="M23" s="448" t="s">
+        <v>296</v>
+      </c>
+      <c r="N23" s="449"/>
+      <c r="O23" s="449"/>
+      <c r="P23" s="264">
         <f>SUM(P20:P22)</f>
         <v>18000</v>
       </c>
     </row>
     <row r="24" spans="3:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="263" t="s">
+      <c r="C24" s="262" t="s">
+        <v>297</v>
+      </c>
+      <c r="D24" s="263" t="s">
         <v>298</v>
       </c>
-      <c r="D24" s="264" t="s">
-        <v>299</v>
-      </c>
       <c r="E24" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="F24" s="33" t="s">
         <v>295</v>
-      </c>
-      <c r="F24" s="33" t="s">
-        <v>296</v>
       </c>
       <c r="M24" s="56"/>
       <c r="N24" s="5"/>
@@ -5663,8 +5712,8 @@
       <c r="P24" s="5"/>
     </row>
     <row r="25" spans="3:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="257" t="s">
-        <v>304</v>
+      <c r="C25" s="256" t="s">
+        <v>303</v>
       </c>
       <c r="D25" s="140">
         <v>4</v>
@@ -5677,22 +5726,22 @@
         <f>D25*E25</f>
         <v>181168</v>
       </c>
-      <c r="M25" s="263" t="s">
+      <c r="M25" s="262" t="s">
+        <v>297</v>
+      </c>
+      <c r="N25" s="263" t="s">
         <v>298</v>
       </c>
-      <c r="N25" s="264" t="s">
-        <v>299</v>
-      </c>
       <c r="O25" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="P25" s="33" t="s">
         <v>295</v>
       </c>
-      <c r="P25" s="33" t="s">
-        <v>296</v>
-      </c>
     </row>
     <row r="26" spans="3:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="259" t="s">
-        <v>305</v>
+      <c r="C26" s="258" t="s">
+        <v>304</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
@@ -5700,17 +5749,17 @@
       <c r="E26" s="4">
         <v>110000</v>
       </c>
-      <c r="F26" s="267">
+      <c r="F26" s="266">
         <f>D26*E26</f>
         <v>110000</v>
       </c>
-      <c r="M26" s="266" t="s">
-        <v>292</v>
-      </c>
-      <c r="N26" s="356">
+      <c r="M26" s="265" t="s">
+        <v>291</v>
+      </c>
+      <c r="N26" s="355">
         <v>5</v>
       </c>
-      <c r="O26" s="356">
+      <c r="O26" s="355">
         <v>18000</v>
       </c>
       <c r="P26" s="99">
@@ -5719,8 +5768,8 @@
       </c>
     </row>
     <row r="27" spans="3:16" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="259" t="s">
-        <v>307</v>
+      <c r="C27" s="258" t="s">
+        <v>306</v>
       </c>
       <c r="D27" s="4">
         <v>4</v>
@@ -5728,48 +5777,48 @@
       <c r="E27" s="4">
         <v>0</v>
       </c>
-      <c r="F27" s="267">
+      <c r="F27" s="266">
         <f>D27*E27</f>
         <v>0</v>
       </c>
       <c r="H27" s="56"/>
-      <c r="M27" s="259" t="s">
-        <v>307</v>
-      </c>
-      <c r="N27" s="353">
+      <c r="M27" s="258" t="s">
+        <v>306</v>
+      </c>
+      <c r="N27" s="352">
         <v>3</v>
       </c>
-      <c r="O27" s="353">
+      <c r="O27" s="352">
         <v>0</v>
       </c>
-      <c r="P27" s="267">
+      <c r="P27" s="266">
         <f>N27*O27</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="3:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="442" t="s">
-        <v>300</v>
-      </c>
-      <c r="D28" s="443"/>
-      <c r="E28" s="463">
+      <c r="C28" s="448" t="s">
+        <v>299</v>
+      </c>
+      <c r="D28" s="449"/>
+      <c r="E28" s="469">
         <f>SUM(F25:F27)</f>
         <v>291168</v>
       </c>
-      <c r="F28" s="464"/>
-      <c r="M28" s="442" t="s">
-        <v>300</v>
-      </c>
-      <c r="N28" s="443"/>
-      <c r="O28" s="463">
+      <c r="F28" s="470"/>
+      <c r="M28" s="448" t="s">
+        <v>299</v>
+      </c>
+      <c r="N28" s="449"/>
+      <c r="O28" s="469">
         <f>P26</f>
         <v>90000</v>
       </c>
-      <c r="P28" s="464"/>
+      <c r="P28" s="470"/>
     </row>
     <row r="31" spans="3:16" x14ac:dyDescent="0.3">
       <c r="M31" s="56" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
@@ -5777,34 +5826,34 @@
     </row>
     <row r="32" spans="3:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M32" s="56" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
     </row>
     <row r="33" spans="13:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M33" s="260" t="s">
-        <v>298</v>
-      </c>
-      <c r="N33" s="261" t="s">
+      <c r="M33" s="259" t="s">
+        <v>297</v>
+      </c>
+      <c r="N33" s="260" t="s">
+        <v>293</v>
+      </c>
+      <c r="O33" s="260" t="s">
         <v>294</v>
       </c>
-      <c r="O33" s="261" t="s">
+      <c r="P33" s="261" t="s">
         <v>295</v>
       </c>
-      <c r="P33" s="262" t="s">
-        <v>296</v>
-      </c>
     </row>
     <row r="34" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M34" s="257" t="s">
-        <v>292</v>
-      </c>
-      <c r="N34" s="356">
+      <c r="M34" s="256" t="s">
+        <v>291</v>
+      </c>
+      <c r="N34" s="355">
         <v>54</v>
       </c>
-      <c r="O34" s="356">
+      <c r="O34" s="355">
         <v>250</v>
       </c>
       <c r="P34" s="202">
@@ -5813,42 +5862,42 @@
       </c>
     </row>
     <row r="35" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M35" s="258" t="s">
-        <v>291</v>
-      </c>
-      <c r="N35" s="251">
+      <c r="M35" s="257" t="s">
+        <v>290</v>
+      </c>
+      <c r="N35" s="250">
         <v>0</v>
       </c>
-      <c r="O35" s="253" t="s">
-        <v>301</v>
-      </c>
-      <c r="P35" s="252">
+      <c r="O35" s="252" t="s">
+        <v>300</v>
+      </c>
+      <c r="P35" s="251">
         <f>P34*N35/100</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="13:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M36" s="259" t="s">
-        <v>303</v>
-      </c>
-      <c r="N36" s="254">
+      <c r="M36" s="258" t="s">
+        <v>302</v>
+      </c>
+      <c r="N36" s="253">
         <v>0</v>
       </c>
-      <c r="O36" s="255" t="s">
-        <v>301</v>
-      </c>
-      <c r="P36" s="256">
+      <c r="O36" s="254" t="s">
+        <v>300</v>
+      </c>
+      <c r="P36" s="255">
         <f>P34*N36/100</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="13:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M37" s="442" t="s">
-        <v>297</v>
-      </c>
-      <c r="N37" s="443"/>
-      <c r="O37" s="443"/>
-      <c r="P37" s="265">
+      <c r="M37" s="448" t="s">
+        <v>296</v>
+      </c>
+      <c r="N37" s="449"/>
+      <c r="O37" s="449"/>
+      <c r="P37" s="264">
         <f>SUM(P34:P36)</f>
         <v>13500</v>
       </c>
@@ -5860,27 +5909,27 @@
       <c r="P38" s="5"/>
     </row>
     <row r="39" spans="13:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M39" s="263" t="s">
+      <c r="M39" s="262" t="s">
+        <v>297</v>
+      </c>
+      <c r="N39" s="263" t="s">
         <v>298</v>
       </c>
-      <c r="N39" s="264" t="s">
-        <v>299</v>
-      </c>
       <c r="O39" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="P39" s="33" t="s">
         <v>295</v>
       </c>
-      <c r="P39" s="33" t="s">
-        <v>296</v>
-      </c>
     </row>
     <row r="40" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="M40" s="266" t="s">
-        <v>292</v>
-      </c>
-      <c r="N40" s="356">
+      <c r="M40" s="265" t="s">
+        <v>291</v>
+      </c>
+      <c r="N40" s="355">
         <v>10</v>
       </c>
-      <c r="O40" s="356">
+      <c r="O40" s="355">
         <v>1350</v>
       </c>
       <c r="P40" s="99">
@@ -5889,30 +5938,30 @@
       </c>
     </row>
     <row r="41" spans="13:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M41" s="259" t="s">
-        <v>307</v>
-      </c>
-      <c r="N41" s="353">
+      <c r="M41" s="258" t="s">
+        <v>306</v>
+      </c>
+      <c r="N41" s="352">
         <v>3</v>
       </c>
-      <c r="O41" s="353">
+      <c r="O41" s="352">
         <v>0</v>
       </c>
-      <c r="P41" s="267">
+      <c r="P41" s="266">
         <f>N41*O41</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="13:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M42" s="442" t="s">
-        <v>300</v>
-      </c>
-      <c r="N42" s="443"/>
-      <c r="O42" s="463">
+      <c r="M42" s="448" t="s">
+        <v>299</v>
+      </c>
+      <c r="N42" s="449"/>
+      <c r="O42" s="469">
         <f>P40</f>
         <v>13500</v>
       </c>
-      <c r="P42" s="464"/>
+      <c r="P42" s="470"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -5944,10 +5993,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N24"/>
+  <dimension ref="A2:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5961,7 +6010,7 @@
   <sheetData>
     <row r="2" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="56" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -5990,32 +6039,32 @@
         <v>20</v>
       </c>
       <c r="J3" s="81" t="s">
+        <v>204</v>
+      </c>
+      <c r="K3" s="81" t="s">
         <v>205</v>
       </c>
-      <c r="K3" s="81" t="s">
+      <c r="L3" s="82" t="s">
         <v>206</v>
       </c>
-      <c r="L3" s="82" t="s">
-        <v>207</v>
-      </c>
       <c r="M3" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="411" t="s">
-        <v>394</v>
+      <c r="B4" s="410" t="s">
+        <v>393</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>393</v>
-      </c>
-      <c r="E4" s="419" t="s">
+        <v>392</v>
+      </c>
+      <c r="E4" s="418" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="35"/>
@@ -6023,16 +6072,16 @@
         <v>17000</v>
       </c>
       <c r="H4" s="35"/>
-      <c r="I4" s="419">
+      <c r="I4" s="418">
         <v>2</v>
       </c>
-      <c r="J4" s="404">
+      <c r="J4" s="403">
         <f t="shared" ref="J4:J11" si="0">G4*I4</f>
         <v>34000</v>
       </c>
       <c r="K4" s="35"/>
-      <c r="L4" s="412" t="s">
-        <v>410</v>
+      <c r="L4" s="411" t="s">
+        <v>409</v>
       </c>
       <c r="M4" s="55">
         <v>12</v>
@@ -6043,32 +6092,32 @@
         <v>2</v>
       </c>
       <c r="B5" s="101" t="s">
+        <v>395</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>397</v>
+      </c>
+      <c r="D5" s="34" t="s">
         <v>396</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>398</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>397</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="34"/>
-      <c r="G5" s="413">
+      <c r="G5" s="412">
         <v>24000</v>
       </c>
       <c r="H5" s="34"/>
       <c r="I5" s="17">
         <v>2</v>
       </c>
-      <c r="J5" s="414">
+      <c r="J5" s="413">
         <f t="shared" si="0"/>
         <v>48000</v>
       </c>
       <c r="K5" s="34"/>
       <c r="L5" s="89" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M5" s="55">
         <v>32</v>
@@ -6078,463 +6127,496 @@
       <c r="A6" s="177">
         <v>3</v>
       </c>
-      <c r="B6" s="406" t="s">
+      <c r="B6" s="405" t="s">
+        <v>418</v>
+      </c>
+      <c r="C6" s="180" t="s">
         <v>419</v>
       </c>
-      <c r="C6" s="180" t="s">
-        <v>420</v>
-      </c>
       <c r="D6" s="180" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="180"/>
-      <c r="G6" s="410">
+      <c r="G6" s="409">
         <v>17000</v>
       </c>
       <c r="H6" s="180"/>
-      <c r="I6" s="435">
+      <c r="I6" s="434">
         <v>3</v>
       </c>
-      <c r="J6" s="414">
+      <c r="J6" s="413">
         <f t="shared" si="0"/>
         <v>51000</v>
       </c>
       <c r="K6" s="180"/>
       <c r="L6" s="181" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="177" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="406" t="s">
+      <c r="B7" s="405" t="s">
+        <v>422</v>
+      </c>
+      <c r="C7" s="180" t="s">
+        <v>424</v>
+      </c>
+      <c r="D7" s="180" t="s">
         <v>423</v>
-      </c>
-      <c r="C7" s="180" t="s">
-        <v>425</v>
-      </c>
-      <c r="D7" s="180" t="s">
-        <v>424</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="180"/>
-      <c r="G7" s="410">
+      <c r="G7" s="409">
         <v>23500</v>
       </c>
       <c r="H7" s="180"/>
-      <c r="I7" s="435">
-        <v>1</v>
-      </c>
-      <c r="J7" s="414">
+      <c r="I7" s="434">
+        <v>1</v>
+      </c>
+      <c r="J7" s="413">
         <f t="shared" si="0"/>
         <v>23500</v>
       </c>
       <c r="K7" s="180"/>
       <c r="L7" s="181" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="177" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="177">
         <v>5</v>
       </c>
-      <c r="B8" s="406" t="s">
+      <c r="B8" s="405" t="s">
+        <v>427</v>
+      </c>
+      <c r="C8" s="180" t="s">
         <v>428</v>
       </c>
-      <c r="C8" s="180" t="s">
-        <v>429</v>
-      </c>
       <c r="D8" s="180" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="180"/>
-      <c r="G8" s="410">
+      <c r="G8" s="409">
         <v>4000</v>
       </c>
       <c r="H8" s="180"/>
-      <c r="I8" s="435">
+      <c r="I8" s="434">
         <v>3</v>
       </c>
-      <c r="J8" s="414">
+      <c r="J8" s="413">
         <f t="shared" si="0"/>
         <v>12000</v>
       </c>
       <c r="K8" s="180"/>
       <c r="L8" s="181" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="177" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="406" t="s">
-        <v>439</v>
+      <c r="B9" s="405" t="s">
+        <v>437</v>
       </c>
       <c r="C9" s="180"/>
       <c r="D9" s="180" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="180"/>
-      <c r="G9" s="410">
+      <c r="G9" s="409">
         <v>35000</v>
       </c>
       <c r="H9" s="180"/>
-      <c r="I9" s="435">
-        <v>1</v>
-      </c>
-      <c r="J9" s="414">
+      <c r="I9" s="434">
+        <v>1</v>
+      </c>
+      <c r="J9" s="413">
         <f t="shared" si="0"/>
         <v>35000</v>
       </c>
       <c r="K9" s="180"/>
       <c r="L9" s="181" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="177" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="177">
         <v>7</v>
       </c>
-      <c r="B10" s="406" t="s">
+      <c r="B10" s="405" t="s">
+        <v>430</v>
+      </c>
+      <c r="C10" s="180" t="s">
+        <v>432</v>
+      </c>
+      <c r="D10" s="180" t="s">
         <v>431</v>
-      </c>
-      <c r="C10" s="180" t="s">
-        <v>433</v>
-      </c>
-      <c r="D10" s="180" t="s">
-        <v>432</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="180"/>
-      <c r="G10" s="410">
+      <c r="G10" s="409">
         <v>25000</v>
       </c>
       <c r="H10" s="180"/>
-      <c r="I10" s="435">
-        <v>1</v>
-      </c>
-      <c r="J10" s="414">
+      <c r="I10" s="434">
+        <v>1</v>
+      </c>
+      <c r="J10" s="413">
         <f t="shared" si="0"/>
         <v>25000</v>
       </c>
       <c r="K10" s="180"/>
       <c r="L10" s="181" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="177" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="420">
+      <c r="B11" s="437">
         <v>35590</v>
       </c>
-      <c r="C11" s="415" t="s">
-        <v>436</v>
-      </c>
-      <c r="D11" s="415" t="s">
-        <v>435</v>
-      </c>
-      <c r="E11" s="17" t="s">
+      <c r="C11" s="438" t="s">
+        <v>434</v>
+      </c>
+      <c r="D11" s="438" t="s">
+        <v>476</v>
+      </c>
+      <c r="E11" s="439" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="415"/>
-      <c r="G11" s="416">
+      <c r="F11" s="438"/>
+      <c r="G11" s="440">
         <v>11390</v>
       </c>
-      <c r="H11" s="415"/>
-      <c r="I11" s="415">
-        <v>1</v>
-      </c>
-      <c r="J11" s="417">
+      <c r="H11" s="438"/>
+      <c r="I11" s="438">
+        <v>1</v>
+      </c>
+      <c r="J11" s="441">
         <f t="shared" si="0"/>
         <v>11390</v>
       </c>
-      <c r="K11" s="415"/>
-      <c r="L11" s="418" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="177" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G12" s="407"/>
-    </row>
-    <row r="13" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="56" t="s">
-        <v>417</v>
-      </c>
-      <c r="G13" s="5"/>
+      <c r="K11" s="438"/>
+      <c r="L11" s="442" t="s">
+        <v>435</v>
+      </c>
+      <c r="M11" s="177" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="177" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="419">
+        <v>35283</v>
+      </c>
+      <c r="C12" s="443" t="s">
+        <v>479</v>
+      </c>
+      <c r="D12" s="414" t="s">
+        <v>477</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="414"/>
+      <c r="G12" s="415">
+        <v>20720</v>
+      </c>
+      <c r="H12" s="414"/>
+      <c r="I12" s="414">
+        <v>1</v>
+      </c>
+      <c r="J12" s="416"/>
+      <c r="K12" s="414"/>
+      <c r="L12" s="417" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="177" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="406"/>
     </row>
     <row r="14" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="210" t="s">
+      <c r="B14" s="56" t="s">
+        <v>416</v>
+      </c>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="210" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="81" t="s">
+      <c r="C15" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="81" t="s">
+      <c r="D15" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="211" t="s">
+      <c r="F15" s="211" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="408" t="s">
+      <c r="G15" s="407" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="81" t="s">
+      <c r="H15" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="81" t="s">
+      <c r="I15" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="81" t="s">
+      <c r="J15" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="81" t="s">
+      <c r="K15" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="L14" s="82" t="s">
+      <c r="L15" s="82" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>1</v>
-      </c>
-      <c r="B15" s="421" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="420" t="s">
+        <v>403</v>
+      </c>
+      <c r="C16" s="186" t="s">
         <v>404</v>
       </c>
-      <c r="C15" s="186" t="s">
+      <c r="D16" s="186" t="s">
         <v>405</v>
       </c>
-      <c r="D15" s="186" t="s">
+      <c r="E16" s="418" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="186">
+        <v>1</v>
+      </c>
+      <c r="G16" s="408">
+        <v>1820</v>
+      </c>
+      <c r="H16" s="188">
+        <v>5</v>
+      </c>
+      <c r="I16" s="433">
+        <v>50</v>
+      </c>
+      <c r="J16" s="403">
+        <f>G16*I16</f>
+        <v>91000</v>
+      </c>
+      <c r="K16" s="186"/>
+      <c r="L16" s="404" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>2</v>
+      </c>
+      <c r="B17" s="421" t="s">
         <v>406</v>
       </c>
-      <c r="E15" s="419" t="s">
+      <c r="C17" s="414" t="s">
+        <v>200</v>
+      </c>
+      <c r="D17" s="414" t="s">
+        <v>407</v>
+      </c>
+      <c r="E17" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="186">
-        <v>1</v>
-      </c>
-      <c r="G15" s="409">
-        <v>1820</v>
-      </c>
-      <c r="H15" s="188">
+      <c r="F17" s="414">
+        <v>2</v>
+      </c>
+      <c r="G17" s="415">
+        <v>930</v>
+      </c>
+      <c r="H17" s="414">
+        <v>1</v>
+      </c>
+      <c r="I17" s="432">
+        <v>30</v>
+      </c>
+      <c r="J17" s="416">
+        <f>G17*I17</f>
+        <v>27900</v>
+      </c>
+      <c r="K17" s="414"/>
+      <c r="L17" s="417" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G18" s="5"/>
+      <c r="L18" s="55"/>
+    </row>
+    <row r="19" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="56" t="s">
+        <v>415</v>
+      </c>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="210" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="211" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="407" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="434">
-        <v>50</v>
-      </c>
-      <c r="J15" s="404">
-        <f>G15*I15</f>
-        <v>91000</v>
-      </c>
-      <c r="K15" s="186"/>
-      <c r="L15" s="405" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>2</v>
-      </c>
-      <c r="B16" s="422" t="s">
-        <v>407</v>
-      </c>
-      <c r="C16" s="415" t="s">
-        <v>201</v>
-      </c>
-      <c r="D16" s="415" t="s">
-        <v>408</v>
-      </c>
-      <c r="E16" s="103" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="415">
-        <v>2</v>
-      </c>
-      <c r="G16" s="416">
-        <v>930</v>
-      </c>
-      <c r="H16" s="415">
-        <v>1</v>
-      </c>
-      <c r="I16" s="433">
-        <v>30</v>
-      </c>
-      <c r="J16" s="417">
-        <f>G16*I16</f>
-        <v>27900</v>
-      </c>
-      <c r="K16" s="415"/>
-      <c r="L16" s="418" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G17" s="5"/>
-      <c r="L17" s="55"/>
-    </row>
-    <row r="18" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="56" t="s">
-        <v>416</v>
-      </c>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="210" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="81" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="211" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="408" t="s">
-        <v>6</v>
-      </c>
-      <c r="H19" s="81" t="s">
-        <v>5</v>
-      </c>
-      <c r="I19" s="81" t="s">
+      <c r="I20" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="81" t="s">
+      <c r="J20" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="K19" s="81" t="s">
+      <c r="K20" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="L19" s="82" t="s">
+      <c r="L20" s="82" t="s">
         <v>49</v>
-      </c>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-    </row>
-    <row r="20" spans="1:14" s="177" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>1</v>
-      </c>
-      <c r="B20" s="421" t="s">
-        <v>411</v>
-      </c>
-      <c r="C20" s="186" t="s">
-        <v>324</v>
-      </c>
-      <c r="D20" s="186" t="s">
-        <v>332</v>
-      </c>
-      <c r="E20" s="419" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="186">
-        <v>1</v>
-      </c>
-      <c r="G20" s="409">
-        <v>30</v>
-      </c>
-      <c r="H20" s="186">
-        <f>F20*P$3</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="434">
-        <v>10</v>
-      </c>
-      <c r="J20" s="186">
-        <f>G20*I20</f>
-        <v>300</v>
-      </c>
-      <c r="K20" s="186"/>
-      <c r="L20" s="405" t="s">
-        <v>412</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14" s="177" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" s="177" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>2</v>
-      </c>
-      <c r="B21" s="193" t="s">
-        <v>413</v>
-      </c>
-      <c r="C21" s="415" t="s">
-        <v>414</v>
-      </c>
-      <c r="D21" s="415" t="s">
-        <v>415</v>
-      </c>
-      <c r="E21" s="103" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="420" t="s">
+        <v>410</v>
+      </c>
+      <c r="C21" s="186" t="s">
+        <v>323</v>
+      </c>
+      <c r="D21" s="186" t="s">
+        <v>331</v>
+      </c>
+      <c r="E21" s="418" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="415">
-        <v>1</v>
-      </c>
-      <c r="G21" s="416">
-        <v>160</v>
-      </c>
-      <c r="H21" s="415">
+      <c r="F21" s="186">
+        <v>1</v>
+      </c>
+      <c r="G21" s="408">
+        <v>30</v>
+      </c>
+      <c r="H21" s="186">
         <f>F21*P$3</f>
         <v>0</v>
       </c>
       <c r="I21" s="433">
-        <v>5</v>
-      </c>
-      <c r="J21" s="415">
+        <v>10</v>
+      </c>
+      <c r="J21" s="186">
         <f>G21*I21</f>
-        <v>800</v>
-      </c>
-      <c r="K21" s="415"/>
-      <c r="L21" s="418" t="s">
-        <v>443</v>
+        <v>300</v>
+      </c>
+      <c r="K21" s="186"/>
+      <c r="L21" s="404" t="s">
+        <v>411</v>
       </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G22" s="5"/>
+    <row r="22" spans="1:14" s="177" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>2</v>
+      </c>
+      <c r="B22" s="193" t="s">
+        <v>412</v>
+      </c>
+      <c r="C22" s="414" t="s">
+        <v>413</v>
+      </c>
+      <c r="D22" s="414" t="s">
+        <v>414</v>
+      </c>
+      <c r="E22" s="103" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="414">
+        <v>1</v>
+      </c>
+      <c r="G22" s="415">
+        <v>160</v>
+      </c>
+      <c r="H22" s="414">
+        <f>F22*P$3</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="432">
+        <v>5</v>
+      </c>
+      <c r="J22" s="414">
+        <f>G22*I22</f>
+        <v>800</v>
+      </c>
+      <c r="K22" s="414"/>
+      <c r="L22" s="417" t="s">
+        <v>441</v>
+      </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J23" s="11">
-        <f>SUM(J4:J22)</f>
-        <v>359890</v>
-      </c>
+      <c r="G23" s="5"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="J24" s="50">
-        <f>J23+J23*0.1</f>
-        <v>395879</v>
+      <c r="J24" s="11">
+        <f>SUM(J4:J23)</f>
+        <v>359890</v>
       </c>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J25" s="50">
+        <f>J24+J24*0.1</f>
+        <v>395879</v>
+      </c>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -6546,8 +6628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6560,7 +6642,7 @@
   <sheetData>
     <row r="2" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="56" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -6579,7 +6661,7 @@
       <c r="F3" s="211" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="408" t="s">
+      <c r="G3" s="407" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="81" t="s">
@@ -6600,151 +6682,151 @@
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="185" t="s">
+        <v>442</v>
+      </c>
+      <c r="C4" s="186" t="s">
+        <v>443</v>
+      </c>
+      <c r="D4" s="186" t="s">
         <v>444</v>
       </c>
-      <c r="C4" s="186" t="s">
-        <v>445</v>
-      </c>
-      <c r="D4" s="186" t="s">
-        <v>446</v>
-      </c>
-      <c r="E4" s="355"/>
+      <c r="E4" s="354"/>
       <c r="F4" s="187">
         <v>5</v>
       </c>
-      <c r="G4" s="404">
+      <c r="G4" s="403">
         <v>50</v>
       </c>
-      <c r="H4" s="437">
+      <c r="H4" s="436">
         <v>100</v>
       </c>
       <c r="I4" s="188">
         <v>200</v>
       </c>
-      <c r="J4" s="426">
+      <c r="J4" s="425">
         <v>10000</v>
       </c>
-      <c r="K4" s="426"/>
-      <c r="L4" s="405" t="s">
-        <v>473</v>
+      <c r="K4" s="425"/>
+      <c r="L4" s="404" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="134" t="s">
+        <v>446</v>
+      </c>
+      <c r="C5" s="180" t="s">
+        <v>447</v>
+      </c>
+      <c r="D5" s="180" t="s">
         <v>448</v>
       </c>
-      <c r="C5" s="180" t="s">
-        <v>449</v>
-      </c>
-      <c r="D5" s="180" t="s">
-        <v>450</v>
-      </c>
-      <c r="E5" s="348"/>
-      <c r="F5" s="298">
+      <c r="E5" s="347"/>
+      <c r="F5" s="297">
         <v>14</v>
       </c>
-      <c r="G5" s="349">
+      <c r="G5" s="348">
         <v>10</v>
       </c>
-      <c r="H5" s="348"/>
-      <c r="I5" s="348">
+      <c r="H5" s="347"/>
+      <c r="I5" s="347">
         <v>200</v>
       </c>
-      <c r="J5" s="349">
+      <c r="J5" s="348">
         <f>G5*I5</f>
         <v>2000</v>
       </c>
-      <c r="K5" s="348"/>
-      <c r="L5" s="427" t="s">
-        <v>474</v>
+      <c r="K5" s="347"/>
+      <c r="L5" s="426" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="134" t="s">
+        <v>449</v>
+      </c>
+      <c r="C6" s="180" t="s">
+        <v>450</v>
+      </c>
+      <c r="D6" s="180" t="s">
         <v>451</v>
       </c>
-      <c r="C6" s="180" t="s">
-        <v>452</v>
-      </c>
-      <c r="D6" s="180" t="s">
-        <v>453</v>
-      </c>
-      <c r="E6" s="348"/>
+      <c r="E6" s="347"/>
       <c r="F6" s="60">
         <v>10</v>
       </c>
-      <c r="G6" s="349">
+      <c r="G6" s="348">
         <v>5.0999999999999996</v>
       </c>
-      <c r="H6" s="348"/>
-      <c r="I6" s="348">
+      <c r="H6" s="347"/>
+      <c r="I6" s="347">
         <v>300</v>
       </c>
-      <c r="J6" s="349">
+      <c r="J6" s="348">
         <f>G6*I6</f>
         <v>1530</v>
       </c>
-      <c r="K6" s="348"/>
+      <c r="K6" s="347"/>
       <c r="L6" s="89" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="428" t="s">
-        <v>455</v>
+      <c r="B7" s="427" t="s">
+        <v>453</v>
       </c>
       <c r="C7" s="180" t="s">
+        <v>450</v>
+      </c>
+      <c r="D7" s="58" t="s">
         <v>452</v>
       </c>
-      <c r="D7" s="58" t="s">
-        <v>454</v>
-      </c>
-      <c r="E7" s="348"/>
-      <c r="F7" s="348"/>
-      <c r="G7" s="349">
+      <c r="E7" s="347"/>
+      <c r="F7" s="347"/>
+      <c r="G7" s="348">
         <v>5</v>
       </c>
-      <c r="H7" s="348"/>
-      <c r="I7" s="348">
+      <c r="H7" s="347"/>
+      <c r="I7" s="347">
         <v>200</v>
       </c>
-      <c r="J7" s="349">
+      <c r="J7" s="348">
         <f>G7*I7</f>
         <v>1000</v>
       </c>
-      <c r="K7" s="348"/>
+      <c r="K7" s="347"/>
       <c r="L7" s="89" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="8" spans="2:16" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="76" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C8" s="190" t="s">
         <v>64</v>
       </c>
       <c r="D8" s="190" t="s">
-        <v>460</v>
-      </c>
-      <c r="E8" s="327"/>
-      <c r="F8" s="429"/>
-      <c r="G8" s="429">
+        <v>457</v>
+      </c>
+      <c r="E8" s="326"/>
+      <c r="F8" s="428"/>
+      <c r="G8" s="428">
         <v>130</v>
       </c>
-      <c r="H8" s="429">
+      <c r="H8" s="428">
         <v>300</v>
       </c>
-      <c r="I8" s="429">
+      <c r="I8" s="428">
         <v>300</v>
       </c>
-      <c r="J8" s="353">
+      <c r="J8" s="352">
         <f>G8*I8</f>
         <v>39000</v>
       </c>
       <c r="K8" s="36"/>
-      <c r="L8" s="418" t="s">
-        <v>477</v>
+      <c r="L8" s="417" t="s">
+        <v>474</v>
       </c>
       <c r="P8" s="39"/>
     </row>
@@ -6752,11 +6834,11 @@
       <c r="G9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="2:16" s="424" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="423" t="s">
-        <v>456</v>
-      </c>
-      <c r="J10" s="425"/>
+    <row r="10" spans="2:16" s="423" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="422" t="s">
+        <v>454</v>
+      </c>
+      <c r="J10" s="424"/>
     </row>
     <row r="11" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="210" t="s">
@@ -6774,7 +6856,7 @@
       <c r="F11" s="211" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="408" t="s">
+      <c r="G11" s="407" t="s">
         <v>6</v>
       </c>
       <c r="H11" s="81" t="s">
@@ -6794,14 +6876,14 @@
       </c>
     </row>
     <row r="12" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="430" t="s">
-        <v>457</v>
-      </c>
-      <c r="C12" s="431" t="s">
+      <c r="B12" s="429" t="s">
+        <v>455</v>
+      </c>
+      <c r="C12" s="430" t="s">
         <v>64</v>
       </c>
       <c r="D12" s="104" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E12" s="104"/>
       <c r="F12" s="104"/>
@@ -6819,8 +6901,8 @@
         <v>2500</v>
       </c>
       <c r="K12" s="104"/>
-      <c r="L12" s="432" t="s">
-        <v>478</v>
+      <c r="L12" s="431" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
@@ -6852,7 +6934,7 @@
       <c r="F20" s="211" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="408" t="s">
+      <c r="G20" s="407" t="s">
         <v>6</v>
       </c>
       <c r="H20" s="81" t="s">
@@ -6872,12 +6954,12 @@
       </c>
     </row>
     <row r="21" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="430" t="s">
-        <v>461</v>
+      <c r="B21" s="429" t="s">
+        <v>458</v>
       </c>
       <c r="C21" s="104"/>
       <c r="D21" s="104" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E21" s="104"/>
       <c r="F21" s="104"/>
@@ -6893,8 +6975,8 @@
         <v>57600</v>
       </c>
       <c r="K21" s="104"/>
-      <c r="L21" s="432" t="s">
-        <v>463</v>
+      <c r="L21" s="431" t="s">
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -6931,52 +7013,52 @@
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B2" s="56" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="3" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="260" t="s">
+      <c r="B4" s="259" t="s">
+        <v>364</v>
+      </c>
+      <c r="C4" s="260" t="s">
         <v>365</v>
       </c>
-      <c r="C4" s="261" t="s">
-        <v>366</v>
-      </c>
-      <c r="D4" s="261" t="s">
-        <v>376</v>
-      </c>
-      <c r="E4" s="261" t="s">
+      <c r="D4" s="260" t="s">
+        <v>375</v>
+      </c>
+      <c r="E4" s="260" t="s">
+        <v>368</v>
+      </c>
+      <c r="F4" s="260" t="s">
+        <v>371</v>
+      </c>
+      <c r="G4" s="260" t="s">
         <v>369</v>
       </c>
-      <c r="F4" s="261" t="s">
-        <v>372</v>
-      </c>
-      <c r="G4" s="261" t="s">
+      <c r="H4" s="260" t="s">
         <v>370</v>
       </c>
-      <c r="H4" s="261" t="s">
-        <v>371</v>
-      </c>
-      <c r="I4" s="262" t="s">
-        <v>374</v>
-      </c>
-      <c r="K4" s="444" t="s">
-        <v>95</v>
-      </c>
-      <c r="L4" s="438"/>
-      <c r="M4" s="446" t="s">
-        <v>85</v>
-      </c>
-      <c r="N4" s="446"/>
-      <c r="O4" s="446"/>
-      <c r="P4" s="438" t="s">
+      <c r="I4" s="261" t="s">
+        <v>373</v>
+      </c>
+      <c r="K4" s="450" t="s">
+        <v>94</v>
+      </c>
+      <c r="L4" s="444"/>
+      <c r="M4" s="452" t="s">
+        <v>84</v>
+      </c>
+      <c r="N4" s="452"/>
+      <c r="O4" s="452"/>
+      <c r="P4" s="444" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q4" s="444" t="s">
         <v>89</v>
       </c>
-      <c r="Q4" s="438" t="s">
-        <v>90</v>
-      </c>
-      <c r="R4" s="440" t="s">
-        <v>93</v>
+      <c r="R4" s="446" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -6984,72 +7066,72 @@
         <v>43062</v>
       </c>
       <c r="C5" s="84" t="s">
+        <v>366</v>
+      </c>
+      <c r="D5" s="84" t="s">
+        <v>376</v>
+      </c>
+      <c r="E5" s="84" t="s">
         <v>367</v>
       </c>
-      <c r="D5" s="84" t="s">
-        <v>377</v>
-      </c>
-      <c r="E5" s="84" t="s">
-        <v>368</v>
-      </c>
       <c r="F5" s="84" t="s">
-        <v>373</v>
-      </c>
-      <c r="G5" s="355">
+        <v>372</v>
+      </c>
+      <c r="G5" s="354">
         <v>3</v>
       </c>
-      <c r="H5" s="356">
+      <c r="H5" s="355">
         <v>250000</v>
       </c>
       <c r="I5" s="202">
         <f t="shared" ref="I5:I10" si="0">G5*H5</f>
         <v>750000</v>
       </c>
-      <c r="K5" s="445"/>
-      <c r="L5" s="439"/>
-      <c r="M5" s="387" t="s">
+      <c r="K5" s="451"/>
+      <c r="L5" s="445"/>
+      <c r="M5" s="386" t="s">
+        <v>85</v>
+      </c>
+      <c r="N5" s="386" t="s">
         <v>86</v>
       </c>
-      <c r="N5" s="387" t="s">
-        <v>87</v>
-      </c>
-      <c r="O5" s="387" t="s">
-        <v>97</v>
-      </c>
-      <c r="P5" s="439"/>
-      <c r="Q5" s="439"/>
-      <c r="R5" s="441"/>
+      <c r="O5" s="386" t="s">
+        <v>96</v>
+      </c>
+      <c r="P5" s="445"/>
+      <c r="Q5" s="445"/>
+      <c r="R5" s="447"/>
     </row>
     <row r="6" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="203">
         <v>43062</v>
       </c>
       <c r="C6" s="86" t="s">
+        <v>366</v>
+      </c>
+      <c r="D6" s="86" t="s">
+        <v>376</v>
+      </c>
+      <c r="E6" s="86" t="s">
         <v>367</v>
       </c>
-      <c r="D6" s="86" t="s">
-        <v>377</v>
-      </c>
-      <c r="E6" s="86" t="s">
-        <v>368</v>
-      </c>
       <c r="F6" s="86" t="s">
-        <v>375</v>
-      </c>
-      <c r="G6" s="348">
+        <v>374</v>
+      </c>
+      <c r="G6" s="347">
         <v>3</v>
       </c>
-      <c r="H6" s="349">
+      <c r="H6" s="348">
         <v>50000</v>
       </c>
-      <c r="I6" s="376">
+      <c r="I6" s="375">
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
-      <c r="K6" s="442" t="s">
-        <v>98</v>
-      </c>
-      <c r="L6" s="443"/>
+      <c r="K6" s="448" t="s">
+        <v>97</v>
+      </c>
+      <c r="L6" s="449"/>
       <c r="M6" s="141">
         <v>1</v>
       </c>
@@ -7077,24 +7159,24 @@
         <v>43143</v>
       </c>
       <c r="C7" s="86" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D7" s="86" t="s">
+        <v>377</v>
+      </c>
+      <c r="E7" s="86" t="s">
         <v>378</v>
       </c>
-      <c r="E7" s="86" t="s">
-        <v>379</v>
-      </c>
       <c r="F7" s="86" t="s">
-        <v>373</v>
-      </c>
-      <c r="G7" s="348">
+        <v>372</v>
+      </c>
+      <c r="G7" s="347">
         <v>3</v>
       </c>
-      <c r="H7" s="349">
+      <c r="H7" s="348">
         <v>250000</v>
       </c>
-      <c r="I7" s="376">
+      <c r="I7" s="375">
         <f t="shared" si="0"/>
         <v>750000</v>
       </c>
@@ -7104,24 +7186,24 @@
         <v>43143</v>
       </c>
       <c r="C8" s="86" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D8" s="86" t="s">
+        <v>377</v>
+      </c>
+      <c r="E8" s="86" t="s">
         <v>378</v>
       </c>
-      <c r="E8" s="86" t="s">
-        <v>379</v>
-      </c>
       <c r="F8" s="86" t="s">
-        <v>375</v>
-      </c>
-      <c r="G8" s="348">
+        <v>374</v>
+      </c>
+      <c r="G8" s="347">
         <v>8</v>
       </c>
-      <c r="H8" s="349">
+      <c r="H8" s="348">
         <v>10000</v>
       </c>
-      <c r="I8" s="376">
+      <c r="I8" s="375">
         <f t="shared" si="0"/>
         <v>80000</v>
       </c>
@@ -7131,24 +7213,24 @@
         <v>43210</v>
       </c>
       <c r="C9" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="D9" s="86" t="s">
         <v>380</v>
       </c>
-      <c r="D9" s="86" t="s">
-        <v>381</v>
-      </c>
       <c r="E9" s="86" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F9" s="86" t="s">
-        <v>373</v>
-      </c>
-      <c r="G9" s="348">
+        <v>372</v>
+      </c>
+      <c r="G9" s="347">
         <v>2</v>
       </c>
-      <c r="H9" s="349">
+      <c r="H9" s="348">
         <v>250000</v>
       </c>
-      <c r="I9" s="376">
+      <c r="I9" s="375">
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
@@ -7158,269 +7240,269 @@
         <v>43210</v>
       </c>
       <c r="C10" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="D10" s="86" t="s">
         <v>380</v>
       </c>
-      <c r="D10" s="86" t="s">
-        <v>381</v>
-      </c>
       <c r="E10" s="86" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F10" s="86" t="s">
-        <v>375</v>
-      </c>
-      <c r="G10" s="348">
+        <v>374</v>
+      </c>
+      <c r="G10" s="347">
         <v>3</v>
       </c>
-      <c r="H10" s="349">
+      <c r="H10" s="348">
         <v>40000</v>
       </c>
-      <c r="I10" s="376">
+      <c r="I10" s="375">
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B11" s="393">
+      <c r="B11" s="392">
         <v>43219</v>
       </c>
       <c r="C11" s="116" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D11" s="116" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E11" s="116" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F11" s="116" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G11" s="110">
         <v>5</v>
       </c>
-      <c r="H11" s="394">
+      <c r="H11" s="393">
         <v>250000</v>
       </c>
-      <c r="I11" s="395">
+      <c r="I11" s="394">
         <f t="shared" ref="I11:I12" si="1">G11*H11</f>
         <v>1250000</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="393">
+      <c r="B12" s="392">
         <v>43219</v>
       </c>
       <c r="C12" s="116" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D12" s="116" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E12" s="116" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F12" s="116" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G12" s="110">
         <v>6</v>
       </c>
-      <c r="H12" s="394">
+      <c r="H12" s="393">
         <v>50000</v>
       </c>
-      <c r="I12" s="395">
+      <c r="I12" s="394">
         <f t="shared" si="1"/>
         <v>300000</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="393">
+      <c r="B13" s="392">
         <v>43222</v>
       </c>
       <c r="C13" s="116" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D13" s="116" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E13" s="116" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F13" s="116" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G13" s="110">
         <v>1</v>
       </c>
-      <c r="H13" s="394">
+      <c r="H13" s="393">
         <v>250000</v>
       </c>
-      <c r="I13" s="395">
+      <c r="I13" s="394">
         <f t="shared" ref="I13:I14" si="2">G13*H13</f>
         <v>250000</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B14" s="393">
+      <c r="B14" s="392">
         <v>43222</v>
       </c>
       <c r="C14" s="116" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D14" s="116" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E14" s="116" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F14" s="116" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G14" s="110">
         <v>5</v>
       </c>
-      <c r="H14" s="394">
+      <c r="H14" s="393">
         <v>18000</v>
       </c>
-      <c r="I14" s="395">
+      <c r="I14" s="394">
         <f t="shared" si="2"/>
         <v>90000</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="393">
+      <c r="B15" s="392">
         <v>43222</v>
       </c>
       <c r="C15" s="116" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D15" s="116" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E15" s="116" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F15" s="116" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G15" s="110">
         <v>2</v>
       </c>
-      <c r="H15" s="394">
+      <c r="H15" s="393">
         <v>250000</v>
       </c>
-      <c r="I15" s="395">
+      <c r="I15" s="394">
         <f t="shared" ref="I15:I16" si="3">G15*H15</f>
         <v>500000</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="393">
+      <c r="B16" s="392">
         <v>43222</v>
       </c>
       <c r="C16" s="116" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D16" s="116" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E16" s="116" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F16" s="116" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G16" s="110">
         <v>10</v>
       </c>
-      <c r="H16" s="394">
+      <c r="H16" s="393">
         <v>13500</v>
       </c>
-      <c r="I16" s="395">
+      <c r="I16" s="394">
         <f t="shared" si="3"/>
         <v>135000</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="203"/>
-      <c r="C17" s="348"/>
+      <c r="C17" s="347"/>
       <c r="D17" s="86"/>
       <c r="E17" s="86"/>
       <c r="F17" s="86"/>
-      <c r="G17" s="348"/>
-      <c r="H17" s="348"/>
+      <c r="G17" s="347"/>
+      <c r="H17" s="347"/>
       <c r="I17" s="18"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="203"/>
-      <c r="C18" s="348"/>
+      <c r="C18" s="347"/>
       <c r="D18" s="86"/>
       <c r="E18" s="86"/>
       <c r="F18" s="86"/>
-      <c r="G18" s="348"/>
-      <c r="H18" s="348"/>
+      <c r="G18" s="347"/>
+      <c r="H18" s="347"/>
       <c r="I18" s="18"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="203"/>
-      <c r="C19" s="348"/>
+      <c r="C19" s="347"/>
       <c r="D19" s="86"/>
       <c r="E19" s="86"/>
       <c r="F19" s="86"/>
-      <c r="G19" s="348"/>
-      <c r="H19" s="348"/>
+      <c r="G19" s="347"/>
+      <c r="H19" s="347"/>
       <c r="I19" s="18"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="203"/>
-      <c r="C20" s="348"/>
+      <c r="C20" s="347"/>
       <c r="D20" s="86"/>
       <c r="E20" s="86"/>
       <c r="F20" s="86"/>
-      <c r="G20" s="348"/>
-      <c r="H20" s="348"/>
+      <c r="G20" s="347"/>
+      <c r="H20" s="347"/>
       <c r="I20" s="18"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="85"/>
-      <c r="C21" s="348"/>
+      <c r="C21" s="347"/>
       <c r="D21" s="86"/>
       <c r="E21" s="86"/>
       <c r="F21" s="86"/>
-      <c r="G21" s="348"/>
-      <c r="H21" s="348"/>
+      <c r="G21" s="347"/>
+      <c r="H21" s="347"/>
       <c r="I21" s="18"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="85"/>
-      <c r="C22" s="348"/>
+      <c r="C22" s="347"/>
       <c r="D22" s="86"/>
       <c r="E22" s="86"/>
       <c r="F22" s="86"/>
-      <c r="G22" s="348"/>
-      <c r="H22" s="348"/>
+      <c r="G22" s="347"/>
+      <c r="H22" s="347"/>
       <c r="I22" s="18"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="85"/>
-      <c r="C23" s="348"/>
+      <c r="C23" s="347"/>
       <c r="D23" s="86"/>
       <c r="E23" s="86"/>
       <c r="F23" s="86"/>
-      <c r="G23" s="348"/>
-      <c r="H23" s="348"/>
+      <c r="G23" s="347"/>
+      <c r="H23" s="347"/>
       <c r="I23" s="18"/>
     </row>
     <row r="24" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="221"/>
-      <c r="C24" s="352"/>
+      <c r="C24" s="351"/>
       <c r="D24" s="75"/>
-      <c r="E24" s="352"/>
-      <c r="F24" s="352"/>
-      <c r="G24" s="352"/>
-      <c r="H24" s="352"/>
-      <c r="I24" s="267"/>
+      <c r="E24" s="351"/>
+      <c r="F24" s="351"/>
+      <c r="G24" s="351"/>
+      <c r="H24" s="351"/>
+      <c r="I24" s="266"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7464,138 +7546,138 @@
   <sheetData>
     <row r="2" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="56" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="444" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="438"/>
-      <c r="D3" s="446" t="s">
+      <c r="B3" s="450" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="444"/>
+      <c r="D3" s="452" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="452"/>
+      <c r="F3" s="452"/>
+      <c r="G3" s="444" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" s="444" t="s">
+        <v>89</v>
+      </c>
+      <c r="I3" s="465" t="s">
+        <v>92</v>
+      </c>
+      <c r="J3" s="463" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" s="137" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="459"/>
+      <c r="C4" s="460"/>
+      <c r="D4" s="385" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="446"/>
-      <c r="F3" s="446"/>
-      <c r="G3" s="438" t="s">
-        <v>89</v>
-      </c>
-      <c r="H3" s="438" t="s">
-        <v>90</v>
-      </c>
-      <c r="I3" s="459" t="s">
-        <v>93</v>
-      </c>
-      <c r="J3" s="457" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" s="137" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="453"/>
-      <c r="C4" s="454"/>
-      <c r="D4" s="386" t="s">
+      <c r="E4" s="385" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="386" t="s">
+      <c r="F4" s="385" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="386" t="s">
-        <v>88</v>
-      </c>
-      <c r="G4" s="454"/>
-      <c r="H4" s="454"/>
-      <c r="I4" s="460"/>
-      <c r="J4" s="458"/>
-    </row>
-    <row r="5" spans="2:15" s="342" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="447" t="s">
+      <c r="G4" s="460"/>
+      <c r="H4" s="460"/>
+      <c r="I4" s="466"/>
+      <c r="J4" s="464"/>
+    </row>
+    <row r="5" spans="2:15" s="341" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="453" t="s">
+        <v>357</v>
+      </c>
+      <c r="C5" s="364" t="s">
         <v>358</v>
       </c>
-      <c r="C5" s="365" t="s">
-        <v>359</v>
-      </c>
-      <c r="D5" s="366">
-        <v>1</v>
-      </c>
-      <c r="E5" s="344">
+      <c r="D5" s="365">
+        <v>1</v>
+      </c>
+      <c r="E5" s="343">
         <f t="shared" ref="E5:E14" si="0">D5*20</f>
         <v>20</v>
       </c>
-      <c r="F5" s="344">
+      <c r="F5" s="343">
         <f t="shared" ref="F5:F14" si="1">E5*3</f>
         <v>60</v>
       </c>
-      <c r="G5" s="345">
+      <c r="G5" s="344">
         <v>25000</v>
       </c>
-      <c r="H5" s="344">
+      <c r="H5" s="343">
         <v>0.8</v>
       </c>
-      <c r="I5" s="367">
+      <c r="I5" s="366">
         <f t="shared" ref="I5:I14" si="2">F5*G5*H5</f>
         <v>1200000</v>
       </c>
-      <c r="J5" s="368">
+      <c r="J5" s="367">
         <v>1000000</v>
       </c>
     </row>
     <row r="6" spans="2:15" s="137" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="449"/>
-      <c r="C6" s="357" t="s">
-        <v>360</v>
-      </c>
-      <c r="D6" s="351">
+      <c r="B6" s="455"/>
+      <c r="C6" s="356" t="s">
+        <v>359</v>
+      </c>
+      <c r="D6" s="350">
         <v>0.5</v>
       </c>
-      <c r="E6" s="352">
+      <c r="E6" s="351">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F6" s="352">
+      <c r="F6" s="351">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="G6" s="353">
+      <c r="G6" s="352">
         <v>25000</v>
       </c>
-      <c r="H6" s="352">
+      <c r="H6" s="351">
         <v>0.8</v>
       </c>
-      <c r="I6" s="359">
+      <c r="I6" s="358">
         <f t="shared" si="2"/>
         <v>600000</v>
       </c>
-      <c r="J6" s="361"/>
+      <c r="J6" s="360"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="447" t="s">
-        <v>94</v>
+      <c r="B7" s="453" t="s">
+        <v>93</v>
       </c>
       <c r="C7" s="139" t="s">
-        <v>357</v>
-      </c>
-      <c r="D7" s="354">
+        <v>356</v>
+      </c>
+      <c r="D7" s="353">
         <v>1.5</v>
       </c>
-      <c r="E7" s="355">
+      <c r="E7" s="354">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="F7" s="355">
+      <c r="F7" s="354">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="G7" s="356">
+      <c r="G7" s="355">
         <v>25000</v>
       </c>
-      <c r="H7" s="355">
+      <c r="H7" s="354">
         <v>0.8</v>
       </c>
-      <c r="I7" s="358">
+      <c r="I7" s="357">
         <f t="shared" si="2"/>
         <v>1800000</v>
       </c>
-      <c r="J7" s="362"/>
+      <c r="J7" s="361"/>
       <c r="K7" s="5"/>
       <c r="L7" s="11">
         <v>4300000</v>
@@ -7610,202 +7692,202 @@
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="452"/>
-      <c r="C8" s="346" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="347">
+      <c r="B8" s="458"/>
+      <c r="C8" s="345" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="346">
         <v>0.5</v>
       </c>
-      <c r="E8" s="348">
+      <c r="E8" s="347">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F8" s="348">
+      <c r="F8" s="347">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="G8" s="349">
+      <c r="G8" s="348">
         <v>25000</v>
       </c>
-      <c r="H8" s="348">
+      <c r="H8" s="347">
         <v>0.8</v>
       </c>
-      <c r="I8" s="360">
+      <c r="I8" s="359">
         <f t="shared" si="2"/>
         <v>600000</v>
       </c>
-      <c r="J8" s="363"/>
+      <c r="J8" s="362"/>
     </row>
     <row r="9" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="449"/>
-      <c r="C9" s="350" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="351">
-        <v>1</v>
-      </c>
-      <c r="E9" s="352">
+      <c r="B9" s="455"/>
+      <c r="C9" s="349" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="350">
+        <v>1</v>
+      </c>
+      <c r="E9" s="351">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="F9" s="352">
+      <c r="F9" s="351">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="G9" s="353">
+      <c r="G9" s="352">
         <v>25000</v>
       </c>
-      <c r="H9" s="352">
+      <c r="H9" s="351">
         <v>0.8</v>
       </c>
-      <c r="I9" s="359">
+      <c r="I9" s="358">
         <f t="shared" si="2"/>
         <v>1200000</v>
       </c>
-      <c r="J9" s="364"/>
+      <c r="J9" s="363"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="447" t="s">
-        <v>96</v>
+      <c r="B10" s="453" t="s">
+        <v>95</v>
       </c>
       <c r="C10" s="139" t="s">
-        <v>361</v>
-      </c>
-      <c r="D10" s="354">
+        <v>360</v>
+      </c>
+      <c r="D10" s="353">
         <v>2</v>
       </c>
-      <c r="E10" s="355">
+      <c r="E10" s="354">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="F10" s="355">
+      <c r="F10" s="354">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="G10" s="356">
+      <c r="G10" s="355">
         <v>25000</v>
       </c>
-      <c r="H10" s="355">
+      <c r="H10" s="354">
         <v>0.8</v>
       </c>
-      <c r="I10" s="358">
+      <c r="I10" s="357">
         <f t="shared" si="2"/>
         <v>2400000</v>
       </c>
-      <c r="J10" s="362"/>
+      <c r="J10" s="361"/>
     </row>
     <row r="11" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="452"/>
-      <c r="C11" s="346" t="s">
-        <v>362</v>
-      </c>
-      <c r="D11" s="347">
-        <v>1</v>
-      </c>
-      <c r="E11" s="348">
+      <c r="B11" s="458"/>
+      <c r="C11" s="345" t="s">
+        <v>361</v>
+      </c>
+      <c r="D11" s="346">
+        <v>1</v>
+      </c>
+      <c r="E11" s="347">
         <f t="shared" ref="E11:E12" si="3">D11*20</f>
         <v>20</v>
       </c>
-      <c r="F11" s="348">
+      <c r="F11" s="347">
         <f t="shared" ref="F11:F12" si="4">E11*3</f>
         <v>60</v>
       </c>
-      <c r="G11" s="349">
+      <c r="G11" s="348">
         <v>25000</v>
       </c>
-      <c r="H11" s="348">
+      <c r="H11" s="347">
         <v>0.8</v>
       </c>
-      <c r="I11" s="360">
+      <c r="I11" s="359">
         <f t="shared" ref="I11:I12" si="5">F11*G11*H11</f>
         <v>1200000</v>
       </c>
-      <c r="J11" s="363"/>
+      <c r="J11" s="362"/>
     </row>
     <row r="12" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="452"/>
-      <c r="C12" s="346" t="s">
-        <v>363</v>
-      </c>
-      <c r="D12" s="347">
-        <v>1</v>
-      </c>
-      <c r="E12" s="348">
+      <c r="B12" s="458"/>
+      <c r="C12" s="345" t="s">
+        <v>362</v>
+      </c>
+      <c r="D12" s="346">
+        <v>1</v>
+      </c>
+      <c r="E12" s="347">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="F12" s="348">
+      <c r="F12" s="347">
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="G12" s="349">
+      <c r="G12" s="348">
         <v>25000</v>
       </c>
-      <c r="H12" s="348">
+      <c r="H12" s="347">
         <v>0.8</v>
       </c>
-      <c r="I12" s="360">
+      <c r="I12" s="359">
         <f t="shared" si="5"/>
         <v>1200000</v>
       </c>
-      <c r="J12" s="363"/>
+      <c r="J12" s="362"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="452"/>
-      <c r="C13" s="346" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" s="347">
+      <c r="B13" s="458"/>
+      <c r="C13" s="345" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="346">
         <v>0</v>
       </c>
-      <c r="E13" s="348">
+      <c r="E13" s="347">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="348">
+      <c r="F13" s="347">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G13" s="349">
+      <c r="G13" s="348">
         <v>25000</v>
       </c>
-      <c r="H13" s="348">
+      <c r="H13" s="347">
         <v>0.8</v>
       </c>
-      <c r="I13" s="360">
+      <c r="I13" s="359">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J13" s="363"/>
+      <c r="J13" s="362"/>
     </row>
     <row r="14" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="449"/>
-      <c r="C14" s="350" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" s="351">
+      <c r="B14" s="455"/>
+      <c r="C14" s="349" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="350">
         <v>0.5</v>
       </c>
-      <c r="E14" s="352">
+      <c r="E14" s="351">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F14" s="352">
+      <c r="F14" s="351">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="G14" s="353">
+      <c r="G14" s="352">
         <v>25000</v>
       </c>
-      <c r="H14" s="352">
+      <c r="H14" s="351">
         <v>0.8</v>
       </c>
-      <c r="I14" s="359">
+      <c r="I14" s="358">
         <f t="shared" si="2"/>
         <v>600000</v>
       </c>
-      <c r="J14" s="364"/>
+      <c r="J14" s="363"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="G16" s="11"/>
@@ -7825,46 +7907,46 @@
     </row>
     <row r="23" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="447" t="s">
-        <v>95</v>
-      </c>
-      <c r="C24" s="448"/>
-      <c r="D24" s="451" t="s">
+      <c r="B24" s="453" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="454"/>
+      <c r="D24" s="457" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="457"/>
+      <c r="F24" s="457"/>
+      <c r="G24" s="454" t="s">
+        <v>88</v>
+      </c>
+      <c r="H24" s="454" t="s">
+        <v>89</v>
+      </c>
+      <c r="I24" s="461" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="455"/>
+      <c r="C25" s="456"/>
+      <c r="D25" s="138" t="s">
         <v>85</v>
       </c>
-      <c r="E24" s="451"/>
-      <c r="F24" s="451"/>
-      <c r="G24" s="448" t="s">
-        <v>89</v>
-      </c>
-      <c r="H24" s="448" t="s">
-        <v>90</v>
-      </c>
-      <c r="I24" s="455" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="449"/>
-      <c r="C25" s="450"/>
-      <c r="D25" s="138" t="s">
+      <c r="E25" s="138" t="s">
         <v>86</v>
       </c>
-      <c r="E25" s="138" t="s">
+      <c r="F25" s="138" t="s">
         <v>87</v>
       </c>
-      <c r="F25" s="138" t="s">
-        <v>88</v>
-      </c>
-      <c r="G25" s="450"/>
-      <c r="H25" s="450"/>
-      <c r="I25" s="456"/>
+      <c r="G25" s="456"/>
+      <c r="H25" s="456"/>
+      <c r="I25" s="462"/>
     </row>
     <row r="26" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="442" t="s">
-        <v>99</v>
-      </c>
-      <c r="C26" s="443"/>
+      <c r="B26" s="448" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="449"/>
       <c r="D26" s="141">
         <v>3</v>
       </c>
@@ -8054,8 +8136,8 @@
       <c r="C6" s="22">
         <v>2</v>
       </c>
-      <c r="D6" s="285" t="s">
-        <v>345</v>
+      <c r="D6" s="284" t="s">
+        <v>344</v>
       </c>
       <c r="E6" s="53" t="s">
         <v>9</v>
@@ -8584,8 +8666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N42" sqref="N42"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8609,12 +8691,12 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J2" s="121" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="144" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J3" s="121">
         <v>20</v>
@@ -8638,13 +8720,13 @@
         <v>18</v>
       </c>
       <c r="G4" s="150" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H4" s="151" t="s">
         <v>59</v>
       </c>
       <c r="I4" s="152" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J4" s="118" t="s">
         <v>60</v>
@@ -8659,7 +8741,7 @@
         <v>62</v>
       </c>
       <c r="N4" s="119" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -8667,13 +8749,13 @@
         <v>15</v>
       </c>
       <c r="C5" s="155" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="154" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="154" t="s">
+      <c r="E5" s="154" t="s">
         <v>105</v>
-      </c>
-      <c r="E5" s="154" t="s">
-        <v>106</v>
       </c>
       <c r="F5" s="154">
         <v>1</v>
@@ -8703,7 +8785,7 @@
         <v>7600</v>
       </c>
       <c r="N5" s="163" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -8711,13 +8793,13 @@
         <v>16</v>
       </c>
       <c r="C6" s="159" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="158" t="s">
         <v>108</v>
       </c>
-      <c r="D6" s="158" t="s">
+      <c r="E6" s="158" t="s">
         <v>109</v>
-      </c>
-      <c r="E6" s="158" t="s">
-        <v>110</v>
       </c>
       <c r="F6" s="158">
         <v>1</v>
@@ -8747,7 +8829,7 @@
         <v>4000</v>
       </c>
       <c r="N6" s="167" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -8755,13 +8837,13 @@
         <v>18</v>
       </c>
       <c r="C7" s="159" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="158" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="158" t="s">
         <v>114</v>
-      </c>
-      <c r="D7" s="158" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="158" t="s">
-        <v>115</v>
       </c>
       <c r="F7" s="158">
         <v>1</v>
@@ -8791,7 +8873,7 @@
         <v>3800</v>
       </c>
       <c r="N7" s="167" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -8799,13 +8881,13 @@
         <v>19</v>
       </c>
       <c r="C8" s="159" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D8" s="158" t="s">
         <v>64</v>
       </c>
       <c r="E8" s="158" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F8" s="158">
         <v>1</v>
@@ -8835,7 +8917,7 @@
         <v>2200</v>
       </c>
       <c r="N8" s="167" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -8843,13 +8925,13 @@
         <v>20</v>
       </c>
       <c r="C9" s="159" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D9" s="158" t="s">
         <v>64</v>
       </c>
       <c r="E9" s="158" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F9" s="158">
         <v>1</v>
@@ -8879,7 +8961,7 @@
         <v>4400</v>
       </c>
       <c r="N9" s="167" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -8887,13 +8969,13 @@
         <v>21</v>
       </c>
       <c r="C10" s="159" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="158" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="158" t="s">
+      <c r="E10" s="158" t="s">
         <v>124</v>
-      </c>
-      <c r="E10" s="158" t="s">
-        <v>125</v>
       </c>
       <c r="F10" s="158">
         <v>1</v>
@@ -8923,7 +9005,7 @@
         <v>6400</v>
       </c>
       <c r="N10" s="167" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -8931,13 +9013,13 @@
         <v>22</v>
       </c>
       <c r="C11" s="159" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="158" t="s">
         <v>127</v>
       </c>
-      <c r="D11" s="158" t="s">
+      <c r="E11" s="158" t="s">
         <v>128</v>
-      </c>
-      <c r="E11" s="158" t="s">
-        <v>129</v>
       </c>
       <c r="F11" s="158">
         <v>1</v>
@@ -8967,10 +9049,10 @@
         <v>7000</v>
       </c>
       <c r="N11" s="167" t="s">
+        <v>129</v>
+      </c>
+      <c r="O11" s="146" t="s">
         <v>130</v>
-      </c>
-      <c r="O11" s="146" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -8978,13 +9060,13 @@
         <v>23</v>
       </c>
       <c r="C12" s="159" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="158" t="s">
         <v>132</v>
       </c>
-      <c r="D12" s="158" t="s">
+      <c r="E12" s="158" t="s">
         <v>133</v>
-      </c>
-      <c r="E12" s="158" t="s">
-        <v>134</v>
       </c>
       <c r="F12" s="158">
         <v>1</v>
@@ -9014,7 +9096,7 @@
         <v>37600</v>
       </c>
       <c r="N12" s="167" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -9022,13 +9104,13 @@
         <v>24</v>
       </c>
       <c r="C13" s="159" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="158" t="s">
         <v>136</v>
       </c>
-      <c r="D13" s="158" t="s">
+      <c r="E13" s="158" t="s">
         <v>137</v>
-      </c>
-      <c r="E13" s="158" t="s">
-        <v>138</v>
       </c>
       <c r="F13" s="158">
         <v>1</v>
@@ -9058,10 +9140,10 @@
         <v>26000</v>
       </c>
       <c r="N13" s="167" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O13" s="146" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -9069,13 +9151,13 @@
         <v>25</v>
       </c>
       <c r="C14" s="159" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="158" t="s">
         <v>140</v>
       </c>
-      <c r="D14" s="158" t="s">
+      <c r="E14" s="158" t="s">
         <v>141</v>
-      </c>
-      <c r="E14" s="158" t="s">
-        <v>142</v>
       </c>
       <c r="F14" s="158">
         <v>1</v>
@@ -9105,7 +9187,7 @@
         <v>25400</v>
       </c>
       <c r="N14" s="167" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -9113,13 +9195,13 @@
         <v>26</v>
       </c>
       <c r="C15" s="159" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15" s="158" t="s">
         <v>144</v>
       </c>
-      <c r="D15" s="158" t="s">
+      <c r="E15" s="158" t="s">
         <v>145</v>
-      </c>
-      <c r="E15" s="158" t="s">
-        <v>146</v>
       </c>
       <c r="F15" s="158">
         <v>1</v>
@@ -9148,7 +9230,7 @@
         <v>800</v>
       </c>
       <c r="N15" s="167" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -9156,13 +9238,13 @@
         <v>27</v>
       </c>
       <c r="C16" s="159" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" s="158" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" s="158" t="s">
         <v>148</v>
-      </c>
-      <c r="D16" s="158" t="s">
-        <v>145</v>
-      </c>
-      <c r="E16" s="158" t="s">
-        <v>149</v>
       </c>
       <c r="F16" s="158">
         <v>1</v>
@@ -9192,10 +9274,10 @@
         <v>800</v>
       </c>
       <c r="N16" s="167" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O16" s="146" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -9203,13 +9285,13 @@
         <v>28</v>
       </c>
       <c r="C17" s="159" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="158" t="s">
+        <v>144</v>
+      </c>
+      <c r="E17" s="158" t="s">
         <v>151</v>
-      </c>
-      <c r="D17" s="158" t="s">
-        <v>145</v>
-      </c>
-      <c r="E17" s="158" t="s">
-        <v>152</v>
       </c>
       <c r="F17" s="158">
         <v>1</v>
@@ -9239,10 +9321,10 @@
         <v>5000</v>
       </c>
       <c r="N17" s="171" t="s">
+        <v>152</v>
+      </c>
+      <c r="O17" s="146" t="s">
         <v>153</v>
-      </c>
-      <c r="O17" s="146" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
@@ -9250,13 +9332,13 @@
         <v>29</v>
       </c>
       <c r="C18" s="159" t="s">
+        <v>154</v>
+      </c>
+      <c r="D18" s="158" t="s">
+        <v>144</v>
+      </c>
+      <c r="E18" s="158" t="s">
         <v>155</v>
-      </c>
-      <c r="D18" s="158" t="s">
-        <v>145</v>
-      </c>
-      <c r="E18" s="158" t="s">
-        <v>156</v>
       </c>
       <c r="F18" s="158">
         <v>1</v>
@@ -9286,10 +9368,10 @@
         <v>800</v>
       </c>
       <c r="N18" s="171" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O18" s="146" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
@@ -9297,13 +9379,13 @@
         <v>31</v>
       </c>
       <c r="C19" s="159" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" s="158" t="s">
         <v>158</v>
       </c>
-      <c r="D19" s="158" t="s">
+      <c r="E19" s="158" t="s">
         <v>159</v>
-      </c>
-      <c r="E19" s="158" t="s">
-        <v>160</v>
       </c>
       <c r="F19" s="158">
         <v>1</v>
@@ -9333,10 +9415,10 @@
         <v>8000</v>
       </c>
       <c r="N19" s="167" t="s">
+        <v>160</v>
+      </c>
+      <c r="O19" s="146" t="s">
         <v>161</v>
-      </c>
-      <c r="O19" s="146" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
@@ -9344,13 +9426,13 @@
         <v>32</v>
       </c>
       <c r="C20" s="159" t="s">
+        <v>162</v>
+      </c>
+      <c r="D20" s="158" t="s">
         <v>163</v>
       </c>
-      <c r="D20" s="158" t="s">
-        <v>164</v>
-      </c>
       <c r="E20" s="158" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F20" s="158">
         <v>3</v>
@@ -9380,7 +9462,7 @@
         <v>16200</v>
       </c>
       <c r="N20" s="167" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
@@ -9388,13 +9470,13 @@
         <v>33</v>
       </c>
       <c r="C21" s="159" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21" s="158" t="s">
         <v>166</v>
       </c>
-      <c r="D21" s="158" t="s">
+      <c r="E21" s="158" t="s">
         <v>167</v>
-      </c>
-      <c r="E21" s="158" t="s">
-        <v>168</v>
       </c>
       <c r="F21" s="158">
         <v>1</v>
@@ -9424,10 +9506,10 @@
         <v>93600</v>
       </c>
       <c r="N21" s="167" t="s">
+        <v>111</v>
+      </c>
+      <c r="O21" s="146" t="s">
         <v>112</v>
-      </c>
-      <c r="O21" s="146" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -9435,13 +9517,13 @@
         <v>34</v>
       </c>
       <c r="C22" s="159" t="s">
+        <v>168</v>
+      </c>
+      <c r="D22" s="158" t="s">
         <v>169</v>
       </c>
-      <c r="D22" s="158" t="s">
+      <c r="E22" s="158" t="s">
         <v>170</v>
-      </c>
-      <c r="E22" s="158" t="s">
-        <v>171</v>
       </c>
       <c r="F22" s="158">
         <v>1</v>
@@ -9470,7 +9552,7 @@
         <v>13750</v>
       </c>
       <c r="N22" s="167" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
@@ -9478,13 +9560,13 @@
         <v>35</v>
       </c>
       <c r="C23" s="159" t="s">
+        <v>172</v>
+      </c>
+      <c r="D23" s="158" t="s">
         <v>173</v>
       </c>
-      <c r="D23" s="158" t="s">
+      <c r="E23" s="158" t="s">
         <v>174</v>
-      </c>
-      <c r="E23" s="158" t="s">
-        <v>175</v>
       </c>
       <c r="F23" s="158">
         <v>1</v>
@@ -9514,7 +9596,7 @@
         <v>64800</v>
       </c>
       <c r="N23" s="167" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
@@ -9522,13 +9604,13 @@
         <v>36</v>
       </c>
       <c r="C24" s="159" t="s">
+        <v>176</v>
+      </c>
+      <c r="D24" s="158" t="s">
+        <v>173</v>
+      </c>
+      <c r="E24" s="158" t="s">
         <v>177</v>
-      </c>
-      <c r="D24" s="158" t="s">
-        <v>174</v>
-      </c>
-      <c r="E24" s="158" t="s">
-        <v>178</v>
       </c>
       <c r="F24" s="158">
         <v>1</v>
@@ -9558,10 +9640,10 @@
         <v>60000</v>
       </c>
       <c r="N24" s="167" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O24" s="146" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
@@ -9569,13 +9651,13 @@
         <v>37</v>
       </c>
       <c r="C25" s="159" t="s">
+        <v>179</v>
+      </c>
+      <c r="D25" s="158" t="s">
+        <v>173</v>
+      </c>
+      <c r="E25" s="158" t="s">
         <v>180</v>
-      </c>
-      <c r="D25" s="158" t="s">
-        <v>174</v>
-      </c>
-      <c r="E25" s="158" t="s">
-        <v>181</v>
       </c>
       <c r="F25" s="158">
         <v>1</v>
@@ -9605,10 +9687,10 @@
         <v>34800</v>
       </c>
       <c r="N25" s="167" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O25" s="146" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -9620,7 +9702,7 @@
     <row r="29" spans="1:15" s="177" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="175"/>
       <c r="B29" s="176" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D29" s="175"/>
       <c r="K29" s="121">
@@ -9647,13 +9729,13 @@
         <v>18</v>
       </c>
       <c r="G30" s="59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H30" s="59" t="s">
         <v>59</v>
       </c>
       <c r="I30" s="122" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J30" s="122" t="s">
         <v>60</v>
@@ -9668,7 +9750,7 @@
         <v>62</v>
       </c>
       <c r="N30" s="123" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:15" s="177" customFormat="1" x14ac:dyDescent="0.3">
@@ -9676,13 +9758,13 @@
         <v>2</v>
       </c>
       <c r="C31" s="60" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D31" s="180" t="s">
         <v>64</v>
       </c>
       <c r="E31" s="58" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F31" s="180">
         <v>1</v>
@@ -9712,7 +9794,7 @@
         <v>1400</v>
       </c>
       <c r="N31" s="181" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:15" s="177" customFormat="1" x14ac:dyDescent="0.3">
@@ -9727,7 +9809,7 @@
     <row r="33" spans="1:14" s="177" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="175"/>
       <c r="B33" s="176" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C33" s="175"/>
       <c r="J33" s="121">
@@ -9752,13 +9834,13 @@
         <v>18</v>
       </c>
       <c r="G34" s="59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H34" s="59" t="s">
         <v>59</v>
       </c>
       <c r="I34" s="122" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J34" s="122" t="s">
         <v>60</v>
@@ -9773,7 +9855,7 @@
         <v>62</v>
       </c>
       <c r="N34" s="123" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:14" s="177" customFormat="1" x14ac:dyDescent="0.3">
@@ -9781,13 +9863,13 @@
         <v>1</v>
       </c>
       <c r="C35" s="187" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D35" s="186" t="s">
         <v>64</v>
       </c>
       <c r="E35" s="188" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F35" s="186">
         <v>1</v>
@@ -9817,19 +9899,19 @@
         <v>4600</v>
       </c>
       <c r="N35" s="189" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:14" s="177" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="135"/>
       <c r="C36" s="190" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D36" s="190" t="s">
         <v>64</v>
       </c>
       <c r="E36" s="190" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F36" s="190">
         <v>8</v>
@@ -9859,7 +9941,7 @@
         <v>39000</v>
       </c>
       <c r="N36" s="193" t="s">
-        <v>459</v>
+        <v>481</v>
       </c>
     </row>
     <row r="37" spans="1:14" s="177" customFormat="1" x14ac:dyDescent="0.3">
@@ -9901,8 +9983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9946,27 +10028,27 @@
         <v>5</v>
       </c>
       <c r="I2" s="81" t="s">
+        <v>203</v>
+      </c>
+      <c r="J2" s="81" t="s">
         <v>204</v>
       </c>
-      <c r="J2" s="81" t="s">
+      <c r="K2" s="81" t="s">
         <v>205</v>
       </c>
-      <c r="K2" s="81" t="s">
+      <c r="L2" s="82" t="s">
         <v>206</v>
-      </c>
-      <c r="L2" s="82" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="212" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="84" t="s">
         <v>208</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="D3" s="213" t="s">
         <v>209</v>
-      </c>
-      <c r="D3" s="213" t="s">
-        <v>210</v>
       </c>
       <c r="E3" s="35" t="s">
         <v>9</v>
@@ -9987,18 +10069,18 @@
       </c>
       <c r="K3" s="35"/>
       <c r="L3" s="37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="85" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" s="86" t="s">
         <v>212</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="D4" s="19" t="s">
         <v>213</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>214</v>
       </c>
       <c r="E4" s="34" t="s">
         <v>9</v>
@@ -10019,18 +10101,18 @@
       </c>
       <c r="K4" s="19"/>
       <c r="L4" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="85" t="s">
+        <v>215</v>
+      </c>
+      <c r="C5" s="86" t="s">
+        <v>212</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>216</v>
-      </c>
-      <c r="C5" s="86" t="s">
-        <v>213</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>217</v>
       </c>
       <c r="E5" s="34" t="s">
         <v>9</v>
@@ -10051,16 +10133,16 @@
       </c>
       <c r="K5" s="19"/>
       <c r="L5" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="85" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E6" s="34" t="s">
         <v>9</v>
@@ -10081,18 +10163,18 @@
       </c>
       <c r="K6" s="19"/>
       <c r="L6" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="87" t="s">
+        <v>221</v>
+      </c>
+      <c r="C7" s="52" t="s">
         <v>222</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="D7" s="17" t="s">
         <v>223</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>224</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>9</v>
@@ -10115,18 +10197,18 @@
       </c>
       <c r="K7" s="17"/>
       <c r="L7" s="89" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="90" t="s">
+        <v>225</v>
+      </c>
+      <c r="C8" s="91" t="s">
+        <v>222</v>
+      </c>
+      <c r="D8" s="92" t="s">
         <v>226</v>
-      </c>
-      <c r="C8" s="91" t="s">
-        <v>223</v>
-      </c>
-      <c r="D8" s="92" t="s">
-        <v>227</v>
       </c>
       <c r="E8" s="92" t="s">
         <v>9</v>
@@ -10147,18 +10229,18 @@
       </c>
       <c r="K8" s="92"/>
       <c r="L8" s="95" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="97" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" s="84" t="s">
         <v>229</v>
       </c>
-      <c r="C9" s="84" t="s">
+      <c r="D9" s="23" t="s">
         <v>230</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>231</v>
       </c>
       <c r="E9" s="35" t="s">
         <v>9</v>
@@ -10179,18 +10261,18 @@
       </c>
       <c r="K9" s="23"/>
       <c r="L9" s="99" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="85" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C10" s="86" t="s">
+        <v>229</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>230</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>231</v>
       </c>
       <c r="E10" s="34" t="s">
         <v>9</v>
@@ -10212,13 +10294,13 @@
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="87" t="s">
+        <v>233</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>234</v>
-      </c>
-      <c r="C11" s="52" t="s">
-        <v>230</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>235</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>9</v>
@@ -10240,19 +10322,19 @@
         <v>13000</v>
       </c>
       <c r="K11" s="17"/>
-      <c r="L11" s="277" t="s">
-        <v>236</v>
+      <c r="L11" s="276" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="101" t="s">
+        <v>236</v>
+      </c>
+      <c r="C12" s="86" t="s">
+        <v>229</v>
+      </c>
+      <c r="D12" s="34" t="s">
         <v>237</v>
-      </c>
-      <c r="C12" s="86" t="s">
-        <v>230</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>238</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
@@ -10265,13 +10347,13 @@
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="87" t="s">
+        <v>238</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>239</v>
-      </c>
-      <c r="C13" s="52" t="s">
-        <v>230</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>240</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>9</v>
@@ -10293,19 +10375,19 @@
         <v>8000</v>
       </c>
       <c r="K13" s="17"/>
-      <c r="L13" s="277" t="s">
-        <v>241</v>
+      <c r="L13" s="276" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="87" t="s">
+        <v>241</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>222</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>242</v>
-      </c>
-      <c r="C14" s="52" t="s">
-        <v>223</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>243</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>9</v>
@@ -10327,19 +10409,19 @@
         <v>9000</v>
       </c>
       <c r="K14" s="17"/>
-      <c r="L14" s="277" t="s">
-        <v>244</v>
+      <c r="L14" s="276" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="87" t="s">
+        <v>244</v>
+      </c>
+      <c r="C15" s="52" t="s">
+        <v>222</v>
+      </c>
+      <c r="D15" s="17" t="s">
         <v>245</v>
-      </c>
-      <c r="C15" s="52" t="s">
-        <v>223</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>246</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>9</v>
@@ -10361,22 +10443,22 @@
         <v>16500</v>
       </c>
       <c r="K15" s="17"/>
-      <c r="L15" s="277" t="s">
-        <v>247</v>
+      <c r="L15" s="276" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="120" t="s">
+        <v>247</v>
+      </c>
+      <c r="C16" s="116" t="s">
+        <v>222</v>
+      </c>
+      <c r="D16" s="110" t="s">
         <v>248</v>
       </c>
-      <c r="C16" s="116" t="s">
-        <v>223</v>
-      </c>
-      <c r="D16" s="110" t="s">
+      <c r="E16" s="110" t="s">
         <v>249</v>
-      </c>
-      <c r="E16" s="110" t="s">
-        <v>250</v>
       </c>
       <c r="F16" s="116">
         <v>1</v>
@@ -10392,13 +10474,13 @@
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="87" t="s">
+        <v>250</v>
+      </c>
+      <c r="C17" s="52" t="s">
         <v>251</v>
       </c>
-      <c r="C17" s="52" t="s">
+      <c r="D17" s="17" t="s">
         <v>252</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>253</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>9</v>
@@ -10420,19 +10502,19 @@
         <v>9000</v>
       </c>
       <c r="K17" s="17"/>
-      <c r="L17" s="277" t="s">
-        <v>254</v>
+      <c r="L17" s="276" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="87" t="s">
+        <v>250</v>
+      </c>
+      <c r="C18" s="52" t="s">
         <v>251</v>
       </c>
-      <c r="C18" s="52" t="s">
-        <v>252</v>
-      </c>
       <c r="D18" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>9</v>
@@ -10454,19 +10536,19 @@
         <v>9000</v>
       </c>
       <c r="K18" s="17"/>
-      <c r="L18" s="277" t="s">
-        <v>256</v>
+      <c r="L18" s="276" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="2:13" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="114" t="s">
+        <v>256</v>
+      </c>
+      <c r="C19" s="109" t="s">
         <v>257</v>
       </c>
-      <c r="C19" s="109" t="s">
+      <c r="D19" s="108" t="s">
         <v>258</v>
-      </c>
-      <c r="D19" s="108" t="s">
-        <v>259</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>9</v>
@@ -10488,19 +10570,19 @@
         <v>180000</v>
       </c>
       <c r="K19" s="108"/>
-      <c r="L19" s="278" t="s">
-        <v>260</v>
+      <c r="L19" s="277" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="2:13" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="114" t="s">
+        <v>260</v>
+      </c>
+      <c r="C20" s="109" t="s">
         <v>261</v>
       </c>
-      <c r="C20" s="109" t="s">
+      <c r="D20" s="108" t="s">
         <v>262</v>
-      </c>
-      <c r="D20" s="108" t="s">
-        <v>263</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>9</v>
@@ -10522,19 +10604,19 @@
         <v>2420</v>
       </c>
       <c r="K20" s="108"/>
-      <c r="L20" s="278" t="s">
-        <v>264</v>
+      <c r="L20" s="277" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="2:13" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="114" t="s">
+        <v>264</v>
+      </c>
+      <c r="C21" s="109" t="s">
         <v>265</v>
       </c>
-      <c r="C21" s="109" t="s">
+      <c r="D21" s="108" t="s">
         <v>266</v>
-      </c>
-      <c r="D21" s="108" t="s">
-        <v>267</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>9</v>
@@ -10556,19 +10638,19 @@
         <v>101200</v>
       </c>
       <c r="K21" s="108"/>
-      <c r="L21" s="278" t="s">
-        <v>268</v>
+      <c r="L21" s="277" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="2:13" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="114" t="s">
+        <v>268</v>
+      </c>
+      <c r="C22" s="109" t="s">
         <v>269</v>
       </c>
-      <c r="C22" s="109" t="s">
+      <c r="D22" s="108" t="s">
         <v>270</v>
-      </c>
-      <c r="D22" s="108" t="s">
-        <v>271</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>9</v>
@@ -10590,17 +10672,17 @@
         <v>49000</v>
       </c>
       <c r="K22" s="108"/>
-      <c r="L22" s="278" t="s">
-        <v>272</v>
+      <c r="L22" s="277" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="2:13" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="117" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C23" s="111"/>
       <c r="D23" s="127" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E23" s="34" t="s">
         <v>9</v>
@@ -10616,16 +10698,16 @@
       <c r="J23" s="129"/>
       <c r="K23" s="127"/>
       <c r="L23" s="130" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="102" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C24" s="103"/>
       <c r="D24" s="103" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>9</v>
@@ -10647,8 +10729,8 @@
         <v>45000</v>
       </c>
       <c r="K24" s="103"/>
-      <c r="L24" s="284" t="s">
-        <v>278</v>
+      <c r="L24" s="283" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
@@ -10672,7 +10754,7 @@
     </row>
     <row r="29" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="56" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -10740,7 +10822,7 @@
         <v>7200</v>
       </c>
       <c r="K31" s="35"/>
-      <c r="L31" s="279" t="s">
+      <c r="L31" s="278" t="s">
         <v>54</v>
       </c>
       <c r="M31" s="220" t="s">
@@ -10749,13 +10831,13 @@
     </row>
     <row r="32" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="221" t="s">
+        <v>278</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>281</v>
       </c>
       <c r="E32" s="36" t="s">
         <v>9</v>
@@ -10777,13 +10859,13 @@
         <v>7040</v>
       </c>
       <c r="K32" s="36"/>
-      <c r="L32" s="281" t="s">
-        <v>282</v>
+      <c r="L32" s="280" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="35" spans="1:14" s="177" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="224" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36" spans="1:14" s="177" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -10804,7 +10886,7 @@
         <v>18</v>
       </c>
       <c r="G36" s="209" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H36" s="118" t="s">
         <v>5</v>
@@ -10816,10 +10898,10 @@
         <v>62</v>
       </c>
       <c r="K36" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="L36" s="225" t="s">
         <v>284</v>
-      </c>
-      <c r="L36" s="225" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="37" spans="1:14" s="177" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -10827,10 +10909,10 @@
         <v>38</v>
       </c>
       <c r="C37" s="180" t="s">
-        <v>201</v>
-      </c>
-      <c r="D37" s="285" t="s">
-        <v>345</v>
+        <v>200</v>
+      </c>
+      <c r="D37" s="284" t="s">
+        <v>344</v>
       </c>
       <c r="E37" s="35" t="s">
         <v>9</v>
@@ -10853,18 +10935,18 @@
       </c>
       <c r="K37" s="35"/>
       <c r="L37" s="181" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="38" spans="1:14" s="177" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="180" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C38" s="180" t="s">
         <v>64</v>
       </c>
       <c r="D38" s="180" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E38" s="35" t="s">
         <v>9</v>
@@ -10886,8 +10968,8 @@
         <v>13000</v>
       </c>
       <c r="K38" s="36"/>
-      <c r="L38" s="283" t="s">
-        <v>287</v>
+      <c r="L38" s="282" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -10938,7 +11020,7 @@
         <v>62</v>
       </c>
       <c r="K42" s="32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L42" s="119" t="s">
         <v>63</v>
@@ -10973,7 +11055,7 @@
         <v>10500</v>
       </c>
       <c r="K43" s="35"/>
-      <c r="L43" s="279" t="s">
+      <c r="L43" s="278" t="s">
         <v>67</v>
       </c>
     </row>
@@ -11006,7 +11088,7 @@
         <v>2100</v>
       </c>
       <c r="K44" s="105"/>
-      <c r="L44" s="282" t="s">
+      <c r="L44" s="281" t="s">
         <v>70</v>
       </c>
     </row>
@@ -11037,7 +11119,7 @@
         <v>4000</v>
       </c>
       <c r="K45" s="36"/>
-      <c r="L45" s="281" t="s">
+      <c r="L45" s="280" t="s">
         <v>73</v>
       </c>
     </row>
@@ -11092,7 +11174,7 @@
         <v>62</v>
       </c>
       <c r="K48" s="32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L48" s="123" t="s">
         <v>63</v>
@@ -11105,8 +11187,8 @@
       <c r="C49" s="231" t="s">
         <v>76</v>
       </c>
-      <c r="D49" s="231" t="s">
-        <v>77</v>
+      <c r="D49" s="473" t="s">
+        <v>483</v>
       </c>
       <c r="E49" s="35" t="s">
         <v>9</v>
@@ -11125,22 +11207,22 @@
         <v>0</v>
       </c>
       <c r="K49" s="35"/>
-      <c r="L49" s="247" t="s">
+      <c r="L49" s="472" t="s">
+        <v>482</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B50" s="247" t="s">
         <v>78</v>
       </c>
-      <c r="M49" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B50" s="248" t="s">
+      <c r="C50" s="235" t="s">
         <v>79</v>
       </c>
-      <c r="C50" s="235" t="s">
-        <v>80</v>
-      </c>
       <c r="D50" s="234" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E50" s="34" t="s">
         <v>9</v>
@@ -11148,7 +11230,7 @@
       <c r="F50" s="235">
         <v>1</v>
       </c>
-      <c r="G50" s="249">
+      <c r="G50" s="248">
         <v>200</v>
       </c>
       <c r="H50" s="235">
@@ -11161,19 +11243,19 @@
         <v>2000</v>
       </c>
       <c r="K50" s="105"/>
-      <c r="L50" s="282" t="s">
+      <c r="L50" s="281" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="249" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="51" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="250" t="s">
-        <v>82</v>
-      </c>
       <c r="C51" s="239" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D51" s="238" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E51" s="36" t="s">
         <v>9</v>
@@ -11194,8 +11276,8 @@
         <v>2000</v>
       </c>
       <c r="K51" s="36"/>
-      <c r="L51" s="281" t="s">
-        <v>83</v>
+      <c r="L51" s="280" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.3">
@@ -11248,7 +11330,7 @@
   <sheetData>
     <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="56" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
@@ -11274,24 +11356,24 @@
         <v>5</v>
       </c>
       <c r="I3" s="81" t="s">
+        <v>203</v>
+      </c>
+      <c r="J3" s="81" t="s">
         <v>204</v>
       </c>
-      <c r="J3" s="81" t="s">
+      <c r="K3" s="81" t="s">
         <v>205</v>
       </c>
-      <c r="K3" s="81" t="s">
+      <c r="L3" s="82" t="s">
         <v>206</v>
-      </c>
-      <c r="L3" s="82" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="85" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="17" t="s">
@@ -11312,16 +11394,16 @@
         <v>6000</v>
       </c>
       <c r="K4" s="19"/>
-      <c r="L4" s="277" t="s">
-        <v>319</v>
+      <c r="L4" s="276" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="85" t="s">
+        <v>309</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>310</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>311</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="17" t="s">
@@ -11342,16 +11424,16 @@
         <v>8000</v>
       </c>
       <c r="K5" s="19"/>
-      <c r="L5" s="277" t="s">
-        <v>319</v>
+      <c r="L5" s="276" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="101" t="s">
+        <v>311</v>
+      </c>
+      <c r="C6" s="34" t="s">
         <v>312</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>313</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="17" t="s">
@@ -11360,7 +11442,7 @@
       <c r="F6" s="19">
         <v>1</v>
       </c>
-      <c r="G6" s="268">
+      <c r="G6" s="267">
         <v>7000</v>
       </c>
       <c r="H6" s="19"/>
@@ -11372,16 +11454,16 @@
         <v>7000</v>
       </c>
       <c r="K6" s="19"/>
-      <c r="L6" s="277" t="s">
-        <v>314</v>
+      <c r="L6" s="276" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="101" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="17" t="s">
@@ -11402,13 +11484,13 @@
         <v>2600</v>
       </c>
       <c r="K7" s="19"/>
-      <c r="L7" s="277" t="s">
-        <v>316</v>
+      <c r="L7" s="276" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="101" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -11418,7 +11500,7 @@
       <c r="F8" s="19">
         <v>1</v>
       </c>
-      <c r="G8" s="268">
+      <c r="G8" s="267">
         <v>22000</v>
       </c>
       <c r="H8" s="19"/>
@@ -11430,8 +11512,8 @@
         <v>44000</v>
       </c>
       <c r="K8" s="19"/>
-      <c r="L8" s="277" t="s">
-        <v>318</v>
+      <c r="L8" s="276" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
@@ -11497,7 +11579,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="267"/>
+      <c r="L13" s="266"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="J14" s="48">
@@ -11519,7 +11601,7 @@
     </row>
     <row r="18" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
@@ -11545,41 +11627,41 @@
         <v>5</v>
       </c>
       <c r="I19" s="81" t="s">
+        <v>203</v>
+      </c>
+      <c r="J19" s="81" t="s">
         <v>204</v>
       </c>
-      <c r="J19" s="81" t="s">
+      <c r="K19" s="81" t="s">
         <v>205</v>
       </c>
-      <c r="K19" s="81" t="s">
+      <c r="L19" s="82" t="s">
         <v>206</v>
       </c>
-      <c r="L19" s="82" t="s">
-        <v>207</v>
-      </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="270" t="s">
+      <c r="B20" s="269" t="s">
+        <v>322</v>
+      </c>
+      <c r="C20" s="269" t="s">
         <v>323</v>
       </c>
-      <c r="C20" s="270" t="s">
-        <v>324</v>
-      </c>
-      <c r="D20" s="272" t="s">
-        <v>332</v>
+      <c r="D20" s="271" t="s">
+        <v>331</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="273">
-        <v>1</v>
-      </c>
-      <c r="G20" s="274">
+      <c r="F20" s="272">
+        <v>1</v>
+      </c>
+      <c r="G20" s="273">
         <v>30</v>
       </c>
-      <c r="H20" s="275">
-        <v>1</v>
-      </c>
-      <c r="I20" s="276">
+      <c r="H20" s="274">
+        <v>1</v>
+      </c>
+      <c r="I20" s="275">
         <v>10</v>
       </c>
       <c r="J20" s="41">
@@ -11587,33 +11669,33 @@
         <v>300</v>
       </c>
       <c r="K20" s="19"/>
-      <c r="L20" s="280" t="s">
-        <v>338</v>
+      <c r="L20" s="279" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="269" t="s">
-        <v>325</v>
-      </c>
-      <c r="C21" s="269" t="s">
+      <c r="B21" s="268" t="s">
+        <v>324</v>
+      </c>
+      <c r="C21" s="268" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="271" t="s">
-        <v>333</v>
+      <c r="D21" s="270" t="s">
+        <v>332</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="273">
-        <v>1</v>
-      </c>
-      <c r="G21" s="274">
+      <c r="F21" s="272">
+        <v>1</v>
+      </c>
+      <c r="G21" s="273">
         <v>50</v>
       </c>
-      <c r="H21" s="275">
+      <c r="H21" s="274">
         <v>100</v>
       </c>
-      <c r="I21" s="276">
+      <c r="I21" s="275">
         <v>100</v>
       </c>
       <c r="J21" s="41">
@@ -11621,33 +11703,33 @@
         <v>5000</v>
       </c>
       <c r="K21" s="19"/>
-      <c r="L21" s="280" t="s">
-        <v>339</v>
+      <c r="L21" s="279" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="270" t="s">
-        <v>326</v>
-      </c>
-      <c r="C22" s="270" t="s">
-        <v>324</v>
-      </c>
-      <c r="D22" s="272" t="s">
-        <v>334</v>
+      <c r="B22" s="269" t="s">
+        <v>325</v>
+      </c>
+      <c r="C22" s="269" t="s">
+        <v>323</v>
+      </c>
+      <c r="D22" s="271" t="s">
+        <v>333</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="273">
+      <c r="F22" s="272">
         <v>2</v>
       </c>
-      <c r="G22" s="274">
+      <c r="G22" s="273">
         <v>290</v>
       </c>
-      <c r="H22" s="275">
-        <v>1</v>
-      </c>
-      <c r="I22" s="276">
+      <c r="H22" s="274">
+        <v>1</v>
+      </c>
+      <c r="I22" s="275">
         <v>20</v>
       </c>
       <c r="J22" s="41">
@@ -11655,33 +11737,33 @@
         <v>5800</v>
       </c>
       <c r="K22" s="19"/>
-      <c r="L22" s="280" t="s">
-        <v>340</v>
+      <c r="L22" s="279" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="269" t="s">
+      <c r="B23" s="268" t="s">
+        <v>326</v>
+      </c>
+      <c r="C23" s="268" t="s">
         <v>327</v>
       </c>
-      <c r="C23" s="269" t="s">
-        <v>328</v>
-      </c>
-      <c r="D23" s="271" t="s">
-        <v>335</v>
+      <c r="D23" s="270" t="s">
+        <v>334</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="273">
-        <v>1</v>
-      </c>
-      <c r="G23" s="274">
+      <c r="F23" s="272">
+        <v>1</v>
+      </c>
+      <c r="G23" s="273">
         <v>100</v>
       </c>
-      <c r="H23" s="275">
+      <c r="H23" s="274">
         <v>10</v>
       </c>
-      <c r="I23" s="276">
+      <c r="I23" s="275">
         <v>10</v>
       </c>
       <c r="J23" s="41">
@@ -11689,33 +11771,33 @@
         <v>1000</v>
       </c>
       <c r="K23" s="19"/>
-      <c r="L23" s="280" t="s">
-        <v>341</v>
+      <c r="L23" s="279" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B24" s="270" t="s">
+      <c r="B24" s="269" t="s">
+        <v>328</v>
+      </c>
+      <c r="C24" s="268" t="s">
         <v>329</v>
       </c>
-      <c r="C24" s="269" t="s">
-        <v>330</v>
-      </c>
-      <c r="D24" s="271" t="s">
-        <v>336</v>
+      <c r="D24" s="270" t="s">
+        <v>335</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="273">
-        <v>1</v>
-      </c>
-      <c r="G24" s="274">
+      <c r="F24" s="272">
+        <v>1</v>
+      </c>
+      <c r="G24" s="273">
         <v>430</v>
       </c>
-      <c r="H24" s="275">
-        <v>1</v>
-      </c>
-      <c r="I24" s="276">
+      <c r="H24" s="274">
+        <v>1</v>
+      </c>
+      <c r="I24" s="275">
         <v>10</v>
       </c>
       <c r="J24" s="41">
@@ -11723,33 +11805,33 @@
         <v>4300</v>
       </c>
       <c r="K24" s="19"/>
-      <c r="L24" s="280" t="s">
-        <v>342</v>
+      <c r="L24" s="279" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B25" s="269" t="s">
-        <v>331</v>
-      </c>
-      <c r="C25" s="269" t="s">
+      <c r="B25" s="268" t="s">
         <v>330</v>
       </c>
-      <c r="D25" s="271" t="s">
-        <v>337</v>
+      <c r="C25" s="268" t="s">
+        <v>329</v>
+      </c>
+      <c r="D25" s="270" t="s">
+        <v>336</v>
       </c>
       <c r="E25" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="273">
-        <v>1</v>
-      </c>
-      <c r="G25" s="274">
+      <c r="F25" s="272">
+        <v>1</v>
+      </c>
+      <c r="G25" s="273">
         <v>430</v>
       </c>
-      <c r="H25" s="275">
-        <v>1</v>
-      </c>
-      <c r="I25" s="276">
+      <c r="H25" s="274">
+        <v>1</v>
+      </c>
+      <c r="I25" s="275">
         <v>10</v>
       </c>
       <c r="J25" s="41">
@@ -11757,8 +11839,8 @@
         <v>4300</v>
       </c>
       <c r="K25" s="19"/>
-      <c r="L25" s="280" t="s">
-        <v>343</v>
+      <c r="L25" s="279" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
@@ -11809,26 +11891,26 @@
   <sheetData>
     <row r="2" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="56" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="260" t="s">
-        <v>298</v>
-      </c>
-      <c r="D3" s="261" t="s">
+      <c r="C3" s="259" t="s">
+        <v>297</v>
+      </c>
+      <c r="D3" s="260" t="s">
+        <v>293</v>
+      </c>
+      <c r="E3" s="260" t="s">
         <v>294</v>
       </c>
-      <c r="E3" s="261" t="s">
+      <c r="F3" s="261" t="s">
         <v>295</v>
       </c>
-      <c r="F3" s="262" t="s">
-        <v>296</v>
-      </c>
     </row>
     <row r="4" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="289" t="s">
-        <v>292</v>
+      <c r="C4" s="288" t="s">
+        <v>291</v>
       </c>
       <c r="D4" s="142">
         <v>169</v>
@@ -11836,32 +11918,32 @@
       <c r="E4" s="142">
         <v>250</v>
       </c>
-      <c r="F4" s="290">
+      <c r="F4" s="289">
         <f>D4*E4</f>
         <v>42250</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="263" t="s">
+      <c r="C6" s="262" t="s">
+        <v>297</v>
+      </c>
+      <c r="D6" s="263" t="s">
         <v>298</v>
       </c>
-      <c r="D6" s="264" t="s">
-        <v>299</v>
-      </c>
       <c r="E6" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="F6" s="33" t="s">
         <v>295</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="56"/>
-      <c r="C7" s="266" t="s">
-        <v>292</v>
-      </c>
-      <c r="D7" s="287">
+      <c r="C7" s="265" t="s">
+        <v>291</v>
+      </c>
+      <c r="D7" s="286">
         <v>3</v>
       </c>
       <c r="E7" s="140">
@@ -11875,9 +11957,9 @@
     </row>
     <row r="8" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="221" t="s">
-        <v>346</v>
-      </c>
-      <c r="D8" s="288">
+        <v>345</v>
+      </c>
+      <c r="D8" s="287">
         <v>2</v>
       </c>
       <c r="E8" s="4">
@@ -11889,15 +11971,15 @@
       </c>
     </row>
     <row r="9" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="442" t="s">
-        <v>347</v>
-      </c>
-      <c r="D9" s="443"/>
-      <c r="E9" s="461">
+      <c r="C9" s="448" t="s">
+        <v>346</v>
+      </c>
+      <c r="D9" s="449"/>
+      <c r="E9" s="467">
         <f>SUM(F7:F8)</f>
         <v>620000</v>
       </c>
-      <c r="F9" s="462"/>
+      <c r="F9" s="468"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -11925,7 +12007,7 @@
     <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5" style="286" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" style="285" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="49.75" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="9" style="1"/>
     <col min="12" max="12" width="10.875" style="1" bestFit="1" customWidth="1"/>
@@ -11947,14 +12029,14 @@
       <c r="B3" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="291" t="s">
+      <c r="C3" s="290" t="s">
+        <v>349</v>
+      </c>
+      <c r="D3" s="290" t="s">
+        <v>347</v>
+      </c>
+      <c r="E3" s="291" t="s">
         <v>350</v>
-      </c>
-      <c r="D3" s="291" t="s">
-        <v>348</v>
-      </c>
-      <c r="E3" s="292" t="s">
-        <v>351</v>
       </c>
       <c r="F3" s="150" t="s">
         <v>0</v>
@@ -11972,7 +12054,7 @@
         <v>6</v>
       </c>
       <c r="K3" s="152" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L3" s="32" t="s">
         <v>20</v>
@@ -11991,363 +12073,363 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="306" t="s">
+      <c r="B4" s="305" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="306" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4" s="307"/>
+      <c r="E4" s="307"/>
+      <c r="F4" s="308" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="307">
+        <v>1</v>
+      </c>
+      <c r="H4" s="308" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="307" t="s">
-        <v>349</v>
-      </c>
-      <c r="D4" s="308"/>
-      <c r="E4" s="308"/>
-      <c r="F4" s="309" t="s">
+      <c r="I4" s="330">
+        <v>10</v>
+      </c>
+      <c r="J4" s="330">
+        <v>110</v>
+      </c>
+      <c r="K4" s="331">
+        <v>110</v>
+      </c>
+      <c r="L4" s="330">
+        <v>20</v>
+      </c>
+      <c r="M4" s="332"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="308" t="s">
+        <v>118</v>
+      </c>
+      <c r="P4" s="37"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="309" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="310" t="s">
+        <v>348</v>
+      </c>
+      <c r="D5" s="311"/>
+      <c r="E5" s="311"/>
+      <c r="F5" s="312" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="308">
-        <v>1</v>
-      </c>
-      <c r="H4" s="309" t="s">
-        <v>118</v>
-      </c>
-      <c r="I4" s="331">
+      <c r="G5" s="311">
+        <v>1</v>
+      </c>
+      <c r="H5" s="312" t="s">
+        <v>120</v>
+      </c>
+      <c r="I5" s="333">
         <v>10</v>
       </c>
-      <c r="J4" s="331">
-        <v>110</v>
-      </c>
-      <c r="K4" s="332">
-        <v>110</v>
-      </c>
-      <c r="L4" s="331">
+      <c r="J5" s="333">
+        <v>220</v>
+      </c>
+      <c r="K5" s="329">
+        <v>220</v>
+      </c>
+      <c r="L5" s="333">
         <v>20</v>
       </c>
-      <c r="M4" s="333"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="309" t="s">
-        <v>119</v>
-      </c>
-      <c r="P4" s="37"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="310" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" s="311" t="s">
-        <v>349</v>
-      </c>
-      <c r="D5" s="312"/>
-      <c r="E5" s="312"/>
-      <c r="F5" s="313" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="312">
-        <v>1</v>
-      </c>
-      <c r="H5" s="313" t="s">
+      <c r="M5" s="293"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="312" t="s">
         <v>121</v>
       </c>
-      <c r="I5" s="334">
+      <c r="P5" s="39"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="309" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="310" t="s">
+        <v>348</v>
+      </c>
+      <c r="D6" s="311"/>
+      <c r="E6" s="311"/>
+      <c r="F6" s="312" t="s">
+        <v>144</v>
+      </c>
+      <c r="G6" s="311">
+        <v>1</v>
+      </c>
+      <c r="H6" s="312" t="s">
+        <v>145</v>
+      </c>
+      <c r="I6" s="333">
         <v>10</v>
       </c>
-      <c r="J5" s="334">
-        <v>220</v>
-      </c>
-      <c r="K5" s="330">
-        <v>220</v>
-      </c>
-      <c r="L5" s="334">
+      <c r="J6" s="333">
         <v>20</v>
       </c>
-      <c r="M5" s="294"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="313" t="s">
-        <v>122</v>
-      </c>
-      <c r="P5" s="39"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="310" t="s">
-        <v>144</v>
-      </c>
-      <c r="C6" s="311" t="s">
-        <v>349</v>
-      </c>
-      <c r="D6" s="312"/>
-      <c r="E6" s="312"/>
-      <c r="F6" s="313" t="s">
-        <v>145</v>
-      </c>
-      <c r="G6" s="312">
-        <v>1</v>
-      </c>
-      <c r="H6" s="313" t="s">
-        <v>146</v>
-      </c>
-      <c r="I6" s="334">
-        <v>10</v>
-      </c>
-      <c r="J6" s="334">
+      <c r="K6" s="329">
+        <v>40</v>
+      </c>
+      <c r="L6" s="333">
         <v>20</v>
       </c>
-      <c r="K6" s="330">
-        <v>40</v>
-      </c>
-      <c r="L6" s="334">
-        <v>20</v>
-      </c>
-      <c r="M6" s="294"/>
+      <c r="M6" s="293"/>
       <c r="N6" s="34">
         <v>20</v>
       </c>
-      <c r="O6" s="313" t="s">
+      <c r="O6" s="312" t="s">
+        <v>146</v>
+      </c>
+      <c r="P6" s="39"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="309" t="s">
         <v>147</v>
       </c>
-      <c r="P6" s="39"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="310" t="s">
+      <c r="C7" s="310" t="s">
+        <v>348</v>
+      </c>
+      <c r="D7" s="311"/>
+      <c r="E7" s="310" t="s">
+        <v>348</v>
+      </c>
+      <c r="F7" s="312" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="311">
+        <v>1</v>
+      </c>
+      <c r="H7" s="312" t="s">
         <v>148</v>
       </c>
-      <c r="C7" s="311" t="s">
-        <v>349</v>
-      </c>
-      <c r="D7" s="312"/>
-      <c r="E7" s="311" t="s">
-        <v>349</v>
-      </c>
-      <c r="F7" s="313" t="s">
-        <v>145</v>
-      </c>
-      <c r="G7" s="312">
-        <v>1</v>
-      </c>
-      <c r="H7" s="313" t="s">
-        <v>149</v>
-      </c>
-      <c r="I7" s="334">
+      <c r="I7" s="333">
         <v>10</v>
       </c>
-      <c r="J7" s="334">
+      <c r="J7" s="333">
         <v>20</v>
       </c>
-      <c r="K7" s="330">
+      <c r="K7" s="329">
         <v>20</v>
       </c>
-      <c r="L7" s="334">
+      <c r="L7" s="333">
         <v>40</v>
       </c>
-      <c r="M7" s="294"/>
+      <c r="M7" s="293"/>
       <c r="N7" s="34">
         <v>22</v>
       </c>
-      <c r="O7" s="313" t="s">
+      <c r="O7" s="312" t="s">
+        <v>149</v>
+      </c>
+      <c r="P7" s="39"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="309" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="310" t="s">
+        <v>348</v>
+      </c>
+      <c r="D8" s="311"/>
+      <c r="E8" s="310" t="s">
+        <v>348</v>
+      </c>
+      <c r="F8" s="312" t="s">
+        <v>144</v>
+      </c>
+      <c r="G8" s="311">
+        <v>1</v>
+      </c>
+      <c r="H8" s="312" t="s">
+        <v>155</v>
+      </c>
+      <c r="I8" s="333">
+        <v>10</v>
+      </c>
+      <c r="J8" s="333">
+        <v>20</v>
+      </c>
+      <c r="K8" s="329">
+        <v>20</v>
+      </c>
+      <c r="L8" s="333">
+        <v>40</v>
+      </c>
+      <c r="M8" s="293"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="313" t="s">
+        <v>156</v>
+      </c>
+      <c r="P8" s="39"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="309" t="s">
         <v>150</v>
       </c>
-      <c r="P7" s="39"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="310" t="s">
-        <v>155</v>
-      </c>
-      <c r="C8" s="311" t="s">
-        <v>349</v>
-      </c>
-      <c r="D8" s="312"/>
-      <c r="E8" s="311" t="s">
-        <v>349</v>
-      </c>
-      <c r="F8" s="313" t="s">
-        <v>145</v>
-      </c>
-      <c r="G8" s="312">
-        <v>1</v>
-      </c>
-      <c r="H8" s="313" t="s">
-        <v>156</v>
-      </c>
-      <c r="I8" s="334">
+      <c r="C9" s="310" t="s">
+        <v>348</v>
+      </c>
+      <c r="D9" s="311"/>
+      <c r="E9" s="310" t="s">
+        <v>348</v>
+      </c>
+      <c r="F9" s="312" t="s">
+        <v>144</v>
+      </c>
+      <c r="G9" s="311">
+        <v>1</v>
+      </c>
+      <c r="H9" s="312" t="s">
+        <v>151</v>
+      </c>
+      <c r="I9" s="333">
         <v>10</v>
       </c>
-      <c r="J8" s="334">
+      <c r="J9" s="333">
+        <v>40</v>
+      </c>
+      <c r="K9" s="329">
+        <v>250</v>
+      </c>
+      <c r="L9" s="333">
         <v>20</v>
       </c>
-      <c r="K8" s="330">
-        <v>20</v>
-      </c>
-      <c r="L8" s="334">
-        <v>40</v>
-      </c>
-      <c r="M8" s="294"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="314" t="s">
-        <v>157</v>
-      </c>
-      <c r="P8" s="39"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="310" t="s">
-        <v>151</v>
-      </c>
-      <c r="C9" s="311" t="s">
-        <v>349</v>
-      </c>
-      <c r="D9" s="312"/>
-      <c r="E9" s="311" t="s">
-        <v>349</v>
-      </c>
-      <c r="F9" s="313" t="s">
-        <v>145</v>
-      </c>
-      <c r="G9" s="312">
-        <v>1</v>
-      </c>
-      <c r="H9" s="313" t="s">
+      <c r="M9" s="293"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="313" t="s">
         <v>152</v>
       </c>
-      <c r="I9" s="334">
-        <v>10</v>
-      </c>
-      <c r="J9" s="334">
-        <v>40</v>
-      </c>
-      <c r="K9" s="330">
-        <v>250</v>
-      </c>
-      <c r="L9" s="334">
-        <v>20</v>
-      </c>
-      <c r="M9" s="294"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="314" t="s">
-        <v>153</v>
-      </c>
       <c r="P9" s="39"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="296" t="s">
-        <v>187</v>
-      </c>
-      <c r="C10" s="311" t="s">
-        <v>349</v>
-      </c>
-      <c r="D10" s="298"/>
-      <c r="E10" s="298"/>
+      <c r="B10" s="295" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" s="310" t="s">
+        <v>348</v>
+      </c>
+      <c r="D10" s="297"/>
+      <c r="E10" s="297"/>
       <c r="F10" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="298">
+      <c r="G10" s="297">
         <v>1</v>
       </c>
       <c r="H10" s="58" t="s">
-        <v>188</v>
-      </c>
-      <c r="I10" s="330">
+        <v>187</v>
+      </c>
+      <c r="I10" s="329">
         <v>10</v>
       </c>
-      <c r="J10" s="330">
+      <c r="J10" s="329">
         <v>140</v>
       </c>
-      <c r="K10" s="330">
+      <c r="K10" s="329">
         <v>140</v>
       </c>
-      <c r="L10" s="330">
+      <c r="L10" s="329">
         <v>10</v>
       </c>
-      <c r="M10" s="294"/>
+      <c r="M10" s="293"/>
       <c r="N10" s="34"/>
       <c r="O10" s="58" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P10" s="39"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="C11" s="311" t="s">
-        <v>349</v>
+        <v>278</v>
+      </c>
+      <c r="C11" s="310" t="s">
+        <v>348</v>
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
       <c r="F11" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="G11" s="22">
+        <v>1</v>
+      </c>
+      <c r="H11" s="34" t="s">
         <v>280</v>
       </c>
-      <c r="G11" s="22">
-        <v>1</v>
-      </c>
-      <c r="H11" s="34" t="s">
-        <v>281</v>
-      </c>
-      <c r="I11" s="294">
-        <v>1</v>
-      </c>
-      <c r="J11" s="294">
+      <c r="I11" s="293">
+        <v>1</v>
+      </c>
+      <c r="J11" s="293">
         <v>3520</v>
       </c>
-      <c r="K11" s="294">
+      <c r="K11" s="293">
         <f>J11*L11</f>
         <v>7040</v>
       </c>
-      <c r="L11" s="294">
+      <c r="L11" s="293">
         <v>2</v>
       </c>
-      <c r="M11" s="294"/>
+      <c r="M11" s="293"/>
       <c r="N11" s="34"/>
-      <c r="O11" s="315" t="s">
-        <v>282</v>
+      <c r="O11" s="314" t="s">
+        <v>281</v>
       </c>
       <c r="P11" s="39" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="310" t="s">
+      <c r="B12" s="309" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="310" t="s">
+        <v>348</v>
+      </c>
+      <c r="D12" s="311"/>
+      <c r="E12" s="311"/>
+      <c r="F12" s="312" t="s">
         <v>140</v>
       </c>
-      <c r="C12" s="311" t="s">
-        <v>349</v>
-      </c>
-      <c r="D12" s="312"/>
-      <c r="E12" s="312"/>
-      <c r="F12" s="313" t="s">
+      <c r="G12" s="311">
+        <v>1</v>
+      </c>
+      <c r="H12" s="312" t="s">
         <v>141</v>
       </c>
-      <c r="G12" s="312">
-        <v>1</v>
-      </c>
-      <c r="H12" s="313" t="s">
-        <v>142</v>
-      </c>
-      <c r="I12" s="334">
-        <v>1</v>
-      </c>
-      <c r="J12" s="334">
+      <c r="I12" s="333">
+        <v>1</v>
+      </c>
+      <c r="J12" s="333">
         <v>720</v>
       </c>
-      <c r="K12" s="330">
+      <c r="K12" s="329">
         <v>1270</v>
       </c>
-      <c r="L12" s="334">
+      <c r="L12" s="333">
         <v>20</v>
       </c>
-      <c r="M12" s="294"/>
+      <c r="M12" s="293"/>
       <c r="N12" s="34">
         <v>20</v>
       </c>
-      <c r="O12" s="313" t="s">
-        <v>143</v>
+      <c r="O12" s="312" t="s">
+        <v>142</v>
       </c>
       <c r="P12" s="39"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="293" t="s">
+      <c r="B13" s="292" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="311" t="s">
-        <v>349</v>
+      <c r="C13" s="310" t="s">
+        <v>348</v>
       </c>
       <c r="D13" s="234"/>
-      <c r="E13" s="311" t="s">
-        <v>349</v>
+      <c r="E13" s="310" t="s">
+        <v>348</v>
       </c>
       <c r="F13" s="234" t="s">
         <v>52</v>
@@ -12358,24 +12440,24 @@
       <c r="H13" s="234" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="294">
-        <v>1</v>
-      </c>
-      <c r="J13" s="294">
+      <c r="I13" s="293">
+        <v>1</v>
+      </c>
+      <c r="J13" s="293">
         <v>60</v>
       </c>
-      <c r="K13" s="294">
+      <c r="K13" s="293">
         <f>J13*L13</f>
         <v>7200</v>
       </c>
-      <c r="L13" s="294">
+      <c r="L13" s="293">
         <v>120</v>
       </c>
-      <c r="M13" s="294"/>
+      <c r="M13" s="293"/>
       <c r="N13" s="34">
         <v>100</v>
       </c>
-      <c r="O13" s="315" t="s">
+      <c r="O13" s="314" t="s">
         <v>54</v>
       </c>
       <c r="P13" s="39" t="s">
@@ -12383,574 +12465,574 @@
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="310" t="s">
+      <c r="B14" s="309" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="310" t="s">
+        <v>348</v>
+      </c>
+      <c r="D14" s="311"/>
+      <c r="E14" s="311"/>
+      <c r="F14" s="312" t="s">
         <v>158</v>
       </c>
-      <c r="C14" s="311" t="s">
-        <v>349</v>
-      </c>
-      <c r="D14" s="312"/>
-      <c r="E14" s="312"/>
-      <c r="F14" s="313" t="s">
+      <c r="G14" s="311">
+        <v>1</v>
+      </c>
+      <c r="H14" s="312" t="s">
         <v>159</v>
       </c>
-      <c r="G14" s="312">
-        <v>1</v>
-      </c>
-      <c r="H14" s="313" t="s">
+      <c r="I14" s="333">
+        <v>50</v>
+      </c>
+      <c r="J14" s="333">
         <v>160</v>
       </c>
-      <c r="I14" s="334">
+      <c r="K14" s="329">
+        <v>160</v>
+      </c>
+      <c r="L14" s="333">
         <v>50</v>
       </c>
-      <c r="J14" s="334">
+      <c r="M14" s="293"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="312" t="s">
         <v>160</v>
       </c>
-      <c r="K14" s="330">
-        <v>160</v>
-      </c>
-      <c r="L14" s="334">
-        <v>50</v>
-      </c>
-      <c r="M14" s="294"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="313" t="s">
-        <v>161</v>
-      </c>
       <c r="P14" s="39"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="310" t="s">
+      <c r="B15" s="309" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="310" t="s">
+        <v>348</v>
+      </c>
+      <c r="D15" s="311"/>
+      <c r="E15" s="311"/>
+      <c r="F15" s="312" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="311">
+        <v>1</v>
+      </c>
+      <c r="H15" s="312" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="311" t="s">
-        <v>349</v>
-      </c>
-      <c r="D15" s="312"/>
-      <c r="E15" s="312"/>
-      <c r="F15" s="313" t="s">
-        <v>80</v>
-      </c>
-      <c r="G15" s="312">
-        <v>1</v>
-      </c>
-      <c r="H15" s="313" t="s">
+      <c r="I15" s="333">
+        <v>10</v>
+      </c>
+      <c r="J15" s="333">
+        <v>380</v>
+      </c>
+      <c r="K15" s="329">
+        <v>380</v>
+      </c>
+      <c r="L15" s="333">
+        <v>10</v>
+      </c>
+      <c r="M15" s="293"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="312" t="s">
         <v>115</v>
       </c>
-      <c r="I15" s="334">
-        <v>10</v>
-      </c>
-      <c r="J15" s="334">
-        <v>380</v>
-      </c>
-      <c r="K15" s="330">
-        <v>380</v>
-      </c>
-      <c r="L15" s="334">
-        <v>10</v>
-      </c>
-      <c r="M15" s="294"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="313" t="s">
-        <v>116</v>
-      </c>
       <c r="P15" s="39"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="310" t="s">
+      <c r="B16" s="309" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="310" t="s">
+        <v>348</v>
+      </c>
+      <c r="D16" s="311"/>
+      <c r="E16" s="311"/>
+      <c r="F16" s="312" t="s">
         <v>127</v>
       </c>
-      <c r="C16" s="311" t="s">
-        <v>349</v>
-      </c>
-      <c r="D16" s="312"/>
-      <c r="E16" s="312"/>
-      <c r="F16" s="313" t="s">
+      <c r="G16" s="311">
+        <v>1</v>
+      </c>
+      <c r="H16" s="312" t="s">
         <v>128</v>
       </c>
-      <c r="G16" s="312">
-        <v>1</v>
-      </c>
-      <c r="H16" s="313" t="s">
-        <v>129</v>
-      </c>
-      <c r="I16" s="334">
-        <v>1</v>
-      </c>
-      <c r="J16" s="334">
+      <c r="I16" s="333">
+        <v>1</v>
+      </c>
+      <c r="J16" s="333">
         <v>420</v>
       </c>
-      <c r="K16" s="330">
+      <c r="K16" s="329">
         <v>350</v>
       </c>
-      <c r="L16" s="334">
+      <c r="L16" s="333">
         <v>20</v>
       </c>
-      <c r="M16" s="294"/>
+      <c r="M16" s="293"/>
       <c r="N16" s="17">
         <v>22</v>
       </c>
-      <c r="O16" s="313" t="s">
-        <v>130</v>
+      <c r="O16" s="312" t="s">
+        <v>129</v>
       </c>
       <c r="P16" s="39"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B17" s="310" t="s">
+      <c r="B17" s="309" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="310" t="s">
+        <v>348</v>
+      </c>
+      <c r="D17" s="311"/>
+      <c r="E17" s="311"/>
+      <c r="F17" s="312" t="s">
         <v>123</v>
       </c>
-      <c r="C17" s="311" t="s">
-        <v>349</v>
-      </c>
-      <c r="D17" s="312"/>
-      <c r="E17" s="312"/>
-      <c r="F17" s="313" t="s">
+      <c r="G17" s="311">
+        <v>1</v>
+      </c>
+      <c r="H17" s="312" t="s">
         <v>124</v>
       </c>
-      <c r="G17" s="312">
-        <v>1</v>
-      </c>
-      <c r="H17" s="313" t="s">
+      <c r="I17" s="333">
+        <v>1</v>
+      </c>
+      <c r="J17" s="333">
+        <v>260</v>
+      </c>
+      <c r="K17" s="329">
+        <v>320</v>
+      </c>
+      <c r="L17" s="333">
+        <v>20</v>
+      </c>
+      <c r="M17" s="293"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="312" t="s">
         <v>125</v>
       </c>
-      <c r="I17" s="334">
-        <v>1</v>
-      </c>
-      <c r="J17" s="334">
-        <v>260</v>
-      </c>
-      <c r="K17" s="330">
-        <v>320</v>
-      </c>
-      <c r="L17" s="334">
+      <c r="P17" s="39"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B18" s="309" t="s">
+        <v>172</v>
+      </c>
+      <c r="C18" s="310" t="s">
+        <v>348</v>
+      </c>
+      <c r="D18" s="311"/>
+      <c r="E18" s="311"/>
+      <c r="F18" s="312" t="s">
+        <v>173</v>
+      </c>
+      <c r="G18" s="311">
+        <v>1</v>
+      </c>
+      <c r="H18" s="312" t="s">
+        <v>174</v>
+      </c>
+      <c r="I18" s="333">
+        <v>1</v>
+      </c>
+      <c r="J18" s="333">
+        <v>2850</v>
+      </c>
+      <c r="K18" s="329">
+        <v>3240</v>
+      </c>
+      <c r="L18" s="333">
         <v>20</v>
       </c>
-      <c r="M17" s="294"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="313" t="s">
-        <v>126</v>
-      </c>
-      <c r="P17" s="39"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B18" s="310" t="s">
-        <v>173</v>
-      </c>
-      <c r="C18" s="311" t="s">
-        <v>349</v>
-      </c>
-      <c r="D18" s="312"/>
-      <c r="E18" s="312"/>
-      <c r="F18" s="313" t="s">
-        <v>174</v>
-      </c>
-      <c r="G18" s="312">
-        <v>1</v>
-      </c>
-      <c r="H18" s="313" t="s">
-        <v>175</v>
-      </c>
-      <c r="I18" s="334">
-        <v>1</v>
-      </c>
-      <c r="J18" s="334">
-        <v>2850</v>
-      </c>
-      <c r="K18" s="330">
-        <v>3240</v>
-      </c>
-      <c r="L18" s="334">
-        <v>20</v>
-      </c>
-      <c r="M18" s="294"/>
+      <c r="M18" s="293"/>
       <c r="N18" s="17">
         <v>20</v>
       </c>
-      <c r="O18" s="313" t="s">
+      <c r="O18" s="312" t="s">
+        <v>175</v>
+      </c>
+      <c r="P18" s="39"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B19" s="309" t="s">
         <v>176</v>
       </c>
-      <c r="P18" s="39"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B19" s="310" t="s">
+      <c r="C19" s="310" t="s">
+        <v>348</v>
+      </c>
+      <c r="D19" s="311"/>
+      <c r="E19" s="311"/>
+      <c r="F19" s="312" t="s">
+        <v>173</v>
+      </c>
+      <c r="G19" s="311">
+        <v>1</v>
+      </c>
+      <c r="H19" s="312" t="s">
         <v>177</v>
       </c>
-      <c r="C19" s="311" t="s">
-        <v>349</v>
-      </c>
-      <c r="D19" s="312"/>
-      <c r="E19" s="312"/>
-      <c r="F19" s="313" t="s">
-        <v>174</v>
-      </c>
-      <c r="G19" s="312">
-        <v>1</v>
-      </c>
-      <c r="H19" s="313" t="s">
+      <c r="I19" s="333">
+        <v>1</v>
+      </c>
+      <c r="J19" s="333">
+        <v>1750</v>
+      </c>
+      <c r="K19" s="329">
+        <v>1000</v>
+      </c>
+      <c r="L19" s="333">
+        <v>60</v>
+      </c>
+      <c r="M19" s="293"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="312" t="s">
         <v>178</v>
       </c>
-      <c r="I19" s="334">
-        <v>1</v>
-      </c>
-      <c r="J19" s="334">
-        <v>1750</v>
-      </c>
-      <c r="K19" s="330">
-        <v>1000</v>
-      </c>
-      <c r="L19" s="334">
-        <v>60</v>
-      </c>
-      <c r="M19" s="294"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="313" t="s">
-        <v>179</v>
-      </c>
       <c r="P19" s="39"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B20" s="310" t="s">
+      <c r="B20" s="309" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="310" t="s">
+        <v>348</v>
+      </c>
+      <c r="D20" s="311"/>
+      <c r="E20" s="311"/>
+      <c r="F20" s="312" t="s">
         <v>136</v>
       </c>
-      <c r="C20" s="311" t="s">
-        <v>349</v>
-      </c>
-      <c r="D20" s="312"/>
-      <c r="E20" s="312"/>
-      <c r="F20" s="313" t="s">
+      <c r="G20" s="311">
+        <v>1</v>
+      </c>
+      <c r="H20" s="312" t="s">
         <v>137</v>
       </c>
-      <c r="G20" s="312">
-        <v>1</v>
-      </c>
-      <c r="H20" s="313" t="s">
-        <v>138</v>
-      </c>
-      <c r="I20" s="334">
-        <v>1</v>
-      </c>
-      <c r="J20" s="334">
+      <c r="I20" s="333">
+        <v>1</v>
+      </c>
+      <c r="J20" s="333">
         <v>480</v>
       </c>
-      <c r="K20" s="330">
+      <c r="K20" s="329">
         <v>260</v>
       </c>
-      <c r="L20" s="334">
+      <c r="L20" s="333">
         <v>100</v>
       </c>
-      <c r="M20" s="294"/>
+      <c r="M20" s="293"/>
       <c r="N20" s="17">
         <v>96</v>
       </c>
-      <c r="O20" s="313" t="s">
-        <v>139</v>
+      <c r="O20" s="312" t="s">
+        <v>138</v>
       </c>
       <c r="P20" s="39"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B21" s="310" t="s">
+      <c r="B21" s="309" t="s">
+        <v>168</v>
+      </c>
+      <c r="C21" s="310" t="s">
+        <v>348</v>
+      </c>
+      <c r="D21" s="311"/>
+      <c r="E21" s="311"/>
+      <c r="F21" s="312" t="s">
         <v>169</v>
       </c>
-      <c r="C21" s="311" t="s">
-        <v>349</v>
-      </c>
-      <c r="D21" s="312"/>
-      <c r="E21" s="312"/>
-      <c r="F21" s="313" t="s">
+      <c r="G21" s="311">
+        <v>1</v>
+      </c>
+      <c r="H21" s="312" t="s">
         <v>170</v>
       </c>
-      <c r="G21" s="312">
-        <v>1</v>
-      </c>
-      <c r="H21" s="313" t="s">
-        <v>171</v>
-      </c>
-      <c r="I21" s="334">
-        <v>1</v>
-      </c>
-      <c r="J21" s="334">
+      <c r="I21" s="333">
+        <v>1</v>
+      </c>
+      <c r="J21" s="333">
         <v>750</v>
       </c>
-      <c r="K21" s="330">
+      <c r="K21" s="329">
         <v>550</v>
       </c>
-      <c r="L21" s="334">
+      <c r="L21" s="333">
         <v>25</v>
       </c>
-      <c r="M21" s="294"/>
+      <c r="M21" s="293"/>
       <c r="N21" s="17">
         <v>26</v>
       </c>
-      <c r="O21" s="313" t="s">
-        <v>172</v>
+      <c r="O21" s="312" t="s">
+        <v>171</v>
       </c>
       <c r="P21" s="39"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B22" s="310" t="s">
+      <c r="B22" s="309" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="310" t="s">
+        <v>348</v>
+      </c>
+      <c r="D22" s="311"/>
+      <c r="E22" s="311"/>
+      <c r="F22" s="312" t="s">
         <v>132</v>
       </c>
-      <c r="C22" s="311" t="s">
-        <v>349</v>
-      </c>
-      <c r="D22" s="312"/>
-      <c r="E22" s="312"/>
-      <c r="F22" s="313" t="s">
+      <c r="G22" s="311">
+        <v>1</v>
+      </c>
+      <c r="H22" s="312" t="s">
         <v>133</v>
       </c>
-      <c r="G22" s="312">
-        <v>1</v>
-      </c>
-      <c r="H22" s="313" t="s">
-        <v>134</v>
-      </c>
-      <c r="I22" s="334">
-        <v>1</v>
-      </c>
-      <c r="J22" s="334">
+      <c r="I22" s="333">
+        <v>1</v>
+      </c>
+      <c r="J22" s="333">
         <v>2150</v>
       </c>
-      <c r="K22" s="330">
+      <c r="K22" s="329">
         <v>1880</v>
       </c>
-      <c r="L22" s="334">
+      <c r="L22" s="333">
         <v>20</v>
       </c>
-      <c r="M22" s="294"/>
+      <c r="M22" s="293"/>
       <c r="N22" s="17">
         <v>20</v>
       </c>
-      <c r="O22" s="313" t="s">
-        <v>135</v>
+      <c r="O22" s="312" t="s">
+        <v>134</v>
       </c>
       <c r="P22" s="39"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B23" s="310" t="s">
+      <c r="B23" s="309" t="s">
+        <v>162</v>
+      </c>
+      <c r="C23" s="310" t="s">
+        <v>348</v>
+      </c>
+      <c r="D23" s="311"/>
+      <c r="E23" s="311"/>
+      <c r="F23" s="312" t="s">
         <v>163</v>
       </c>
-      <c r="C23" s="311" t="s">
-        <v>349</v>
-      </c>
-      <c r="D23" s="312"/>
-      <c r="E23" s="312"/>
-      <c r="F23" s="313" t="s">
-        <v>164</v>
-      </c>
-      <c r="G23" s="312">
+      <c r="G23" s="311">
         <v>3</v>
       </c>
-      <c r="H23" s="313" t="s">
-        <v>160</v>
-      </c>
-      <c r="I23" s="334">
-        <v>1</v>
-      </c>
-      <c r="J23" s="334">
+      <c r="H23" s="312" t="s">
+        <v>159</v>
+      </c>
+      <c r="I23" s="333">
+        <v>1</v>
+      </c>
+      <c r="J23" s="333">
         <v>280</v>
       </c>
-      <c r="K23" s="330">
+      <c r="K23" s="329">
         <v>270</v>
       </c>
-      <c r="L23" s="334">
+      <c r="L23" s="333">
         <v>60</v>
       </c>
-      <c r="M23" s="294"/>
+      <c r="M23" s="293"/>
       <c r="N23" s="17">
         <v>60</v>
       </c>
-      <c r="O23" s="313" t="s">
-        <v>165</v>
+      <c r="O23" s="312" t="s">
+        <v>164</v>
       </c>
       <c r="P23" s="39"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B24" s="310" t="s">
+      <c r="B24" s="309" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="310" t="s">
+        <v>348</v>
+      </c>
+      <c r="D24" s="311"/>
+      <c r="E24" s="310" t="s">
+        <v>348</v>
+      </c>
+      <c r="F24" s="312" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="311" t="s">
-        <v>349</v>
-      </c>
-      <c r="D24" s="312"/>
-      <c r="E24" s="311" t="s">
-        <v>349</v>
-      </c>
-      <c r="F24" s="313" t="s">
+      <c r="G24" s="311">
+        <v>1</v>
+      </c>
+      <c r="H24" s="312" t="s">
         <v>109</v>
       </c>
-      <c r="G24" s="312">
-        <v>1</v>
-      </c>
-      <c r="H24" s="313" t="s">
-        <v>110</v>
-      </c>
-      <c r="I24" s="334">
+      <c r="I24" s="333">
         <v>10</v>
       </c>
-      <c r="J24" s="334">
+      <c r="J24" s="333">
         <v>200</v>
       </c>
-      <c r="K24" s="330">
+      <c r="K24" s="329">
         <v>200</v>
       </c>
-      <c r="L24" s="334">
+      <c r="L24" s="333">
         <v>20</v>
       </c>
-      <c r="M24" s="294"/>
+      <c r="M24" s="293"/>
       <c r="N24" s="17">
         <v>17</v>
       </c>
-      <c r="O24" s="313" t="s">
+      <c r="O24" s="312" t="s">
+        <v>110</v>
+      </c>
+      <c r="P24" s="39"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B25" s="309" t="s">
+        <v>165</v>
+      </c>
+      <c r="C25" s="310" t="s">
+        <v>348</v>
+      </c>
+      <c r="D25" s="311"/>
+      <c r="E25" s="310" t="s">
+        <v>348</v>
+      </c>
+      <c r="F25" s="312" t="s">
+        <v>166</v>
+      </c>
+      <c r="G25" s="311">
+        <v>1</v>
+      </c>
+      <c r="H25" s="312" t="s">
+        <v>167</v>
+      </c>
+      <c r="I25" s="333">
+        <v>1</v>
+      </c>
+      <c r="J25" s="333">
+        <v>3970</v>
+      </c>
+      <c r="K25" s="329">
+        <v>2340</v>
+      </c>
+      <c r="L25" s="333">
+        <v>40</v>
+      </c>
+      <c r="M25" s="293"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="312" t="s">
         <v>111</v>
       </c>
-      <c r="P24" s="39"/>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B25" s="310" t="s">
-        <v>166</v>
-      </c>
-      <c r="C25" s="311" t="s">
-        <v>349</v>
-      </c>
-      <c r="D25" s="312"/>
-      <c r="E25" s="311" t="s">
-        <v>349</v>
-      </c>
-      <c r="F25" s="313" t="s">
-        <v>167</v>
-      </c>
-      <c r="G25" s="312">
-        <v>1</v>
-      </c>
-      <c r="H25" s="313" t="s">
-        <v>168</v>
-      </c>
-      <c r="I25" s="334">
-        <v>1</v>
-      </c>
-      <c r="J25" s="334">
-        <v>3970</v>
-      </c>
-      <c r="K25" s="330">
-        <v>2340</v>
-      </c>
-      <c r="L25" s="334">
-        <v>40</v>
-      </c>
-      <c r="M25" s="294"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="313" t="s">
-        <v>112</v>
-      </c>
       <c r="P25" s="39"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B26" s="310" t="s">
+      <c r="B26" s="309" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="310" t="s">
+        <v>348</v>
+      </c>
+      <c r="D26" s="311"/>
+      <c r="E26" s="311"/>
+      <c r="F26" s="312" t="s">
         <v>104</v>
       </c>
-      <c r="C26" s="311" t="s">
-        <v>349</v>
-      </c>
-      <c r="D26" s="312"/>
-      <c r="E26" s="312"/>
-      <c r="F26" s="313" t="s">
+      <c r="G26" s="311">
+        <v>1</v>
+      </c>
+      <c r="H26" s="312" t="s">
         <v>105</v>
       </c>
-      <c r="G26" s="312">
-        <v>1</v>
-      </c>
-      <c r="H26" s="313" t="s">
-        <v>106</v>
-      </c>
-      <c r="I26" s="334">
-        <v>1</v>
-      </c>
-      <c r="J26" s="334">
+      <c r="I26" s="333">
+        <v>1</v>
+      </c>
+      <c r="J26" s="333">
         <v>520</v>
       </c>
-      <c r="K26" s="330">
+      <c r="K26" s="329">
         <v>380</v>
       </c>
-      <c r="L26" s="334">
+      <c r="L26" s="333">
         <v>20</v>
       </c>
-      <c r="M26" s="294"/>
+      <c r="M26" s="293"/>
       <c r="N26" s="17">
         <v>20</v>
       </c>
-      <c r="O26" s="313" t="s">
-        <v>107</v>
+      <c r="O26" s="312" t="s">
+        <v>106</v>
       </c>
       <c r="P26" s="39"/>
       <c r="Q26" s="1"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B27" s="310" t="s">
+      <c r="B27" s="309" t="s">
+        <v>179</v>
+      </c>
+      <c r="C27" s="310" t="s">
+        <v>348</v>
+      </c>
+      <c r="D27" s="311"/>
+      <c r="E27" s="310" t="s">
+        <v>348</v>
+      </c>
+      <c r="F27" s="312" t="s">
+        <v>173</v>
+      </c>
+      <c r="G27" s="311">
+        <v>1</v>
+      </c>
+      <c r="H27" s="312" t="s">
         <v>180</v>
       </c>
-      <c r="C27" s="311" t="s">
-        <v>349</v>
-      </c>
-      <c r="D27" s="312"/>
-      <c r="E27" s="311" t="s">
-        <v>349</v>
-      </c>
-      <c r="F27" s="313" t="s">
-        <v>174</v>
-      </c>
-      <c r="G27" s="312">
-        <v>1</v>
-      </c>
-      <c r="H27" s="313" t="s">
+      <c r="I27" s="333">
+        <v>5</v>
+      </c>
+      <c r="J27" s="333">
+        <v>870</v>
+      </c>
+      <c r="K27" s="329">
+        <v>870</v>
+      </c>
+      <c r="L27" s="333">
+        <v>40</v>
+      </c>
+      <c r="M27" s="293"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="312" t="s">
         <v>181</v>
-      </c>
-      <c r="I27" s="334">
-        <v>5</v>
-      </c>
-      <c r="J27" s="334">
-        <v>870</v>
-      </c>
-      <c r="K27" s="330">
-        <v>870</v>
-      </c>
-      <c r="L27" s="334">
-        <v>40</v>
-      </c>
-      <c r="M27" s="294"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="313" t="s">
-        <v>182</v>
       </c>
       <c r="P27" s="39"/>
       <c r="Q27" s="1"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B28" s="299" t="s">
+      <c r="B28" s="298" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="300"/>
-      <c r="D28" s="311" t="s">
-        <v>349</v>
-      </c>
-      <c r="E28" s="311"/>
-      <c r="F28" s="311"/>
-      <c r="G28" s="301">
-        <v>1</v>
-      </c>
-      <c r="H28" s="302" t="s">
+      <c r="C28" s="299"/>
+      <c r="D28" s="310" t="s">
+        <v>348</v>
+      </c>
+      <c r="E28" s="310"/>
+      <c r="F28" s="310"/>
+      <c r="G28" s="300">
+        <v>1</v>
+      </c>
+      <c r="H28" s="301" t="s">
         <v>2</v>
       </c>
-      <c r="I28" s="294">
+      <c r="I28" s="293">
         <v>50</v>
       </c>
-      <c r="J28" s="294">
+      <c r="J28" s="293">
         <v>100</v>
       </c>
-      <c r="K28" s="294"/>
-      <c r="L28" s="294">
+      <c r="K28" s="293"/>
+      <c r="L28" s="293">
         <v>50</v>
       </c>
-      <c r="M28" s="294">
+      <c r="M28" s="293">
         <f>J28*L28</f>
         <v>5000</v>
       </c>
@@ -12963,72 +13045,72 @@
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B29" s="396" t="s">
+      <c r="B29" s="395" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="397"/>
-      <c r="D29" s="398" t="s">
-        <v>349</v>
-      </c>
-      <c r="E29" s="398"/>
-      <c r="F29" s="398"/>
-      <c r="G29" s="399">
+      <c r="C29" s="396"/>
+      <c r="D29" s="397" t="s">
+        <v>348</v>
+      </c>
+      <c r="E29" s="397"/>
+      <c r="F29" s="397"/>
+      <c r="G29" s="398">
         <v>2</v>
       </c>
-      <c r="H29" s="400" t="s">
+      <c r="H29" s="399" t="s">
         <v>23</v>
       </c>
-      <c r="I29" s="401">
-        <v>1</v>
-      </c>
-      <c r="J29" s="401">
+      <c r="I29" s="400">
+        <v>1</v>
+      </c>
+      <c r="J29" s="400">
         <v>1260</v>
       </c>
-      <c r="K29" s="401"/>
-      <c r="L29" s="401">
+      <c r="K29" s="400"/>
+      <c r="L29" s="400">
         <v>6</v>
       </c>
-      <c r="M29" s="401">
+      <c r="M29" s="400">
         <f>J29*L29</f>
         <v>7560</v>
       </c>
-      <c r="N29" s="402">
+      <c r="N29" s="401">
         <v>2</v>
       </c>
-      <c r="O29" s="402" t="s">
+      <c r="O29" s="401" t="s">
         <v>26</v>
       </c>
-      <c r="P29" s="403" t="s">
+      <c r="P29" s="402" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B30" s="316" t="s">
+      <c r="B30" s="315" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="317"/>
-      <c r="D30" s="311" t="s">
-        <v>349</v>
-      </c>
-      <c r="E30" s="311"/>
-      <c r="F30" s="311"/>
+      <c r="C30" s="316"/>
+      <c r="D30" s="310" t="s">
+        <v>348</v>
+      </c>
+      <c r="E30" s="310"/>
+      <c r="F30" s="310"/>
       <c r="G30" s="22">
         <v>2</v>
       </c>
-      <c r="H30" s="318" t="s">
-        <v>345</v>
-      </c>
-      <c r="I30" s="294">
-        <v>1</v>
-      </c>
-      <c r="J30" s="294">
+      <c r="H30" s="317" t="s">
+        <v>344</v>
+      </c>
+      <c r="I30" s="293">
+        <v>1</v>
+      </c>
+      <c r="J30" s="293">
         <v>960</v>
       </c>
-      <c r="K30" s="294"/>
-      <c r="L30" s="294">
+      <c r="K30" s="293"/>
+      <c r="L30" s="293">
         <v>20</v>
       </c>
-      <c r="M30" s="294">
+      <c r="M30" s="293">
         <v>16400</v>
       </c>
       <c r="N30" s="17">
@@ -13037,37 +13119,37 @@
       <c r="O30" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="P30" s="295" t="s">
+      <c r="P30" s="294" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B31" s="296" t="s">
+      <c r="B31" s="295" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="297"/>
-      <c r="D31" s="311" t="s">
-        <v>349</v>
-      </c>
-      <c r="E31" s="311"/>
-      <c r="F31" s="311"/>
-      <c r="G31" s="298">
+      <c r="C31" s="296"/>
+      <c r="D31" s="310" t="s">
+        <v>348</v>
+      </c>
+      <c r="E31" s="310"/>
+      <c r="F31" s="310"/>
+      <c r="G31" s="297">
         <v>10</v>
       </c>
-      <c r="H31" s="297" t="s">
+      <c r="H31" s="296" t="s">
         <v>39</v>
       </c>
-      <c r="I31" s="294">
+      <c r="I31" s="293">
         <v>5</v>
       </c>
-      <c r="J31" s="294">
+      <c r="J31" s="293">
         <v>2280</v>
       </c>
-      <c r="K31" s="294"/>
-      <c r="L31" s="294">
+      <c r="K31" s="293"/>
+      <c r="L31" s="293">
         <v>10</v>
       </c>
-      <c r="M31" s="294">
+      <c r="M31" s="293">
         <f t="shared" ref="M31:M37" si="0">J31*L31</f>
         <v>22800</v>
       </c>
@@ -13082,32 +13164,32 @@
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B32" s="299" t="s">
+      <c r="B32" s="298" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="300"/>
-      <c r="D32" s="311" t="s">
-        <v>349</v>
-      </c>
-      <c r="E32" s="311"/>
-      <c r="F32" s="311"/>
-      <c r="G32" s="301">
-        <v>1</v>
-      </c>
-      <c r="H32" s="302" t="s">
+      <c r="C32" s="299"/>
+      <c r="D32" s="310" t="s">
+        <v>348</v>
+      </c>
+      <c r="E32" s="310"/>
+      <c r="F32" s="310"/>
+      <c r="G32" s="300">
+        <v>1</v>
+      </c>
+      <c r="H32" s="301" t="s">
         <v>24</v>
       </c>
-      <c r="I32" s="294">
+      <c r="I32" s="293">
         <v>2</v>
       </c>
-      <c r="J32" s="294">
+      <c r="J32" s="293">
         <v>7100</v>
       </c>
-      <c r="K32" s="294"/>
-      <c r="L32" s="294">
+      <c r="K32" s="293"/>
+      <c r="L32" s="293">
         <v>2</v>
       </c>
-      <c r="M32" s="294">
+      <c r="M32" s="293">
         <f t="shared" si="0"/>
         <v>14200</v>
       </c>
@@ -13124,28 +13206,28 @@
         <v>28</v>
       </c>
       <c r="C33" s="53"/>
-      <c r="D33" s="311" t="s">
-        <v>349</v>
-      </c>
-      <c r="E33" s="311"/>
-      <c r="F33" s="311"/>
+      <c r="D33" s="310" t="s">
+        <v>348</v>
+      </c>
+      <c r="E33" s="310"/>
+      <c r="F33" s="310"/>
       <c r="G33" s="22">
         <v>1</v>
       </c>
       <c r="H33" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="I33" s="294">
-        <v>1</v>
-      </c>
-      <c r="J33" s="294">
+      <c r="I33" s="293">
+        <v>1</v>
+      </c>
+      <c r="J33" s="293">
         <v>11090</v>
       </c>
-      <c r="K33" s="294"/>
-      <c r="L33" s="294">
+      <c r="K33" s="293"/>
+      <c r="L33" s="293">
         <v>2</v>
       </c>
-      <c r="M33" s="294">
+      <c r="M33" s="293">
         <f t="shared" si="0"/>
         <v>22180</v>
       </c>
@@ -13158,32 +13240,32 @@
       </c>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B34" s="303" t="s">
+      <c r="B34" s="302" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="304"/>
-      <c r="D34" s="311" t="s">
-        <v>349</v>
-      </c>
-      <c r="E34" s="311"/>
-      <c r="F34" s="311"/>
-      <c r="G34" s="301">
-        <v>1</v>
-      </c>
-      <c r="H34" s="302" t="s">
+      <c r="C34" s="303"/>
+      <c r="D34" s="310" t="s">
+        <v>348</v>
+      </c>
+      <c r="E34" s="310"/>
+      <c r="F34" s="310"/>
+      <c r="G34" s="300">
+        <v>1</v>
+      </c>
+      <c r="H34" s="301" t="s">
         <v>24</v>
       </c>
-      <c r="I34" s="294">
+      <c r="I34" s="293">
         <v>2</v>
       </c>
-      <c r="J34" s="294">
+      <c r="J34" s="293">
         <v>13200</v>
       </c>
-      <c r="K34" s="294"/>
-      <c r="L34" s="294">
+      <c r="K34" s="293"/>
+      <c r="L34" s="293">
         <v>4</v>
       </c>
-      <c r="M34" s="294">
+      <c r="M34" s="293">
         <f t="shared" si="0"/>
         <v>52800</v>
       </c>
@@ -13196,34 +13278,34 @@
       </c>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B35" s="299" t="s">
+      <c r="B35" s="298" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="300"/>
-      <c r="D35" s="311" t="s">
-        <v>349</v>
-      </c>
-      <c r="E35" s="311"/>
+      <c r="C35" s="299"/>
+      <c r="D35" s="310" t="s">
+        <v>348</v>
+      </c>
+      <c r="E35" s="310"/>
       <c r="F35" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="G35" s="301">
-        <v>1</v>
-      </c>
-      <c r="H35" s="302" t="s">
+      <c r="G35" s="300">
+        <v>1</v>
+      </c>
+      <c r="H35" s="301" t="s">
         <v>22</v>
       </c>
-      <c r="I35" s="294">
+      <c r="I35" s="293">
         <v>100</v>
       </c>
-      <c r="J35" s="294">
+      <c r="J35" s="293">
         <v>130</v>
       </c>
-      <c r="K35" s="294"/>
-      <c r="L35" s="294">
+      <c r="K35" s="293"/>
+      <c r="L35" s="293">
         <v>100</v>
       </c>
-      <c r="M35" s="294">
+      <c r="M35" s="293">
         <f t="shared" si="0"/>
         <v>13000</v>
       </c>
@@ -13239,31 +13321,31 @@
       <c r="B36" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="305"/>
-      <c r="D36" s="311" t="s">
-        <v>349</v>
-      </c>
-      <c r="E36" s="311"/>
+      <c r="C36" s="304"/>
+      <c r="D36" s="310" t="s">
+        <v>348</v>
+      </c>
+      <c r="E36" s="310"/>
       <c r="F36" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="G36" s="301">
+      <c r="G36" s="300">
         <v>1</v>
       </c>
       <c r="H36" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="I36" s="294">
+      <c r="I36" s="293">
         <v>5</v>
       </c>
-      <c r="J36" s="294">
+      <c r="J36" s="293">
         <v>210</v>
       </c>
-      <c r="K36" s="294"/>
-      <c r="L36" s="294">
+      <c r="K36" s="293"/>
+      <c r="L36" s="293">
         <v>30</v>
       </c>
-      <c r="M36" s="294">
+      <c r="M36" s="293">
         <f t="shared" si="0"/>
         <v>6300</v>
       </c>
@@ -13279,35 +13361,35 @@
       <c r="B37" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="305"/>
-      <c r="D37" s="311" t="s">
-        <v>349</v>
-      </c>
-      <c r="E37" s="311"/>
+      <c r="C37" s="304"/>
+      <c r="D37" s="310" t="s">
+        <v>348</v>
+      </c>
+      <c r="E37" s="310"/>
       <c r="F37" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="G37" s="301">
+      <c r="G37" s="300">
         <v>4</v>
       </c>
       <c r="H37" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="I37" s="294">
+      <c r="I37" s="293">
         <v>100</v>
       </c>
-      <c r="J37" s="294">
+      <c r="J37" s="293">
         <v>20</v>
       </c>
-      <c r="K37" s="294"/>
-      <c r="L37" s="329">
+      <c r="K37" s="293"/>
+      <c r="L37" s="328">
         <v>200</v>
       </c>
-      <c r="M37" s="294">
+      <c r="M37" s="293">
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="N37" s="319" t="s">
+      <c r="N37" s="318" t="s">
         <v>41</v>
       </c>
       <c r="O37" s="34" t="s">
@@ -13318,114 +13400,114 @@
       </c>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B38" s="296" t="s">
-        <v>191</v>
-      </c>
-      <c r="C38" s="298"/>
-      <c r="D38" s="311" t="s">
-        <v>349</v>
-      </c>
-      <c r="E38" s="311"/>
+      <c r="B38" s="295" t="s">
+        <v>190</v>
+      </c>
+      <c r="C38" s="297"/>
+      <c r="D38" s="310" t="s">
+        <v>348</v>
+      </c>
+      <c r="E38" s="310"/>
       <c r="F38" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="G38" s="298">
+      <c r="G38" s="297">
         <v>1</v>
       </c>
       <c r="H38" s="58" t="s">
-        <v>192</v>
-      </c>
-      <c r="I38" s="330">
+        <v>191</v>
+      </c>
+      <c r="I38" s="329">
         <v>10</v>
       </c>
-      <c r="J38" s="330">
+      <c r="J38" s="329">
         <v>230</v>
       </c>
-      <c r="K38" s="330">
+      <c r="K38" s="329">
         <v>230</v>
       </c>
-      <c r="L38" s="330">
+      <c r="L38" s="329">
         <v>20</v>
       </c>
-      <c r="M38" s="294"/>
+      <c r="M38" s="293"/>
       <c r="N38" s="34"/>
       <c r="O38" s="58" t="s">
+        <v>192</v>
+      </c>
+      <c r="P38" s="39"/>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B39" s="295" t="s">
         <v>193</v>
       </c>
-      <c r="P38" s="39"/>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B39" s="296" t="s">
-        <v>194</v>
-      </c>
       <c r="C39" s="58"/>
-      <c r="D39" s="311" t="s">
-        <v>349</v>
-      </c>
-      <c r="E39" s="311"/>
+      <c r="D39" s="310" t="s">
+        <v>348</v>
+      </c>
+      <c r="E39" s="310"/>
       <c r="F39" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="G39" s="298">
+      <c r="G39" s="297">
         <v>8</v>
       </c>
       <c r="H39" s="58" t="s">
-        <v>196</v>
-      </c>
-      <c r="I39" s="330">
+        <v>195</v>
+      </c>
+      <c r="I39" s="329">
         <v>300</v>
       </c>
-      <c r="J39" s="330">
+      <c r="J39" s="329">
         <v>130</v>
       </c>
-      <c r="K39" s="330">
+      <c r="K39" s="329">
         <v>130</v>
       </c>
-      <c r="L39" s="330">
+      <c r="L39" s="329">
         <v>300</v>
       </c>
-      <c r="M39" s="294"/>
+      <c r="M39" s="293"/>
       <c r="N39" s="34"/>
       <c r="O39" s="58" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P39" s="39"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B40" s="316" t="s">
+      <c r="B40" s="315" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="317"/>
-      <c r="D40" s="311" t="s">
-        <v>349</v>
-      </c>
-      <c r="E40" s="311"/>
+      <c r="C40" s="316"/>
+      <c r="D40" s="310" t="s">
+        <v>348</v>
+      </c>
+      <c r="E40" s="310"/>
       <c r="F40" s="58" t="s">
-        <v>201</v>
-      </c>
-      <c r="G40" s="298">
+        <v>200</v>
+      </c>
+      <c r="G40" s="297">
         <v>2</v>
       </c>
-      <c r="H40" s="318" t="s">
-        <v>345</v>
-      </c>
-      <c r="I40" s="330">
-        <v>1</v>
-      </c>
-      <c r="J40" s="330">
+      <c r="H40" s="317" t="s">
+        <v>344</v>
+      </c>
+      <c r="I40" s="329">
+        <v>1</v>
+      </c>
+      <c r="J40" s="329">
         <v>1020</v>
       </c>
-      <c r="K40" s="330">
+      <c r="K40" s="329">
         <f>J40*L40</f>
         <v>20400</v>
       </c>
-      <c r="L40" s="330">
+      <c r="L40" s="329">
         <v>20</v>
       </c>
-      <c r="M40" s="294"/>
+      <c r="M40" s="293"/>
       <c r="N40" s="34"/>
       <c r="O40" s="58" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P40" s="39" t="s">
         <v>9</v>
@@ -13433,40 +13515,40 @@
       <c r="Q40" s="1"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B41" s="296" t="s">
-        <v>202</v>
+      <c r="B41" s="295" t="s">
+        <v>201</v>
       </c>
       <c r="C41" s="58"/>
-      <c r="D41" s="311" t="s">
-        <v>349</v>
-      </c>
-      <c r="E41" s="311"/>
+      <c r="D41" s="310" t="s">
+        <v>348</v>
+      </c>
+      <c r="E41" s="310"/>
       <c r="F41" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="G41" s="298">
+      <c r="G41" s="297">
         <v>1</v>
       </c>
       <c r="H41" s="58" t="s">
-        <v>203</v>
-      </c>
-      <c r="I41" s="330">
+        <v>202</v>
+      </c>
+      <c r="I41" s="329">
         <v>100</v>
       </c>
-      <c r="J41" s="330">
+      <c r="J41" s="329">
         <v>130</v>
       </c>
-      <c r="K41" s="330">
+      <c r="K41" s="329">
         <f>J41*L41</f>
         <v>13000</v>
       </c>
-      <c r="L41" s="330">
+      <c r="L41" s="329">
         <v>100</v>
       </c>
-      <c r="M41" s="294"/>
+      <c r="M41" s="293"/>
       <c r="N41" s="34"/>
-      <c r="O41" s="320" t="s">
-        <v>287</v>
+      <c r="O41" s="319" t="s">
+        <v>286</v>
       </c>
       <c r="P41" s="39" t="s">
         <v>9</v>
@@ -13474,38 +13556,38 @@
       <c r="Q41" s="1"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B42" s="293" t="s">
+      <c r="B42" s="292" t="s">
         <v>65</v>
       </c>
-      <c r="C42" s="321"/>
-      <c r="D42" s="311" t="s">
-        <v>349</v>
-      </c>
-      <c r="E42" s="311"/>
+      <c r="C42" s="320"/>
+      <c r="D42" s="310" t="s">
+        <v>348</v>
+      </c>
+      <c r="E42" s="310"/>
       <c r="F42" s="234" t="s">
         <v>64</v>
       </c>
-      <c r="G42" s="321">
+      <c r="G42" s="320">
         <v>1</v>
       </c>
       <c r="H42" s="234" t="s">
         <v>66</v>
       </c>
-      <c r="I42" s="335">
+      <c r="I42" s="334">
         <v>50</v>
       </c>
-      <c r="J42" s="335">
+      <c r="J42" s="334">
         <v>210</v>
       </c>
-      <c r="K42" s="335">
+      <c r="K42" s="334">
         <v>10500</v>
       </c>
-      <c r="L42" s="335">
+      <c r="L42" s="334">
         <v>50</v>
       </c>
-      <c r="M42" s="294"/>
+      <c r="M42" s="293"/>
       <c r="N42" s="34"/>
-      <c r="O42" s="315" t="s">
+      <c r="O42" s="314" t="s">
         <v>67</v>
       </c>
       <c r="P42" s="39" t="s">
@@ -13514,38 +13596,38 @@
       <c r="Q42" s="1"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B43" s="293" t="s">
+      <c r="B43" s="292" t="s">
         <v>68</v>
       </c>
-      <c r="C43" s="321"/>
-      <c r="D43" s="311" t="s">
-        <v>349</v>
-      </c>
-      <c r="E43" s="311"/>
+      <c r="C43" s="320"/>
+      <c r="D43" s="310" t="s">
+        <v>348</v>
+      </c>
+      <c r="E43" s="310"/>
       <c r="F43" s="234" t="s">
         <v>64</v>
       </c>
-      <c r="G43" s="321">
+      <c r="G43" s="320">
         <v>1</v>
       </c>
       <c r="H43" s="234" t="s">
         <v>69</v>
       </c>
-      <c r="I43" s="335">
+      <c r="I43" s="334">
         <v>10</v>
       </c>
-      <c r="J43" s="335">
+      <c r="J43" s="334">
         <v>210</v>
       </c>
-      <c r="K43" s="335">
+      <c r="K43" s="334">
         <v>2100</v>
       </c>
-      <c r="L43" s="335">
+      <c r="L43" s="334">
         <v>10</v>
       </c>
-      <c r="M43" s="294"/>
+      <c r="M43" s="293"/>
       <c r="N43" s="34"/>
-      <c r="O43" s="315" t="s">
+      <c r="O43" s="314" t="s">
         <v>70</v>
       </c>
       <c r="P43" s="39" t="s">
@@ -13554,36 +13636,36 @@
       <c r="Q43" s="1"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B44" s="293" t="s">
+      <c r="B44" s="292" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="321"/>
-      <c r="D44" s="311" t="s">
-        <v>349</v>
-      </c>
-      <c r="E44" s="311"/>
+      <c r="C44" s="320"/>
+      <c r="D44" s="310" t="s">
+        <v>348</v>
+      </c>
+      <c r="E44" s="310"/>
       <c r="F44" s="234"/>
-      <c r="G44" s="321">
+      <c r="G44" s="320">
         <v>2</v>
       </c>
       <c r="H44" s="234" t="s">
         <v>72</v>
       </c>
-      <c r="I44" s="335">
+      <c r="I44" s="334">
         <v>100</v>
       </c>
-      <c r="J44" s="335">
+      <c r="J44" s="334">
         <v>80</v>
       </c>
-      <c r="K44" s="335">
+      <c r="K44" s="334">
         <v>4000</v>
       </c>
-      <c r="L44" s="335">
+      <c r="L44" s="334">
         <v>100</v>
       </c>
-      <c r="M44" s="294"/>
+      <c r="M44" s="293"/>
       <c r="N44" s="34"/>
-      <c r="O44" s="315" t="s">
+      <c r="O44" s="314" t="s">
         <v>73</v>
       </c>
       <c r="P44" s="39" t="s">
@@ -13592,37 +13674,37 @@
       <c r="Q44" s="1"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B45" s="392" t="s">
-        <v>390</v>
+      <c r="B45" s="391" t="s">
+        <v>389</v>
       </c>
       <c r="C45" s="234"/>
-      <c r="D45" s="311" t="s">
-        <v>349</v>
-      </c>
-      <c r="E45" s="311"/>
+      <c r="D45" s="310" t="s">
+        <v>348</v>
+      </c>
+      <c r="E45" s="310"/>
       <c r="F45" s="234" t="s">
         <v>76</v>
       </c>
-      <c r="G45" s="321">
+      <c r="G45" s="320">
         <v>1</v>
       </c>
       <c r="H45" s="234" t="s">
         <v>77</v>
       </c>
-      <c r="I45" s="335"/>
-      <c r="J45" s="335">
+      <c r="I45" s="334"/>
+      <c r="J45" s="334">
         <v>270</v>
       </c>
-      <c r="K45" s="335">
+      <c r="K45" s="334">
         <v>0</v>
       </c>
-      <c r="L45" s="335">
+      <c r="L45" s="334">
         <v>20</v>
       </c>
-      <c r="M45" s="294"/>
+      <c r="M45" s="293"/>
       <c r="N45" s="34"/>
-      <c r="O45" s="391" t="s">
-        <v>389</v>
+      <c r="O45" s="390" t="s">
+        <v>388</v>
       </c>
       <c r="P45" s="39" t="s">
         <v>9</v>
@@ -13630,39 +13712,39 @@
       <c r="Q45" s="1"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B46" s="293" t="s">
+      <c r="B46" s="292" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="234"/>
+      <c r="D46" s="310" t="s">
+        <v>348</v>
+      </c>
+      <c r="E46" s="310"/>
+      <c r="F46" s="234" t="s">
         <v>79</v>
       </c>
-      <c r="C46" s="234"/>
-      <c r="D46" s="311" t="s">
-        <v>349</v>
-      </c>
-      <c r="E46" s="311"/>
-      <c r="F46" s="234" t="s">
+      <c r="G46" s="320">
+        <v>1</v>
+      </c>
+      <c r="H46" s="234" t="s">
+        <v>78</v>
+      </c>
+      <c r="I46" s="334">
+        <v>10</v>
+      </c>
+      <c r="J46" s="334">
+        <v>200</v>
+      </c>
+      <c r="K46" s="334">
+        <v>2000</v>
+      </c>
+      <c r="L46" s="334">
+        <v>10</v>
+      </c>
+      <c r="M46" s="293"/>
+      <c r="N46" s="34"/>
+      <c r="O46" s="314" t="s">
         <v>80</v>
-      </c>
-      <c r="G46" s="321">
-        <v>1</v>
-      </c>
-      <c r="H46" s="234" t="s">
-        <v>79</v>
-      </c>
-      <c r="I46" s="335">
-        <v>10</v>
-      </c>
-      <c r="J46" s="335">
-        <v>200</v>
-      </c>
-      <c r="K46" s="335">
-        <v>2000</v>
-      </c>
-      <c r="L46" s="335">
-        <v>10</v>
-      </c>
-      <c r="M46" s="294"/>
-      <c r="N46" s="34"/>
-      <c r="O46" s="315" t="s">
-        <v>81</v>
       </c>
       <c r="P46" s="39" t="s">
         <v>9</v>
@@ -13670,39 +13752,39 @@
       <c r="Q46" s="1"/>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B47" s="293" t="s">
+      <c r="B47" s="292" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" s="234"/>
+      <c r="D47" s="310" t="s">
+        <v>348</v>
+      </c>
+      <c r="E47" s="310"/>
+      <c r="F47" s="234" t="s">
+        <v>79</v>
+      </c>
+      <c r="G47" s="320">
+        <v>1</v>
+      </c>
+      <c r="H47" s="234" t="s">
+        <v>81</v>
+      </c>
+      <c r="I47" s="334">
+        <v>10</v>
+      </c>
+      <c r="J47" s="334">
+        <v>200</v>
+      </c>
+      <c r="K47" s="334">
+        <v>2000</v>
+      </c>
+      <c r="L47" s="334">
+        <v>10</v>
+      </c>
+      <c r="M47" s="293"/>
+      <c r="N47" s="34"/>
+      <c r="O47" s="314" t="s">
         <v>82</v>
-      </c>
-      <c r="C47" s="234"/>
-      <c r="D47" s="311" t="s">
-        <v>349</v>
-      </c>
-      <c r="E47" s="311"/>
-      <c r="F47" s="234" t="s">
-        <v>80</v>
-      </c>
-      <c r="G47" s="321">
-        <v>1</v>
-      </c>
-      <c r="H47" s="234" t="s">
-        <v>82</v>
-      </c>
-      <c r="I47" s="335">
-        <v>10</v>
-      </c>
-      <c r="J47" s="335">
-        <v>200</v>
-      </c>
-      <c r="K47" s="335">
-        <v>2000</v>
-      </c>
-      <c r="L47" s="335">
-        <v>10</v>
-      </c>
-      <c r="M47" s="294"/>
-      <c r="N47" s="34"/>
-      <c r="O47" s="315" t="s">
-        <v>83</v>
       </c>
       <c r="P47" s="39" t="s">
         <v>9</v>
@@ -13710,40 +13792,40 @@
       <c r="Q47" s="1"/>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B48" s="322" t="s">
-        <v>325</v>
-      </c>
-      <c r="C48" s="323"/>
-      <c r="D48" s="323"/>
-      <c r="E48" s="311" t="s">
-        <v>349</v>
-      </c>
-      <c r="F48" s="323" t="s">
+      <c r="B48" s="321" t="s">
+        <v>324</v>
+      </c>
+      <c r="C48" s="322"/>
+      <c r="D48" s="322"/>
+      <c r="E48" s="310" t="s">
+        <v>348</v>
+      </c>
+      <c r="F48" s="322" t="s">
         <v>64</v>
       </c>
-      <c r="G48" s="339">
-        <v>1</v>
-      </c>
-      <c r="H48" s="323" t="s">
-        <v>333</v>
-      </c>
-      <c r="I48" s="336">
+      <c r="G48" s="338">
+        <v>1</v>
+      </c>
+      <c r="H48" s="322" t="s">
+        <v>332</v>
+      </c>
+      <c r="I48" s="335">
         <v>100</v>
       </c>
-      <c r="J48" s="336">
+      <c r="J48" s="335">
         <v>50</v>
       </c>
-      <c r="K48" s="294"/>
-      <c r="L48" s="336">
+      <c r="K48" s="293"/>
+      <c r="L48" s="335">
         <v>100</v>
       </c>
-      <c r="M48" s="294">
+      <c r="M48" s="293">
         <f t="shared" ref="M48:M53" si="1">J48*L48</f>
         <v>5000</v>
       </c>
       <c r="N48" s="34"/>
-      <c r="O48" s="324" t="s">
-        <v>339</v>
+      <c r="O48" s="323" t="s">
+        <v>338</v>
       </c>
       <c r="P48" s="39" t="s">
         <v>9</v>
@@ -13751,40 +13833,40 @@
       <c r="R48" s="1"/>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B49" s="322" t="s">
-        <v>331</v>
-      </c>
-      <c r="C49" s="323"/>
-      <c r="D49" s="323"/>
-      <c r="E49" s="311" t="s">
-        <v>349</v>
-      </c>
-      <c r="F49" s="323" t="s">
+      <c r="B49" s="321" t="s">
         <v>330</v>
       </c>
-      <c r="G49" s="339">
-        <v>1</v>
-      </c>
-      <c r="H49" s="323" t="s">
-        <v>337</v>
-      </c>
-      <c r="I49" s="336">
-        <v>1</v>
-      </c>
-      <c r="J49" s="336">
+      <c r="C49" s="322"/>
+      <c r="D49" s="322"/>
+      <c r="E49" s="310" t="s">
+        <v>348</v>
+      </c>
+      <c r="F49" s="322" t="s">
+        <v>329</v>
+      </c>
+      <c r="G49" s="338">
+        <v>1</v>
+      </c>
+      <c r="H49" s="322" t="s">
+        <v>336</v>
+      </c>
+      <c r="I49" s="335">
+        <v>1</v>
+      </c>
+      <c r="J49" s="335">
         <v>430</v>
       </c>
-      <c r="K49" s="294"/>
-      <c r="L49" s="336">
+      <c r="K49" s="293"/>
+      <c r="L49" s="335">
         <v>10</v>
       </c>
-      <c r="M49" s="294">
+      <c r="M49" s="293">
         <f t="shared" si="1"/>
         <v>4300</v>
       </c>
       <c r="N49" s="34"/>
-      <c r="O49" s="324" t="s">
-        <v>343</v>
+      <c r="O49" s="323" t="s">
+        <v>342</v>
       </c>
       <c r="P49" s="39" t="s">
         <v>9</v>
@@ -13792,40 +13874,40 @@
       <c r="R49" s="1"/>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B50" s="322" t="s">
+      <c r="B50" s="321" t="s">
+        <v>328</v>
+      </c>
+      <c r="C50" s="322"/>
+      <c r="D50" s="322"/>
+      <c r="E50" s="310" t="s">
+        <v>348</v>
+      </c>
+      <c r="F50" s="322" t="s">
         <v>329</v>
       </c>
-      <c r="C50" s="323"/>
-      <c r="D50" s="323"/>
-      <c r="E50" s="311" t="s">
-        <v>349</v>
-      </c>
-      <c r="F50" s="323" t="s">
-        <v>330</v>
-      </c>
-      <c r="G50" s="339">
-        <v>1</v>
-      </c>
-      <c r="H50" s="323" t="s">
-        <v>336</v>
-      </c>
-      <c r="I50" s="336">
-        <v>1</v>
-      </c>
-      <c r="J50" s="336">
+      <c r="G50" s="338">
+        <v>1</v>
+      </c>
+      <c r="H50" s="322" t="s">
+        <v>335</v>
+      </c>
+      <c r="I50" s="335">
+        <v>1</v>
+      </c>
+      <c r="J50" s="335">
         <v>430</v>
       </c>
-      <c r="K50" s="294"/>
-      <c r="L50" s="336">
+      <c r="K50" s="293"/>
+      <c r="L50" s="335">
         <v>10</v>
       </c>
-      <c r="M50" s="294">
+      <c r="M50" s="293">
         <f t="shared" si="1"/>
         <v>4300</v>
       </c>
       <c r="N50" s="34"/>
-      <c r="O50" s="324" t="s">
-        <v>342</v>
+      <c r="O50" s="323" t="s">
+        <v>341</v>
       </c>
       <c r="P50" s="39" t="s">
         <v>9</v>
@@ -13833,40 +13915,40 @@
       <c r="R50" s="1"/>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B51" s="322" t="s">
-        <v>326</v>
-      </c>
-      <c r="C51" s="323"/>
-      <c r="D51" s="323"/>
-      <c r="E51" s="311" t="s">
-        <v>349</v>
-      </c>
-      <c r="F51" s="323" t="s">
-        <v>324</v>
-      </c>
-      <c r="G51" s="339">
+      <c r="B51" s="321" t="s">
+        <v>325</v>
+      </c>
+      <c r="C51" s="322"/>
+      <c r="D51" s="322"/>
+      <c r="E51" s="310" t="s">
+        <v>348</v>
+      </c>
+      <c r="F51" s="322" t="s">
+        <v>323</v>
+      </c>
+      <c r="G51" s="338">
         <v>2</v>
       </c>
-      <c r="H51" s="323" t="s">
-        <v>334</v>
-      </c>
-      <c r="I51" s="336">
-        <v>1</v>
-      </c>
-      <c r="J51" s="336">
+      <c r="H51" s="322" t="s">
+        <v>333</v>
+      </c>
+      <c r="I51" s="335">
+        <v>1</v>
+      </c>
+      <c r="J51" s="335">
         <v>290</v>
       </c>
-      <c r="K51" s="294"/>
-      <c r="L51" s="336">
+      <c r="K51" s="293"/>
+      <c r="L51" s="335">
         <v>20</v>
       </c>
-      <c r="M51" s="294">
+      <c r="M51" s="293">
         <f t="shared" si="1"/>
         <v>5800</v>
       </c>
       <c r="N51" s="34"/>
-      <c r="O51" s="324" t="s">
-        <v>340</v>
+      <c r="O51" s="323" t="s">
+        <v>339</v>
       </c>
       <c r="P51" s="39" t="s">
         <v>9</v>
@@ -13874,40 +13956,40 @@
       <c r="R51" s="1"/>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B52" s="322" t="s">
+      <c r="B52" s="321" t="s">
+        <v>322</v>
+      </c>
+      <c r="C52" s="322"/>
+      <c r="D52" s="322"/>
+      <c r="E52" s="310" t="s">
+        <v>348</v>
+      </c>
+      <c r="F52" s="322" t="s">
         <v>323</v>
       </c>
-      <c r="C52" s="323"/>
-      <c r="D52" s="323"/>
-      <c r="E52" s="311" t="s">
-        <v>349</v>
-      </c>
-      <c r="F52" s="323" t="s">
-        <v>324</v>
-      </c>
-      <c r="G52" s="339">
-        <v>1</v>
-      </c>
-      <c r="H52" s="323" t="s">
-        <v>332</v>
-      </c>
-      <c r="I52" s="336">
-        <v>1</v>
-      </c>
-      <c r="J52" s="336">
+      <c r="G52" s="338">
+        <v>1</v>
+      </c>
+      <c r="H52" s="322" t="s">
+        <v>331</v>
+      </c>
+      <c r="I52" s="335">
+        <v>1</v>
+      </c>
+      <c r="J52" s="335">
         <v>30</v>
       </c>
-      <c r="K52" s="294"/>
-      <c r="L52" s="336">
+      <c r="K52" s="293"/>
+      <c r="L52" s="335">
         <v>10</v>
       </c>
-      <c r="M52" s="294">
+      <c r="M52" s="293">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="N52" s="34"/>
-      <c r="O52" s="324" t="s">
-        <v>338</v>
+      <c r="O52" s="323" t="s">
+        <v>337</v>
       </c>
       <c r="P52" s="39" t="s">
         <v>9</v>
@@ -13915,40 +13997,40 @@
       <c r="R52" s="1"/>
     </row>
     <row r="53" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="325" t="s">
+      <c r="B53" s="324" t="s">
+        <v>326</v>
+      </c>
+      <c r="C53" s="325"/>
+      <c r="D53" s="325"/>
+      <c r="E53" s="326" t="s">
+        <v>348</v>
+      </c>
+      <c r="F53" s="325" t="s">
         <v>327</v>
       </c>
-      <c r="C53" s="326"/>
-      <c r="D53" s="326"/>
-      <c r="E53" s="327" t="s">
-        <v>349</v>
-      </c>
-      <c r="F53" s="326" t="s">
-        <v>328</v>
-      </c>
-      <c r="G53" s="340">
-        <v>1</v>
-      </c>
-      <c r="H53" s="326" t="s">
-        <v>335</v>
-      </c>
-      <c r="I53" s="337">
+      <c r="G53" s="339">
+        <v>1</v>
+      </c>
+      <c r="H53" s="325" t="s">
+        <v>334</v>
+      </c>
+      <c r="I53" s="336">
         <v>10</v>
       </c>
-      <c r="J53" s="337">
+      <c r="J53" s="336">
         <v>100</v>
       </c>
-      <c r="K53" s="338"/>
-      <c r="L53" s="337">
+      <c r="K53" s="337"/>
+      <c r="L53" s="336">
         <v>10</v>
       </c>
-      <c r="M53" s="338">
+      <c r="M53" s="337">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
       <c r="N53" s="36"/>
-      <c r="O53" s="328" t="s">
-        <v>341</v>
+      <c r="O53" s="327" t="s">
+        <v>340</v>
       </c>
       <c r="P53" s="8" t="s">
         <v>9</v>
@@ -13961,7 +14043,7 @@
       <c r="D54" s="55"/>
       <c r="E54" s="55"/>
       <c r="F54" s="55"/>
-      <c r="G54" s="341"/>
+      <c r="G54" s="340"/>
       <c r="H54" s="55"/>
       <c r="I54" s="55"/>
       <c r="J54" s="55"/>
@@ -13978,7 +14060,7 @@
       <c r="D55" s="55"/>
       <c r="E55" s="55"/>
       <c r="F55" s="55"/>
-      <c r="G55" s="341"/>
+      <c r="G55" s="340"/>
       <c r="H55" s="55"/>
       <c r="I55" s="55"/>
       <c r="J55" s="55"/>

--- a/Femto Project 비용 List.xlsx
+++ b/Femto Project 비용 List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3735" yWindow="1890" windowWidth="28800" windowHeight="12060" activeTab="5"/>
+    <workbookView xWindow="3735" yWindow="1890" windowWidth="28800" windowHeight="12060"/>
   </bookViews>
   <sheets>
     <sheet name="전체 비용 List" sheetId="9" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="485">
   <si>
     <t>Vendor</t>
   </si>
@@ -52,22 +52,22 @@
   </si>
   <si>
     <t>재고</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>상품코드</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>ICbanQ</t>
   </si>
   <si>
     <t>ICbanQ</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P002101847 </t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>NTD5802N</t>
@@ -77,11 +77,11 @@
   </si>
   <si>
     <t>53398-0471</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>50058-8000</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>CRIMP TERMINAL 51021용 (1.25mm) AWG 28,30,32</t>
@@ -94,11 +94,11 @@
   </si>
   <si>
     <t>51021-0400</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>구매수량</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>1.25mm 4-Pin Housing, Female</t>
@@ -114,90 +114,90 @@
   </si>
   <si>
     <t>Total</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>P000740132</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>P005634281</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>CTX210609-R</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>TRANSFORMER CCFL 6W 13V 11MA SMD Turn-R:100</t>
   </si>
   <si>
     <t>CTX210605-R</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>P002058985</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>P005831162</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>P002058197</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P007073878 </t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>부가세</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>부품 Total</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>P007567011</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>NVMFS5C450NL</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>CAP TANT 220UF 16V 10% 2917</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>P008221708</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>장보고 재고 있음</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>2/5일 구매</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>T491D227K016AT</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>재고 없음</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P007223445 </t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>2/8일 구매</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -225,19 +225,19 @@
       </rPr>
       <t>-R</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>B180212004001</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>주문번호</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>2/12일 구매</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>BZT52C5V1S</t>
@@ -337,67 +337,67 @@
   </si>
   <si>
     <t>Pipette Main</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>작업기간</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Month</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Day[20/Month]</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Hour[3/Day]</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>시급</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>가중치</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>LF Gen MCU</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>LF Control MCU</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Cost</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>1차 작업</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Item</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>2차 작업</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Hour[3.5/Day]</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>H/W</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>M/E</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Set 수량</t>
@@ -407,11 +407,11 @@
   </si>
   <si>
     <t>구매 Cost</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>ICBanQ 3/14</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>STPS120M</t>
@@ -424,7 +424,7 @@
   </si>
   <si>
     <t>P001539333</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>SMBJ12CA</t>
@@ -437,15 +437,15 @@
   </si>
   <si>
     <t>P004928252</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>P007475431</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>LF용 포함 구매</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>DC-011C_SMD</t>
@@ -455,7 +455,7 @@
   </si>
   <si>
     <t>P005658771</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>053048-0310</t>
@@ -465,7 +465,7 @@
   </si>
   <si>
     <t>P005634294</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>053048-0710</t>
@@ -475,7 +475,7 @@
   </si>
   <si>
     <t>P005634298</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>HI05-AG0272</t>
@@ -488,7 +488,7 @@
   </si>
   <si>
     <t>P005659337</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>F0603E2R50FSTR</t>
@@ -501,11 +501,11 @@
   </si>
   <si>
     <t>P001574681</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>1 point 삭제 예정</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MSS5131-153ML</t>
@@ -518,7 +518,7 @@
   </si>
   <si>
     <t xml:space="preserve">P002266417 </t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>LQM2HPZ2R2MG0</t>
@@ -531,7 +531,7 @@
   </si>
   <si>
     <t>P008172717</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>ASMT-YTD2-0BB02</t>
@@ -544,7 +544,7 @@
   </si>
   <si>
     <t>P000725384</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>17-21/W1D-ANPHY/3T</t>
@@ -557,7 +557,7 @@
   </si>
   <si>
     <t>P005609815</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>19-21/R6C-AP1Q2/3T</t>
@@ -567,7 +567,7 @@
   </si>
   <si>
     <t>P005609821</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>19-217/W1D-APQHY/3T</t>
@@ -577,11 +577,11 @@
   </si>
   <si>
     <t>P000098995</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>재품이 없어 고휘도 구매</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>19-213/G6C-AN1P2 /3T</t>
@@ -591,7 +591,7 @@
   </si>
   <si>
     <t>P005609818</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>CTT-1139P1</t>
@@ -604,11 +604,11 @@
   </si>
   <si>
     <t>P000092681</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>MOQ</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>SKRMABE010</t>
@@ -618,7 +618,7 @@
   </si>
   <si>
     <t xml:space="preserve">P001566090 </t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>STM32F070RBT6</t>
@@ -640,7 +640,7 @@
   </si>
   <si>
     <t>P000166190</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>LM2735XMF</t>
@@ -653,7 +653,7 @@
   </si>
   <si>
     <t>P006290287</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>LM3671MF-3.3</t>
@@ -663,7 +663,7 @@
   </si>
   <si>
     <t>P007302353</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>TPS3801L30</t>
@@ -673,79 +673,79 @@
   </si>
   <si>
     <t>P007092561</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>Pipette Main</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Battery 하네스</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>구매 Cost</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>ICBanQ 3/14</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>51021-0300</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>1.25mm Pitch Housing, Female, 3-Pin</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>P005634252</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>Transformer 하네스</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>51021-0700</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>1.25mm Pitch Housing, Female, 7-Pin</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>P005634256</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>50058 양단 1007 케이블</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>P005634320</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>50058 양단 케이블 L=100mm, Black</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>Date</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Item</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Comment</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Pipette과 overlap되는 LF MCU 부품 구매</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>ON Semiconductor</t>
@@ -758,478 +758,478 @@
   </si>
   <si>
     <t>구매수량</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Total</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>재고</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>주문번호</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>EX-936ESD</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> EXSO </t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>정전기 방지 온도조절형 인두, 소비전력:60W, 온도:220℃ ~ 480℃</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>P001909039</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">LedSol 3001 </t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>EXSO</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>디지털 무연인두기, 75W, 온도: 100~500℃</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>P007193509</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">LedSol-100 </t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>아날로그 무연인두기 , 24V 75W, 온도: 200~480℃</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>P007193511</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">LedSol-200 </t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>디지털 무연인두기, 24V 70W, 온도: 200~480℃</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>P007193512</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>FX-888D(70W)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>HAKKO</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>디지털 무연인두기, 26V 70W, 온도: 200~480℃</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>P005688453</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>FX-951</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>디지털 무연인두기, 24V 75W, 온도: 200~450℃</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>P005688454</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>T18-K</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>HAKKO</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>HAKKO FX-888(FX-8801) 전용 인두 칼팁</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>P002116124</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>T18-3.5K</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>T18-B</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>HAKKO FX-888(FX-8801) 전용 인두 팁</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P002116123 </t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>B3474</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Rubber Cleaner</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>A1561</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>HAKKO A1561 클리닝와이어</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>P004702618</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>A1559</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>HAKKO A1559 스폰지</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>P004704819</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>SPPON 18</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>HAKKO 18 SPPON DESOLDERING TOOL</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>P004702809</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>18N.18G</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>HAKKO SPPON NOZZLE</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>ic114</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>UL1007-AWG20</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>UL전선</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>극세선 난연성 전선(UL전선) / AWG20 / 길이(30M) (검정색)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P002329495 </t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>극세선 난연성 전선(UL전선) / AWG20 / 길이(30M) (빨강)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P002329190 </t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>칩저항 키트</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Any vender</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>1005 사이즈 F급(1%) 160종 칩저항 키트 - (100개들이)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>P001907055</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>JL-0232 적색</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Any vender</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">더블 바나나플러그 / 적색 </t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>P005658758</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>GHG630DCE</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> BOSCH </t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>열풍기(히터건) (GHG630DCE)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>P007320842</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>ST-LINK/V2</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>STMicroelectronics</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>ICD/PROGRAMMER, FOR STM8, STM32</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>P001648331</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>ENGINEER SL-04</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>ENGINEER SL-04 DESK-TOP LOUPE, 렌즈 직경 75mm, 배율 3X</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P004704041 </t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>8611L</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>8611L LED조명 확대경, 렌즈 직경 89mm, 배율 3X</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>P004704064</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>824-22-003-00-005000</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Mill-Max</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Mill-Max Pin &amp; Socket Connectors </t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>P008110102</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Transformer PCB</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>재고</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>ICBanQ 3/14</t>
   </si>
   <si>
     <t>P007567011</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>P005634282</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>재고 소진</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Pipette V1.0 부품 및 장비</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>실험실에서 사용할 장비 및 Pipette 관련 추가 부품</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>부자재</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>수삽</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>개인</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Point</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>단가</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>금액</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>소계</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>작업내용</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>수량</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>합계</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>이윤</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>SMD</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Metal mask</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Sample용 견적</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>부품비</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>LF Generator MCU Board</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">HIPPO 6구 접지 멀티탭 멀티탭 - 기본 1.5M </t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">HIPPO 6구 접지 멀티탭 멀티탭 - 3M </t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>HIPPO</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>KFT HT-5023 스트리퍼 (AWG20~30)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">KFT </t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>P001415029</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>페이스트 [135-0805]</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>P008012287</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>정전기매트 120cm*1M</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>P000119604</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P007311227 </t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>실험실 물품 구매</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>제이엘텍 - Sample build 견적</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>LF GEN MCU 부품 구매</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>HEADER_2.54mm_2x5</t>
@@ -1296,71 +1296,71 @@
   </si>
   <si>
     <t>Exso</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>40V, 2.8mOhm , 110A, Single N−Channel Power MOSFET</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>PCB Artwork</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Total</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Transformer</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>O</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Pipette Main</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>LF MCU</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>LF GEN MCU Layout 및 제작비</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>구매비용</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Pipette Proto-type 부품 구매</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Transformer V1.0 부품 구매</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>계약금액</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Touch Program</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Pipette</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Proto-type</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>V1.0</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Touch PC - New</t>
@@ -1373,163 +1373,163 @@
   </si>
   <si>
     <t>S/W 개발비</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Date</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Model</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Pipette</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Proto</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Version</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>수량</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>단가</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>작업 내용</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Layout</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>금액</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>제작</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>PCB</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Main</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Transformer</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>V1.0</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>LF</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Gen MCU</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Pipette Transformer Layout 및 제작비</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Pipette Proto-type Layout 및 제작비</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>H/W Layout 및 Manual Solder 비용</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Pipette Proto-type F/W 개발비</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Total</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>H/W 개발비</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>S/W 개발비</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>P004707690</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>NA645</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Pipette V1.0 / LF MCU 일부</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Pipette Main V1.0 PCB 제작</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">400mm x 235(217)mm x 295mm </t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>부품박스- CA507</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>서랍수</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>부품박스- CA508-8</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>330mm x 164(150)mm x 350mm</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>(주)중앙브레인</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>JTAG</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Pipette Main V1.0</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Pipette JTAG V1.0</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Pipette Transformer V2.0</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>V2.0</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>T491D227K016AT</t>
@@ -1542,26 +1542,26 @@
   </si>
   <si>
     <t>NVMFS5C450NL</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>40V, 2.8mOhm , 110A, Single N−Channel Power MOSFET</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>P007577314</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>P000146010</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>HEADER_2.54MM_2X5</t>
   </si>
   <si>
     <t xml:space="preserve">P005666489 </t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>USB-A-4P-FEMALE</t>
@@ -1574,111 +1574,111 @@
   </si>
   <si>
     <t>JTAG PCB</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Transformer V2.0</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>NETmate KW-825P USB2.0 to RS232 컨버터 with Power(FTDI)(1.8m) [GC68]</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>RS232 시리얼 1포트</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>KW Elec</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P007223445 </t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>P005022809</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>희성 실납 RS60 1.2mm 1Kg</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>유연(일반)납</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>희성</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>P004702730</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>마이크로 USB 케이블 Micro USB Cable - 48cm</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Micro USB Cable</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Seeedstudio</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>P006960669</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>FLUX REMOVER</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">PLASTIC SAFE 사이즈:1 L, 35.2 oz/Liquid </t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Mgchemicals</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>P006193651</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>VERMASON</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>P005758961</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>일반 용품</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>ALPHA UP-78</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>ALPHA UP-78 젤플럭스</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>P004703855</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>P008123032</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>P007112027</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>PMBT2222</t>
@@ -1691,7 +1691,7 @@
   </si>
   <si>
     <t>Pipette Main</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>10K</t>
@@ -1710,135 +1710,139 @@
   </si>
   <si>
     <t>CC1005-100nF50V(±10%/X7R)-(100개단위)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>CC1005-4.7uF10V(±20%/X5R)-(100개단위)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>4.7uF</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>LF GEN MCU</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>51021-02</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>클림프 하우징/Board To Wire 1.25mm/Female/상대물:53047/핀수 2P</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>50058 양단 케이블 L=100mm, Red</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>포밍테이블</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>1200x900 연체리 + 배송비 (7000원)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>11번가</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Pipette Main V1.0 PCB Layout</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Pipette Main V1.0 PCB Soldering</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Pipette JTAG V1.0 PCB Layout</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Pipette JTAG V1.0 PCB Soldering</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Pipette Transformer V2.0 PCB Soldering</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Pipette Transformer V2.0 PCB Layout</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>미지급</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Pipette Transformer/JTAG 부품 구입</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>필요 소모 용품도 같이 구매</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P007250454 </t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">P001909482 </t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>P008152676</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>P008152648</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>P005634320</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>P005627974</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>FLUX REMOVER PRINTED BOTTLE, 180ML, BLUE - 뚜껑 없음</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>FLUX REMOVER PRINTED BOTTLE, 180ML, BLUE - 뚜껑 있음</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>P001890797</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>DESCO</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>뚜껑이 없이 배송됨 - 35283으로 교환</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>P005634320</t>
-    <phoneticPr fontId="35" type="noConversion"/>
+    <phoneticPr fontId="36" type="noConversion"/>
   </si>
   <si>
     <t>P004707690</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Coms 컨넥터-DC파워 2.5Ø x 0.7(각형)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블 구입비</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1856,12 +1860,20 @@
     <numFmt numFmtId="181" formatCode="0.0\ &quot;ea&quot;"/>
     <numFmt numFmtId="182" formatCode="0.0\ &quot;일&quot;"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2943,283 +2955,283 @@
   </borders>
   <cellStyleXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3238,7 +3250,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="43" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3247,7 +3259,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="43" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3262,32 +3274,32 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="30" fillId="33" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="33" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="43" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="33" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="43" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="33" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="43" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="43" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="43" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="43" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="43" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="52" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="52" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3301,21 +3313,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="52" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="52" applyFill="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="41" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="41" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3328,26 +3340,26 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="16" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="16" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="17" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="17" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="17" xfId="43" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="17" xfId="43" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3360,13 +3372,13 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="43" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="43" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -3379,16 +3391,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="31" fillId="34" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="32" fillId="34" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="41" fontId="0" fillId="34" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="41" fontId="0" fillId="34" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -3435,34 +3447,34 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="41" fontId="0" fillId="34" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="41" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="30" fillId="33" borderId="24" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="33" borderId="24" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="69" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="33" borderId="11" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="69" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="33" borderId="11" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="12" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="12" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="69" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="69" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="69" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="69" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="69" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="69" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3484,60 +3496,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="75" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="75" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="75" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="75" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="75">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="75" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="75">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="75" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="75" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="33" borderId="23" xfId="75" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="75" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="33" borderId="23" xfId="75" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="33" borderId="24" xfId="75" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="33" borderId="24" xfId="75" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="33" borderId="33" xfId="75" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="33" borderId="33" xfId="75" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="33" borderId="23" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="33" borderId="23" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="75" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="75" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="75" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="75" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="75" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="75" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="27" xfId="76" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="75" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="75" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="75" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="75" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="75" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="75" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="26" xfId="76" applyFont="1" applyBorder="1">
@@ -3549,46 +3561,46 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="76" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="15" xfId="75" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="15" xfId="75" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="16" xfId="76" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="69" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="69" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="17" xfId="76" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="18" xfId="75" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="17" xfId="75" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="17" xfId="75" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="18" xfId="75" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="17" xfId="75" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="17" xfId="75" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="26" xfId="76" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="18" xfId="69" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="30" fillId="0" borderId="22" xfId="76" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" xfId="75" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="75" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="18" xfId="69" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="31" fillId="0" borderId="22" xfId="76" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" xfId="75" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="75" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3597,7 +3609,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3643,20 +3655,20 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="41" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="30" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="30" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -3672,122 +3684,122 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="33" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="33" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="33" borderId="23" xfId="77" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="33" borderId="23" xfId="77" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="33" borderId="24" xfId="77" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="33" borderId="24" xfId="77" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="77" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="77" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="77" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="77" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="77" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="37" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="30" fillId="33" borderId="10" xfId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="33" borderId="10" xfId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="33" borderId="11" xfId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="33" borderId="11" xfId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="78" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="78" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="78">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="78" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="78" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="78">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="37" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="78" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="78" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="78" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="78" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="78" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="33" borderId="24" xfId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="78" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="33" borderId="24" xfId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="78" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="78" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="78" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="14" xfId="79" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="78" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="78" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="14" xfId="79" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="78" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="78" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="78" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="17" xfId="79" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="78" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="78" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="78" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="17" xfId="79" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="78" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="78" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="78" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="20" xfId="79" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="20" xfId="79" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="78" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="78" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" xfId="79" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="78" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="14" xfId="79" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="78" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="17" xfId="79" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="78" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="78" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="78" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="20" xfId="79" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="20" xfId="79" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="78" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="78" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" xfId="79" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="78" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="14" xfId="79" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="78" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="17" xfId="79" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="78" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -3800,71 +3812,71 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="30" fillId="33" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="31" fillId="33" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="30" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="31" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="80" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="17" xfId="80" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="80" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="17" xfId="80" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="80" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="80" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="80" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="17" xfId="95" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="15" xfId="78" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="18" xfId="80" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="21" xfId="78" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="18" xfId="78" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="43" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="80" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="17" xfId="80" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="80" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="17" xfId="80" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="80" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="80" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="80" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="17" xfId="95" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="15" xfId="78" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="18" xfId="80" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="21" xfId="78" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="18" xfId="78" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="43" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3872,15 +3884,15 @@
     </xf>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="30" fillId="33" borderId="34" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="33" borderId="34" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="33" borderId="35" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="33" borderId="35" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="78" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="78" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3898,103 +3910,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="43" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="43" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="75" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="75" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="75" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="75" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="75" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="75" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="75" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="75" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="75" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="75" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="75" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="69" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="78" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="75" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="69" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="78" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="78" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="78" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="80" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="80" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="80" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="80" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="80" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="80" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="80" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="80" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="80" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="80" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" xfId="80" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="31" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" xfId="80" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="32" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4003,25 +4015,25 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="7" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="80" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4030,23 +4042,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="30" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="31" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="36" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -4058,72 +4070,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="36" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="30" fillId="36" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="31" fillId="36" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="30" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="31" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="30" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="31" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="32" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="31" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="32" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="32" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="30" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="30" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="30" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="31" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="30" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="31" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="30" fillId="33" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="31" fillId="33" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="30" fillId="33" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="31" fillId="33" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="31" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="32" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="78" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="78" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="35" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4131,19 +4143,19 @@
     </xf>
     <xf numFmtId="41" fontId="0" fillId="35" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="41" fontId="0" fillId="35" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="16" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="16" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="17" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="17" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="17" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="17" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="17" xfId="43" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="17" xfId="43" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="38" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4163,7 +4175,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="30" fillId="33" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="31" fillId="33" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4202,13 +4214,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="41" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1">
@@ -4224,7 +4236,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="80" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="80" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4240,7 +4252,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="69" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="69" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4262,95 +4274,95 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="15" xfId="78" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="78" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="30" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="31" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="30" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="31" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="30" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="31" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="30" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="31" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="15" xfId="78" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="78" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="96">
@@ -4753,8 +4765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4798,7 +4810,7 @@
       <c r="C5" s="200"/>
       <c r="D5" s="342">
         <f>SUM(D6:D28)</f>
-        <v>2054200</v>
+        <v>2111800</v>
       </c>
       <c r="E5" s="342">
         <f>SUM(E6:E28)</f>
@@ -5067,9 +5079,15 @@
       </c>
     </row>
     <row r="23" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="203"/>
-      <c r="C23" s="204"/>
-      <c r="D23" s="348"/>
+      <c r="B23" s="203">
+        <v>43236</v>
+      </c>
+      <c r="C23" s="204" t="s">
+        <v>484</v>
+      </c>
+      <c r="D23" s="393">
+        <v>57600</v>
+      </c>
       <c r="E23" s="348"/>
       <c r="F23" s="388"/>
       <c r="G23" s="370"/>
@@ -5115,7 +5133,7 @@
       <c r="G28" s="371"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -5339,29 +5357,29 @@
       </c>
     </row>
     <row r="9" spans="2:16" s="56" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="448" t="s">
+      <c r="C9" s="450" t="s">
         <v>296</v>
       </c>
-      <c r="D9" s="449"/>
-      <c r="E9" s="449"/>
+      <c r="D9" s="451"/>
+      <c r="E9" s="451"/>
       <c r="F9" s="264">
         <f>SUM(F6:F8)</f>
         <v>138411</v>
       </c>
-      <c r="H9" s="448" t="s">
+      <c r="H9" s="450" t="s">
         <v>296</v>
       </c>
-      <c r="I9" s="449"/>
-      <c r="J9" s="449"/>
+      <c r="I9" s="451"/>
+      <c r="J9" s="451"/>
       <c r="K9" s="264">
         <f>SUM(K6:K8)</f>
         <v>42250</v>
       </c>
-      <c r="M9" s="448" t="s">
+      <c r="M9" s="450" t="s">
         <v>296</v>
       </c>
-      <c r="N9" s="449"/>
-      <c r="O9" s="449"/>
+      <c r="N9" s="451"/>
+      <c r="O9" s="451"/>
       <c r="P9" s="264">
         <f>SUM(P6:P8)</f>
         <v>44750</v>
@@ -5502,37 +5520,37 @@
       </c>
     </row>
     <row r="14" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="448" t="s">
+      <c r="C14" s="450" t="s">
         <v>299</v>
       </c>
-      <c r="D14" s="449"/>
-      <c r="E14" s="469">
+      <c r="D14" s="451"/>
+      <c r="E14" s="471">
         <f>F12</f>
         <v>553644</v>
       </c>
-      <c r="F14" s="470"/>
-      <c r="H14" s="448" t="s">
+      <c r="F14" s="472"/>
+      <c r="H14" s="450" t="s">
         <v>299</v>
       </c>
-      <c r="I14" s="449"/>
-      <c r="J14" s="469">
+      <c r="I14" s="451"/>
+      <c r="J14" s="471">
         <f>K12</f>
         <v>169000</v>
       </c>
-      <c r="K14" s="470"/>
-      <c r="M14" s="448" t="s">
+      <c r="K14" s="472"/>
+      <c r="M14" s="450" t="s">
         <v>299</v>
       </c>
-      <c r="N14" s="449"/>
-      <c r="O14" s="469">
+      <c r="N14" s="451"/>
+      <c r="O14" s="471">
         <f>P12</f>
         <v>150000</v>
       </c>
-      <c r="P14" s="470"/>
+      <c r="P14" s="472"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C15" s="471"/>
-      <c r="D15" s="471"/>
+      <c r="C15" s="473"/>
+      <c r="D15" s="473"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
@@ -5656,11 +5674,11 @@
       </c>
     </row>
     <row r="22" spans="3:16" s="56" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="448" t="s">
+      <c r="C22" s="450" t="s">
         <v>296</v>
       </c>
-      <c r="D22" s="449"/>
-      <c r="E22" s="449"/>
+      <c r="D22" s="451"/>
+      <c r="E22" s="451"/>
       <c r="F22" s="264">
         <f>SUM(F19:F21)</f>
         <v>45292</v>
@@ -5683,11 +5701,11 @@
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
-      <c r="M23" s="448" t="s">
+      <c r="M23" s="450" t="s">
         <v>296</v>
       </c>
-      <c r="N23" s="449"/>
-      <c r="O23" s="449"/>
+      <c r="N23" s="451"/>
+      <c r="O23" s="451"/>
       <c r="P23" s="264">
         <f>SUM(P20:P22)</f>
         <v>18000</v>
@@ -5797,24 +5815,24 @@
       </c>
     </row>
     <row r="28" spans="3:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="448" t="s">
+      <c r="C28" s="450" t="s">
         <v>299</v>
       </c>
-      <c r="D28" s="449"/>
-      <c r="E28" s="469">
+      <c r="D28" s="451"/>
+      <c r="E28" s="471">
         <f>SUM(F25:F27)</f>
         <v>291168</v>
       </c>
-      <c r="F28" s="470"/>
-      <c r="M28" s="448" t="s">
+      <c r="F28" s="472"/>
+      <c r="M28" s="450" t="s">
         <v>299</v>
       </c>
-      <c r="N28" s="449"/>
-      <c r="O28" s="469">
+      <c r="N28" s="451"/>
+      <c r="O28" s="471">
         <f>P26</f>
         <v>90000</v>
       </c>
-      <c r="P28" s="470"/>
+      <c r="P28" s="472"/>
     </row>
     <row r="31" spans="3:16" x14ac:dyDescent="0.3">
       <c r="M31" s="56" t="s">
@@ -5892,11 +5910,11 @@
       </c>
     </row>
     <row r="37" spans="13:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M37" s="448" t="s">
+      <c r="M37" s="450" t="s">
         <v>296</v>
       </c>
-      <c r="N37" s="449"/>
-      <c r="O37" s="449"/>
+      <c r="N37" s="451"/>
+      <c r="O37" s="451"/>
       <c r="P37" s="264">
         <f>SUM(P34:P36)</f>
         <v>13500</v>
@@ -5953,29 +5971,18 @@
       </c>
     </row>
     <row r="42" spans="13:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M42" s="448" t="s">
+      <c r="M42" s="450" t="s">
         <v>299</v>
       </c>
-      <c r="N42" s="449"/>
-      <c r="O42" s="469">
+      <c r="N42" s="451"/>
+      <c r="O42" s="471">
         <f>P40</f>
         <v>13500</v>
       </c>
-      <c r="P42" s="470"/>
+      <c r="P42" s="472"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C22:E22"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="H9:J9"/>
@@ -5984,8 +5991,19 @@
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6619,7 +6637,7 @@
       <c r="N25" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6980,7 +6998,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -6991,7 +7009,7 @@
   <dimension ref="B2:R24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:I16"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7042,22 +7060,22 @@
       <c r="I4" s="261" t="s">
         <v>373</v>
       </c>
-      <c r="K4" s="450" t="s">
+      <c r="K4" s="452" t="s">
         <v>94</v>
       </c>
-      <c r="L4" s="444"/>
-      <c r="M4" s="452" t="s">
+      <c r="L4" s="446"/>
+      <c r="M4" s="454" t="s">
         <v>84</v>
       </c>
-      <c r="N4" s="452"/>
-      <c r="O4" s="452"/>
-      <c r="P4" s="444" t="s">
+      <c r="N4" s="454"/>
+      <c r="O4" s="454"/>
+      <c r="P4" s="446" t="s">
         <v>88</v>
       </c>
-      <c r="Q4" s="444" t="s">
+      <c r="Q4" s="446" t="s">
         <v>89</v>
       </c>
-      <c r="R4" s="446" t="s">
+      <c r="R4" s="448" t="s">
         <v>92</v>
       </c>
     </row>
@@ -7087,8 +7105,8 @@
         <f t="shared" ref="I5:I10" si="0">G5*H5</f>
         <v>750000</v>
       </c>
-      <c r="K5" s="451"/>
-      <c r="L5" s="445"/>
+      <c r="K5" s="453"/>
+      <c r="L5" s="447"/>
       <c r="M5" s="386" t="s">
         <v>85</v>
       </c>
@@ -7098,9 +7116,9 @@
       <c r="O5" s="386" t="s">
         <v>96</v>
       </c>
-      <c r="P5" s="445"/>
-      <c r="Q5" s="445"/>
-      <c r="R5" s="447"/>
+      <c r="P5" s="447"/>
+      <c r="Q5" s="447"/>
+      <c r="R5" s="449"/>
     </row>
     <row r="6" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="203">
@@ -7128,10 +7146,10 @@
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
-      <c r="K6" s="448" t="s">
+      <c r="K6" s="450" t="s">
         <v>97</v>
       </c>
-      <c r="L6" s="449"/>
+      <c r="L6" s="451"/>
       <c r="M6" s="141">
         <v>1</v>
       </c>
@@ -7513,7 +7531,7 @@
     <mergeCell ref="M4:O4"/>
     <mergeCell ref="P4:P5"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -7550,31 +7568,31 @@
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="450" t="s">
+      <c r="B3" s="452" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="444"/>
-      <c r="D3" s="452" t="s">
+      <c r="C3" s="446"/>
+      <c r="D3" s="454" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="452"/>
-      <c r="F3" s="452"/>
-      <c r="G3" s="444" t="s">
+      <c r="E3" s="454"/>
+      <c r="F3" s="454"/>
+      <c r="G3" s="446" t="s">
         <v>88</v>
       </c>
-      <c r="H3" s="444" t="s">
+      <c r="H3" s="446" t="s">
         <v>89</v>
       </c>
-      <c r="I3" s="465" t="s">
+      <c r="I3" s="464" t="s">
         <v>92</v>
       </c>
-      <c r="J3" s="463" t="s">
+      <c r="J3" s="462" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="4" spans="2:15" s="137" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="459"/>
-      <c r="C4" s="460"/>
+      <c r="B4" s="468"/>
+      <c r="C4" s="466"/>
       <c r="D4" s="385" t="s">
         <v>85</v>
       </c>
@@ -7584,13 +7602,13 @@
       <c r="F4" s="385" t="s">
         <v>87</v>
       </c>
-      <c r="G4" s="460"/>
-      <c r="H4" s="460"/>
-      <c r="I4" s="466"/>
-      <c r="J4" s="464"/>
+      <c r="G4" s="466"/>
+      <c r="H4" s="466"/>
+      <c r="I4" s="465"/>
+      <c r="J4" s="463"/>
     </row>
     <row r="5" spans="2:15" s="341" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="453" t="s">
+      <c r="B5" s="459" t="s">
         <v>357</v>
       </c>
       <c r="C5" s="364" t="s">
@@ -7622,7 +7640,7 @@
       </c>
     </row>
     <row r="6" spans="2:15" s="137" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="455"/>
+      <c r="B6" s="461"/>
       <c r="C6" s="356" t="s">
         <v>359</v>
       </c>
@@ -7650,7 +7668,7 @@
       <c r="J6" s="360"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="453" t="s">
+      <c r="B7" s="459" t="s">
         <v>93</v>
       </c>
       <c r="C7" s="139" t="s">
@@ -7692,7 +7710,7 @@
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="458"/>
+      <c r="B8" s="460"/>
       <c r="C8" s="345" t="s">
         <v>90</v>
       </c>
@@ -7720,7 +7738,7 @@
       <c r="J8" s="362"/>
     </row>
     <row r="9" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="455"/>
+      <c r="B9" s="461"/>
       <c r="C9" s="349" t="s">
         <v>91</v>
       </c>
@@ -7748,7 +7766,7 @@
       <c r="J9" s="363"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="453" t="s">
+      <c r="B10" s="459" t="s">
         <v>95</v>
       </c>
       <c r="C10" s="139" t="s">
@@ -7778,7 +7796,7 @@
       <c r="J10" s="361"/>
     </row>
     <row r="11" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="458"/>
+      <c r="B11" s="460"/>
       <c r="C11" s="345" t="s">
         <v>361</v>
       </c>
@@ -7806,7 +7824,7 @@
       <c r="J11" s="362"/>
     </row>
     <row r="12" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="458"/>
+      <c r="B12" s="460"/>
       <c r="C12" s="345" t="s">
         <v>362</v>
       </c>
@@ -7834,7 +7852,7 @@
       <c r="J12" s="362"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="458"/>
+      <c r="B13" s="460"/>
       <c r="C13" s="345" t="s">
         <v>90</v>
       </c>
@@ -7862,7 +7880,7 @@
       <c r="J13" s="362"/>
     </row>
     <row r="14" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="455"/>
+      <c r="B14" s="461"/>
       <c r="C14" s="349" t="s">
         <v>91</v>
       </c>
@@ -7907,27 +7925,27 @@
     </row>
     <row r="23" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="453" t="s">
+      <c r="B24" s="459" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="454"/>
-      <c r="D24" s="457" t="s">
+      <c r="C24" s="455"/>
+      <c r="D24" s="467" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="457"/>
-      <c r="F24" s="457"/>
-      <c r="G24" s="454" t="s">
+      <c r="E24" s="467"/>
+      <c r="F24" s="467"/>
+      <c r="G24" s="455" t="s">
         <v>88</v>
       </c>
-      <c r="H24" s="454" t="s">
+      <c r="H24" s="455" t="s">
         <v>89</v>
       </c>
-      <c r="I24" s="461" t="s">
+      <c r="I24" s="457" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="455"/>
+      <c r="B25" s="461"/>
       <c r="C25" s="456"/>
       <c r="D25" s="138" t="s">
         <v>85</v>
@@ -7940,13 +7958,13 @@
       </c>
       <c r="G25" s="456"/>
       <c r="H25" s="456"/>
-      <c r="I25" s="462"/>
+      <c r="I25" s="458"/>
     </row>
     <row r="26" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="448" t="s">
+      <c r="B26" s="450" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="449"/>
+      <c r="C26" s="451"/>
       <c r="D26" s="141">
         <v>3</v>
       </c>
@@ -7987,6 +8005,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B3:C4"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="I24:I25"/>
@@ -7997,13 +8020,8 @@
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B3:C4"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8656,7 +8674,7 @@
       <c r="K32" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -9973,7 +9991,7 @@
     </row>
   </sheetData>
   <autoFilter ref="B4:F4"/>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -9983,7 +10001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
@@ -11187,7 +11205,7 @@
       <c r="C49" s="231" t="s">
         <v>76</v>
       </c>
-      <c r="D49" s="473" t="s">
+      <c r="D49" s="445" t="s">
         <v>483</v>
       </c>
       <c r="E49" s="35" t="s">
@@ -11207,7 +11225,7 @@
         <v>0</v>
       </c>
       <c r="K49" s="35"/>
-      <c r="L49" s="472" t="s">
+      <c r="L49" s="444" t="s">
         <v>482</v>
       </c>
       <c r="M49" s="1" t="s">
@@ -11305,7 +11323,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -11868,7 +11886,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -11971,22 +11989,22 @@
       </c>
     </row>
     <row r="9" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="448" t="s">
+      <c r="C9" s="450" t="s">
         <v>346</v>
       </c>
-      <c r="D9" s="449"/>
-      <c r="E9" s="467">
+      <c r="D9" s="451"/>
+      <c r="E9" s="469">
         <f>SUM(F7:F8)</f>
         <v>620000</v>
       </c>
-      <c r="F9" s="468"/>
+      <c r="F9" s="470"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="C9:D9"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -14075,7 +14093,7 @@
   <sortState ref="B48:W53">
     <sortCondition ref="B48:B53"/>
   </sortState>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>

--- a/Femto Project 비용 List.xlsx
+++ b/Femto Project 비용 List.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="486">
   <si>
     <t>Vendor</t>
   </si>
@@ -1753,10 +1753,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>Pipette Main V1.0 PCB Soldering</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>Pipette JTAG V1.0 PCB Layout</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1842,6 +1838,14 @@
   </si>
   <si>
     <t>테이블 구입비</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipette Main V1.0 PCB Soldering</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipette Main V1.0 부품 구입</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -3235,7 +3239,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="474">
+  <cellXfs count="476">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
@@ -4307,27 +4311,36 @@
     <xf numFmtId="0" fontId="31" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="33" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4340,15 +4353,6 @@
     <xf numFmtId="0" fontId="31" fillId="33" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="31" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4363,6 +4367,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="0" fillId="34" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="96">
@@ -4763,10 +4771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G28"/>
+  <dimension ref="B3:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4810,7 +4818,7 @@
       <c r="C5" s="200"/>
       <c r="D5" s="342">
         <f>SUM(D6:D28)</f>
-        <v>2111800</v>
+        <v>2173433</v>
       </c>
       <c r="E5" s="342">
         <f>SUM(E6:E28)</f>
@@ -4979,7 +4987,7 @@
       </c>
       <c r="F16" s="388"/>
       <c r="G16" s="370" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
@@ -4987,7 +4995,7 @@
         <v>43219</v>
       </c>
       <c r="C17" s="204" t="s">
-        <v>462</v>
+        <v>484</v>
       </c>
       <c r="D17" s="348"/>
       <c r="E17" s="394">
@@ -4995,7 +5003,7 @@
       </c>
       <c r="F17" s="388"/>
       <c r="G17" s="370" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
@@ -5003,7 +5011,7 @@
         <v>43222</v>
       </c>
       <c r="C18" s="204" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D18" s="348"/>
       <c r="E18" s="394">
@@ -5011,7 +5019,7 @@
       </c>
       <c r="F18" s="388"/>
       <c r="G18" s="370" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
@@ -5019,7 +5027,7 @@
         <v>43222</v>
       </c>
       <c r="C19" s="204" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D19" s="348"/>
       <c r="E19" s="394">
@@ -5027,7 +5035,7 @@
       </c>
       <c r="F19" s="388"/>
       <c r="G19" s="370" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
@@ -5035,7 +5043,7 @@
         <v>43222</v>
       </c>
       <c r="C20" s="204" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D20" s="348"/>
       <c r="E20" s="394">
@@ -5043,7 +5051,7 @@
       </c>
       <c r="F20" s="388"/>
       <c r="G20" s="370" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
@@ -5051,7 +5059,7 @@
         <v>43222</v>
       </c>
       <c r="C21" s="204" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D21" s="348"/>
       <c r="E21" s="394">
@@ -5059,7 +5067,7 @@
       </c>
       <c r="F21" s="388"/>
       <c r="G21" s="370" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
@@ -5067,7 +5075,7 @@
         <v>43228</v>
       </c>
       <c r="C22" s="204" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D22" s="348">
         <v>395870</v>
@@ -5075,7 +5083,7 @@
       <c r="E22" s="348"/>
       <c r="F22" s="388"/>
       <c r="G22" s="370" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="23" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -5083,7 +5091,7 @@
         <v>43236</v>
       </c>
       <c r="C23" s="204" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D23" s="393">
         <v>57600</v>
@@ -5093,9 +5101,15 @@
       <c r="G23" s="370"/>
     </row>
     <row r="24" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="203"/>
-      <c r="C24" s="204"/>
-      <c r="D24" s="348"/>
+      <c r="B24" s="203">
+        <v>43236</v>
+      </c>
+      <c r="C24" s="204" t="s">
+        <v>485</v>
+      </c>
+      <c r="D24" s="348">
+        <v>61633</v>
+      </c>
       <c r="E24" s="348"/>
       <c r="F24" s="388"/>
       <c r="G24" s="370"/>
@@ -5131,6 +5145,10 @@
       <c r="E28" s="352"/>
       <c r="F28" s="389"/>
       <c r="G28" s="371"/>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E33" s="50"/>
+      <c r="F33" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
@@ -5983,6 +6001,17 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C22:E22"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="H9:J9"/>
@@ -5991,17 +6020,6 @@
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:P42"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6315,7 +6333,7 @@
         <v>434</v>
       </c>
       <c r="D11" s="438" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E11" s="439" t="s">
         <v>9</v>
@@ -6337,7 +6355,7 @@
         <v>435</v>
       </c>
       <c r="M11" s="177" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="177" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -6348,10 +6366,10 @@
         <v>35283</v>
       </c>
       <c r="C12" s="443" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D12" s="414" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>9</v>
@@ -6367,7 +6385,7 @@
       <c r="J12" s="416"/>
       <c r="K12" s="414"/>
       <c r="L12" s="417" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="177" customFormat="1" x14ac:dyDescent="0.3">
@@ -6647,7 +6665,7 @@
   <dimension ref="B2:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="K16" activeCellId="1" sqref="J16 K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6718,7 +6736,7 @@
       <c r="H4" s="436">
         <v>100</v>
       </c>
-      <c r="I4" s="188">
+      <c r="I4" s="433">
         <v>200</v>
       </c>
       <c r="J4" s="425">
@@ -6726,7 +6744,7 @@
       </c>
       <c r="K4" s="425"/>
       <c r="L4" s="404" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
@@ -6747,7 +6765,7 @@
         <v>10</v>
       </c>
       <c r="H5" s="347"/>
-      <c r="I5" s="347">
+      <c r="I5" s="17">
         <v>200</v>
       </c>
       <c r="J5" s="348">
@@ -6756,7 +6774,7 @@
       </c>
       <c r="K5" s="347"/>
       <c r="L5" s="426" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
@@ -6777,7 +6795,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="H6" s="347"/>
-      <c r="I6" s="347">
+      <c r="I6" s="17">
         <v>300</v>
       </c>
       <c r="J6" s="348">
@@ -6786,7 +6804,7 @@
       </c>
       <c r="K6" s="347"/>
       <c r="L6" s="89" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
@@ -6805,7 +6823,7 @@
         <v>5</v>
       </c>
       <c r="H7" s="347"/>
-      <c r="I7" s="347">
+      <c r="I7" s="17">
         <v>200</v>
       </c>
       <c r="J7" s="348">
@@ -6814,7 +6832,7 @@
       </c>
       <c r="K7" s="347"/>
       <c r="L7" s="89" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="8" spans="2:16" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -6835,7 +6853,7 @@
       <c r="H8" s="428">
         <v>300</v>
       </c>
-      <c r="I8" s="428">
+      <c r="I8" s="475">
         <v>300</v>
       </c>
       <c r="J8" s="352">
@@ -6844,7 +6862,7 @@
       </c>
       <c r="K8" s="36"/>
       <c r="L8" s="417" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="P8" s="39"/>
     </row>
@@ -6911,7 +6929,7 @@
       <c r="H12" s="104">
         <v>10</v>
       </c>
-      <c r="I12" s="104">
+      <c r="I12" s="474">
         <v>10</v>
       </c>
       <c r="J12" s="142">
@@ -6920,7 +6938,7 @@
       </c>
       <c r="K12" s="104"/>
       <c r="L12" s="431" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
@@ -7583,16 +7601,16 @@
       <c r="H3" s="446" t="s">
         <v>89</v>
       </c>
-      <c r="I3" s="464" t="s">
+      <c r="I3" s="467" t="s">
         <v>92</v>
       </c>
-      <c r="J3" s="462" t="s">
+      <c r="J3" s="465" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="4" spans="2:15" s="137" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="468"/>
-      <c r="C4" s="466"/>
+      <c r="B4" s="461"/>
+      <c r="C4" s="462"/>
       <c r="D4" s="385" t="s">
         <v>85</v>
       </c>
@@ -7602,13 +7620,13 @@
       <c r="F4" s="385" t="s">
         <v>87</v>
       </c>
-      <c r="G4" s="466"/>
-      <c r="H4" s="466"/>
-      <c r="I4" s="465"/>
-      <c r="J4" s="463"/>
+      <c r="G4" s="462"/>
+      <c r="H4" s="462"/>
+      <c r="I4" s="468"/>
+      <c r="J4" s="466"/>
     </row>
     <row r="5" spans="2:15" s="341" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="459" t="s">
+      <c r="B5" s="455" t="s">
         <v>357</v>
       </c>
       <c r="C5" s="364" t="s">
@@ -7640,7 +7658,7 @@
       </c>
     </row>
     <row r="6" spans="2:15" s="137" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="461"/>
+      <c r="B6" s="457"/>
       <c r="C6" s="356" t="s">
         <v>359</v>
       </c>
@@ -7668,7 +7686,7 @@
       <c r="J6" s="360"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="459" t="s">
+      <c r="B7" s="455" t="s">
         <v>93</v>
       </c>
       <c r="C7" s="139" t="s">
@@ -7738,7 +7756,7 @@
       <c r="J8" s="362"/>
     </row>
     <row r="9" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="461"/>
+      <c r="B9" s="457"/>
       <c r="C9" s="349" t="s">
         <v>91</v>
       </c>
@@ -7766,7 +7784,7 @@
       <c r="J9" s="363"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="459" t="s">
+      <c r="B10" s="455" t="s">
         <v>95</v>
       </c>
       <c r="C10" s="139" t="s">
@@ -7880,7 +7898,7 @@
       <c r="J13" s="362"/>
     </row>
     <row r="14" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="461"/>
+      <c r="B14" s="457"/>
       <c r="C14" s="349" t="s">
         <v>91</v>
       </c>
@@ -7925,28 +7943,28 @@
     </row>
     <row r="23" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="459" t="s">
+      <c r="B24" s="455" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="455"/>
-      <c r="D24" s="467" t="s">
+      <c r="C24" s="456"/>
+      <c r="D24" s="459" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="467"/>
-      <c r="F24" s="467"/>
-      <c r="G24" s="455" t="s">
+      <c r="E24" s="459"/>
+      <c r="F24" s="459"/>
+      <c r="G24" s="456" t="s">
         <v>88</v>
       </c>
-      <c r="H24" s="455" t="s">
+      <c r="H24" s="456" t="s">
         <v>89</v>
       </c>
-      <c r="I24" s="457" t="s">
+      <c r="I24" s="463" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="461"/>
-      <c r="C25" s="456"/>
+      <c r="B25" s="457"/>
+      <c r="C25" s="458"/>
       <c r="D25" s="138" t="s">
         <v>85</v>
       </c>
@@ -7956,9 +7974,9 @@
       <c r="F25" s="138" t="s">
         <v>87</v>
       </c>
-      <c r="G25" s="456"/>
-      <c r="H25" s="456"/>
-      <c r="I25" s="458"/>
+      <c r="G25" s="458"/>
+      <c r="H25" s="458"/>
+      <c r="I25" s="464"/>
     </row>
     <row r="26" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="450" t="s">
@@ -8005,11 +8023,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B3:C4"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="I24:I25"/>
@@ -8020,6 +8033,11 @@
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="G3:G4"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B3:C4"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9959,7 +9977,7 @@
         <v>39000</v>
       </c>
       <c r="N36" s="193" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="37" spans="1:14" s="177" customFormat="1" x14ac:dyDescent="0.3">
@@ -11206,7 +11224,7 @@
         <v>76</v>
       </c>
       <c r="D49" s="445" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E49" s="35" t="s">
         <v>9</v>
@@ -11226,7 +11244,7 @@
       </c>
       <c r="K49" s="35"/>
       <c r="L49" s="444" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="M49" s="1" t="s">
         <v>287</v>

--- a/Femto Project 비용 List.xlsx
+++ b/Femto Project 비용 List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3735" yWindow="1890" windowWidth="28800" windowHeight="12060"/>
+    <workbookView xWindow="3735" yWindow="1890" windowWidth="28800" windowHeight="12060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="전체 비용 List" sheetId="9" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="487">
   <si>
     <t>Vendor</t>
   </si>
@@ -1769,10 +1769,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>미지급</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>Pipette Transformer/JTAG 부품 구입</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1846,6 +1842,14 @@
   </si>
   <si>
     <t>Pipette Main V1.0 부품 구입</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>5/31 입금</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Artwork</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -2390,7 +2394,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -2956,6 +2960,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3239,7 +3256,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="476">
+  <cellXfs count="479">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
@@ -4284,93 +4301,100 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="78" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="31" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="31" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="31" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="31" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="34" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="31" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="31" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="31" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="31" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="96">
@@ -4773,8 +4797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4822,7 +4846,7 @@
       </c>
       <c r="E5" s="342">
         <f>SUM(E6:E28)</f>
-        <v>4875000</v>
+        <v>4750000</v>
       </c>
       <c r="F5" s="368">
         <f>SUM(F6:F28)</f>
@@ -4981,13 +5005,13 @@
       <c r="C16" s="204" t="s">
         <v>461</v>
       </c>
-      <c r="D16" s="348"/>
-      <c r="E16" s="394">
+      <c r="D16" s="9"/>
+      <c r="E16" s="448">
         <v>1250000</v>
       </c>
       <c r="F16" s="388"/>
       <c r="G16" s="370" t="s">
-        <v>466</v>
+        <v>485</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
@@ -4995,15 +5019,15 @@
         <v>43219</v>
       </c>
       <c r="C17" s="204" t="s">
-        <v>484</v>
-      </c>
-      <c r="D17" s="348"/>
-      <c r="E17" s="394">
+        <v>483</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="448">
         <v>300000</v>
       </c>
       <c r="F17" s="388"/>
       <c r="G17" s="370" t="s">
-        <v>466</v>
+        <v>485</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
@@ -5013,13 +5037,13 @@
       <c r="C18" s="204" t="s">
         <v>462</v>
       </c>
-      <c r="D18" s="348"/>
-      <c r="E18" s="394">
+      <c r="D18" s="9"/>
+      <c r="E18" s="448">
         <v>250000</v>
       </c>
       <c r="F18" s="388"/>
       <c r="G18" s="370" t="s">
-        <v>466</v>
+        <v>485</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
@@ -5029,13 +5053,13 @@
       <c r="C19" s="204" t="s">
         <v>463</v>
       </c>
-      <c r="D19" s="348"/>
-      <c r="E19" s="394">
+      <c r="D19" s="9"/>
+      <c r="E19" s="448">
         <v>90000</v>
       </c>
       <c r="F19" s="388"/>
       <c r="G19" s="370" t="s">
-        <v>466</v>
+        <v>485</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
@@ -5045,13 +5069,13 @@
       <c r="C20" s="204" t="s">
         <v>465</v>
       </c>
-      <c r="D20" s="348"/>
-      <c r="E20" s="394">
-        <v>500000</v>
+      <c r="D20" s="9"/>
+      <c r="E20" s="448">
+        <v>375000</v>
       </c>
       <c r="F20" s="388"/>
       <c r="G20" s="370" t="s">
-        <v>466</v>
+        <v>485</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
@@ -5061,13 +5085,13 @@
       <c r="C21" s="204" t="s">
         <v>464</v>
       </c>
-      <c r="D21" s="348"/>
-      <c r="E21" s="394">
+      <c r="D21" s="9"/>
+      <c r="E21" s="448">
         <v>135000</v>
       </c>
       <c r="F21" s="388"/>
       <c r="G21" s="370" t="s">
-        <v>466</v>
+        <v>485</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
@@ -5075,15 +5099,15 @@
         <v>43228</v>
       </c>
       <c r="C22" s="204" t="s">
-        <v>467</v>
-      </c>
-      <c r="D22" s="348">
+        <v>466</v>
+      </c>
+      <c r="D22" s="9">
         <v>395870</v>
       </c>
-      <c r="E22" s="348"/>
+      <c r="E22" s="9"/>
       <c r="F22" s="388"/>
       <c r="G22" s="370" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="23" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -5091,21 +5115,23 @@
         <v>43236</v>
       </c>
       <c r="C23" s="204" t="s">
-        <v>483</v>
-      </c>
-      <c r="D23" s="393">
+        <v>482</v>
+      </c>
+      <c r="D23" s="9">
         <v>57600</v>
       </c>
-      <c r="E23" s="348"/>
+      <c r="E23" s="9"/>
       <c r="F23" s="388"/>
-      <c r="G23" s="370"/>
+      <c r="G23" s="370" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="24" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B24" s="203">
         <v>43236</v>
       </c>
       <c r="C24" s="204" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D24" s="348">
         <v>61633</v>
@@ -5161,7 +5187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
@@ -5375,29 +5401,29 @@
       </c>
     </row>
     <row r="9" spans="2:16" s="56" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="450" t="s">
+      <c r="C9" s="453" t="s">
         <v>296</v>
       </c>
-      <c r="D9" s="451"/>
-      <c r="E9" s="451"/>
+      <c r="D9" s="454"/>
+      <c r="E9" s="454"/>
       <c r="F9" s="264">
         <f>SUM(F6:F8)</f>
         <v>138411</v>
       </c>
-      <c r="H9" s="450" t="s">
+      <c r="H9" s="453" t="s">
         <v>296</v>
       </c>
-      <c r="I9" s="451"/>
-      <c r="J9" s="451"/>
+      <c r="I9" s="454"/>
+      <c r="J9" s="454"/>
       <c r="K9" s="264">
         <f>SUM(K6:K8)</f>
         <v>42250</v>
       </c>
-      <c r="M9" s="450" t="s">
+      <c r="M9" s="453" t="s">
         <v>296</v>
       </c>
-      <c r="N9" s="451"/>
-      <c r="O9" s="451"/>
+      <c r="N9" s="454"/>
+      <c r="O9" s="454"/>
       <c r="P9" s="264">
         <f>SUM(P6:P8)</f>
         <v>44750</v>
@@ -5538,37 +5564,37 @@
       </c>
     </row>
     <row r="14" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="450" t="s">
+      <c r="C14" s="453" t="s">
         <v>299</v>
       </c>
-      <c r="D14" s="451"/>
-      <c r="E14" s="471">
+      <c r="D14" s="454"/>
+      <c r="E14" s="474">
         <f>F12</f>
         <v>553644</v>
       </c>
-      <c r="F14" s="472"/>
-      <c r="H14" s="450" t="s">
+      <c r="F14" s="475"/>
+      <c r="H14" s="453" t="s">
         <v>299</v>
       </c>
-      <c r="I14" s="451"/>
-      <c r="J14" s="471">
+      <c r="I14" s="454"/>
+      <c r="J14" s="474">
         <f>K12</f>
         <v>169000</v>
       </c>
-      <c r="K14" s="472"/>
-      <c r="M14" s="450" t="s">
+      <c r="K14" s="475"/>
+      <c r="M14" s="453" t="s">
         <v>299</v>
       </c>
-      <c r="N14" s="451"/>
-      <c r="O14" s="471">
+      <c r="N14" s="454"/>
+      <c r="O14" s="474">
         <f>P12</f>
         <v>150000</v>
       </c>
-      <c r="P14" s="472"/>
+      <c r="P14" s="475"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C15" s="473"/>
-      <c r="D15" s="473"/>
+      <c r="C15" s="476"/>
+      <c r="D15" s="476"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
@@ -5692,11 +5718,11 @@
       </c>
     </row>
     <row r="22" spans="3:16" s="56" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="450" t="s">
+      <c r="C22" s="453" t="s">
         <v>296</v>
       </c>
-      <c r="D22" s="451"/>
-      <c r="E22" s="451"/>
+      <c r="D22" s="454"/>
+      <c r="E22" s="454"/>
       <c r="F22" s="264">
         <f>SUM(F19:F21)</f>
         <v>45292</v>
@@ -5719,11 +5745,11 @@
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
-      <c r="M23" s="450" t="s">
+      <c r="M23" s="453" t="s">
         <v>296</v>
       </c>
-      <c r="N23" s="451"/>
-      <c r="O23" s="451"/>
+      <c r="N23" s="454"/>
+      <c r="O23" s="454"/>
       <c r="P23" s="264">
         <f>SUM(P20:P22)</f>
         <v>18000</v>
@@ -5833,24 +5859,24 @@
       </c>
     </row>
     <row r="28" spans="3:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="450" t="s">
+      <c r="C28" s="453" t="s">
         <v>299</v>
       </c>
-      <c r="D28" s="451"/>
-      <c r="E28" s="471">
+      <c r="D28" s="454"/>
+      <c r="E28" s="474">
         <f>SUM(F25:F27)</f>
         <v>291168</v>
       </c>
-      <c r="F28" s="472"/>
-      <c r="M28" s="450" t="s">
+      <c r="F28" s="475"/>
+      <c r="M28" s="453" t="s">
         <v>299</v>
       </c>
-      <c r="N28" s="451"/>
-      <c r="O28" s="471">
+      <c r="N28" s="454"/>
+      <c r="O28" s="474">
         <f>P26</f>
         <v>90000</v>
       </c>
-      <c r="P28" s="472"/>
+      <c r="P28" s="475"/>
     </row>
     <row r="31" spans="3:16" x14ac:dyDescent="0.3">
       <c r="M31" s="56" t="s">
@@ -5928,11 +5954,11 @@
       </c>
     </row>
     <row r="37" spans="13:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M37" s="450" t="s">
+      <c r="M37" s="453" t="s">
         <v>296</v>
       </c>
-      <c r="N37" s="451"/>
-      <c r="O37" s="451"/>
+      <c r="N37" s="454"/>
+      <c r="O37" s="454"/>
       <c r="P37" s="264">
         <f>SUM(P34:P36)</f>
         <v>13500</v>
@@ -5989,15 +6015,15 @@
       </c>
     </row>
     <row r="42" spans="13:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M42" s="450" t="s">
+      <c r="M42" s="453" t="s">
         <v>299</v>
       </c>
-      <c r="N42" s="451"/>
-      <c r="O42" s="471">
+      <c r="N42" s="454"/>
+      <c r="O42" s="474">
         <f>P40</f>
         <v>13500</v>
       </c>
-      <c r="P42" s="472"/>
+      <c r="P42" s="475"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -6333,7 +6359,7 @@
         <v>434</v>
       </c>
       <c r="D11" s="438" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E11" s="439" t="s">
         <v>9</v>
@@ -6355,7 +6381,7 @@
         <v>435</v>
       </c>
       <c r="M11" s="177" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="177" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -6366,10 +6392,10 @@
         <v>35283</v>
       </c>
       <c r="C12" s="443" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D12" s="414" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>9</v>
@@ -6385,7 +6411,7 @@
       <c r="J12" s="416"/>
       <c r="K12" s="414"/>
       <c r="L12" s="417" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="177" customFormat="1" x14ac:dyDescent="0.3">
@@ -6744,7 +6770,7 @@
       </c>
       <c r="K4" s="425"/>
       <c r="L4" s="404" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
@@ -6774,7 +6800,7 @@
       </c>
       <c r="K5" s="347"/>
       <c r="L5" s="426" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
@@ -6804,7 +6830,7 @@
       </c>
       <c r="K6" s="347"/>
       <c r="L6" s="89" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
@@ -6832,7 +6858,7 @@
       </c>
       <c r="K7" s="347"/>
       <c r="L7" s="89" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="8" spans="2:16" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -6853,7 +6879,7 @@
       <c r="H8" s="428">
         <v>300</v>
       </c>
-      <c r="I8" s="475">
+      <c r="I8" s="447">
         <v>300</v>
       </c>
       <c r="J8" s="352">
@@ -6862,7 +6888,7 @@
       </c>
       <c r="K8" s="36"/>
       <c r="L8" s="417" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="P8" s="39"/>
     </row>
@@ -6929,7 +6955,7 @@
       <c r="H12" s="104">
         <v>10</v>
       </c>
-      <c r="I12" s="474">
+      <c r="I12" s="446">
         <v>10</v>
       </c>
       <c r="J12" s="142">
@@ -6938,7 +6964,7 @@
       </c>
       <c r="K12" s="104"/>
       <c r="L12" s="431" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
@@ -7026,8 +7052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7042,7 +7068,7 @@
     <col min="13" max="13" width="7.625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7.375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
@@ -7078,22 +7104,22 @@
       <c r="I4" s="261" t="s">
         <v>373</v>
       </c>
-      <c r="K4" s="452" t="s">
+      <c r="K4" s="455" t="s">
         <v>94</v>
       </c>
-      <c r="L4" s="446"/>
-      <c r="M4" s="454" t="s">
+      <c r="L4" s="449"/>
+      <c r="M4" s="457" t="s">
         <v>84</v>
       </c>
-      <c r="N4" s="454"/>
-      <c r="O4" s="454"/>
-      <c r="P4" s="446" t="s">
+      <c r="N4" s="457"/>
+      <c r="O4" s="457"/>
+      <c r="P4" s="449" t="s">
         <v>88</v>
       </c>
-      <c r="Q4" s="446" t="s">
+      <c r="Q4" s="449" t="s">
         <v>89</v>
       </c>
-      <c r="R4" s="448" t="s">
+      <c r="R4" s="451" t="s">
         <v>92</v>
       </c>
     </row>
@@ -7123,8 +7149,8 @@
         <f t="shared" ref="I5:I10" si="0">G5*H5</f>
         <v>750000</v>
       </c>
-      <c r="K5" s="453"/>
-      <c r="L5" s="447"/>
+      <c r="K5" s="456"/>
+      <c r="L5" s="450"/>
       <c r="M5" s="386" t="s">
         <v>85</v>
       </c>
@@ -7134,9 +7160,9 @@
       <c r="O5" s="386" t="s">
         <v>96</v>
       </c>
-      <c r="P5" s="447"/>
-      <c r="Q5" s="447"/>
-      <c r="R5" s="449"/>
+      <c r="P5" s="450"/>
+      <c r="Q5" s="450"/>
+      <c r="R5" s="452"/>
     </row>
     <row r="6" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="203">
@@ -7164,10 +7190,10 @@
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
-      <c r="K6" s="450" t="s">
+      <c r="K6" s="453" t="s">
         <v>97</v>
       </c>
-      <c r="L6" s="451"/>
+      <c r="L6" s="454"/>
       <c r="M6" s="141">
         <v>1</v>
       </c>
@@ -7190,7 +7216,7 @@
         <v>2100000</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="203">
         <v>43143</v>
       </c>
@@ -7216,6 +7242,28 @@
         <f t="shared" si="0"/>
         <v>750000</v>
       </c>
+      <c r="K7" s="477" t="s">
+        <v>486</v>
+      </c>
+      <c r="L7" s="478"/>
+      <c r="M7" s="141"/>
+      <c r="N7" s="104">
+        <v>1</v>
+      </c>
+      <c r="O7" s="104">
+        <f>N7*8</f>
+        <v>8</v>
+      </c>
+      <c r="P7" s="142">
+        <v>30000</v>
+      </c>
+      <c r="Q7" s="104">
+        <v>1</v>
+      </c>
+      <c r="R7" s="143">
+        <f>O7*P7*Q7</f>
+        <v>240000</v>
+      </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B8" s="203">
@@ -7297,6 +7345,7 @@
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
+      <c r="P10" s="11"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B11" s="392">
@@ -7423,14 +7472,14 @@
         <v>372</v>
       </c>
       <c r="G15" s="110">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H15" s="393">
         <v>250000</v>
       </c>
       <c r="I15" s="394">
         <f t="shared" ref="I15:I16" si="3">G15*H15</f>
-        <v>500000</v>
+        <v>375000</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
@@ -7541,7 +7590,8 @@
       <c r="I24" s="266"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="K7:L7"/>
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="K6:L6"/>
@@ -7586,31 +7636,31 @@
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="452" t="s">
+      <c r="B3" s="455" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="446"/>
-      <c r="D3" s="454" t="s">
+      <c r="C3" s="449"/>
+      <c r="D3" s="457" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="454"/>
-      <c r="F3" s="454"/>
-      <c r="G3" s="446" t="s">
+      <c r="E3" s="457"/>
+      <c r="F3" s="457"/>
+      <c r="G3" s="449" t="s">
         <v>88</v>
       </c>
-      <c r="H3" s="446" t="s">
+      <c r="H3" s="449" t="s">
         <v>89</v>
       </c>
-      <c r="I3" s="467" t="s">
+      <c r="I3" s="470" t="s">
         <v>92</v>
       </c>
-      <c r="J3" s="465" t="s">
+      <c r="J3" s="468" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="4" spans="2:15" s="137" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="461"/>
-      <c r="C4" s="462"/>
+      <c r="B4" s="464"/>
+      <c r="C4" s="465"/>
       <c r="D4" s="385" t="s">
         <v>85</v>
       </c>
@@ -7620,13 +7670,13 @@
       <c r="F4" s="385" t="s">
         <v>87</v>
       </c>
-      <c r="G4" s="462"/>
-      <c r="H4" s="462"/>
-      <c r="I4" s="468"/>
-      <c r="J4" s="466"/>
+      <c r="G4" s="465"/>
+      <c r="H4" s="465"/>
+      <c r="I4" s="471"/>
+      <c r="J4" s="469"/>
     </row>
     <row r="5" spans="2:15" s="341" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="455" t="s">
+      <c r="B5" s="458" t="s">
         <v>357</v>
       </c>
       <c r="C5" s="364" t="s">
@@ -7658,7 +7708,7 @@
       </c>
     </row>
     <row r="6" spans="2:15" s="137" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="457"/>
+      <c r="B6" s="460"/>
       <c r="C6" s="356" t="s">
         <v>359</v>
       </c>
@@ -7686,7 +7736,7 @@
       <c r="J6" s="360"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="455" t="s">
+      <c r="B7" s="458" t="s">
         <v>93</v>
       </c>
       <c r="C7" s="139" t="s">
@@ -7728,7 +7778,7 @@
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="460"/>
+      <c r="B8" s="463"/>
       <c r="C8" s="345" t="s">
         <v>90</v>
       </c>
@@ -7756,7 +7806,7 @@
       <c r="J8" s="362"/>
     </row>
     <row r="9" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="457"/>
+      <c r="B9" s="460"/>
       <c r="C9" s="349" t="s">
         <v>91</v>
       </c>
@@ -7784,7 +7834,7 @@
       <c r="J9" s="363"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="455" t="s">
+      <c r="B10" s="458" t="s">
         <v>95</v>
       </c>
       <c r="C10" s="139" t="s">
@@ -7814,7 +7864,7 @@
       <c r="J10" s="361"/>
     </row>
     <row r="11" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="460"/>
+      <c r="B11" s="463"/>
       <c r="C11" s="345" t="s">
         <v>361</v>
       </c>
@@ -7842,7 +7892,7 @@
       <c r="J11" s="362"/>
     </row>
     <row r="12" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="460"/>
+      <c r="B12" s="463"/>
       <c r="C12" s="345" t="s">
         <v>362</v>
       </c>
@@ -7870,7 +7920,7 @@
       <c r="J12" s="362"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="460"/>
+      <c r="B13" s="463"/>
       <c r="C13" s="345" t="s">
         <v>90</v>
       </c>
@@ -7898,7 +7948,7 @@
       <c r="J13" s="362"/>
     </row>
     <row r="14" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="457"/>
+      <c r="B14" s="460"/>
       <c r="C14" s="349" t="s">
         <v>91</v>
       </c>
@@ -7943,28 +7993,28 @@
     </row>
     <row r="23" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="455" t="s">
+      <c r="B24" s="458" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="456"/>
-      <c r="D24" s="459" t="s">
+      <c r="C24" s="459"/>
+      <c r="D24" s="462" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="459"/>
-      <c r="F24" s="459"/>
-      <c r="G24" s="456" t="s">
+      <c r="E24" s="462"/>
+      <c r="F24" s="462"/>
+      <c r="G24" s="459" t="s">
         <v>88</v>
       </c>
-      <c r="H24" s="456" t="s">
+      <c r="H24" s="459" t="s">
         <v>89</v>
       </c>
-      <c r="I24" s="463" t="s">
+      <c r="I24" s="466" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="457"/>
-      <c r="C25" s="458"/>
+      <c r="B25" s="460"/>
+      <c r="C25" s="461"/>
       <c r="D25" s="138" t="s">
         <v>85</v>
       </c>
@@ -7974,15 +8024,15 @@
       <c r="F25" s="138" t="s">
         <v>87</v>
       </c>
-      <c r="G25" s="458"/>
-      <c r="H25" s="458"/>
-      <c r="I25" s="464"/>
+      <c r="G25" s="461"/>
+      <c r="H25" s="461"/>
+      <c r="I25" s="467"/>
     </row>
     <row r="26" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="450" t="s">
+      <c r="B26" s="453" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="451"/>
+      <c r="C26" s="454"/>
       <c r="D26" s="141">
         <v>3</v>
       </c>
@@ -9977,7 +10027,7 @@
         <v>39000</v>
       </c>
       <c r="N36" s="193" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="37" spans="1:14" s="177" customFormat="1" x14ac:dyDescent="0.3">
@@ -11224,7 +11274,7 @@
         <v>76</v>
       </c>
       <c r="D49" s="445" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E49" s="35" t="s">
         <v>9</v>
@@ -11244,7 +11294,7 @@
       </c>
       <c r="K49" s="35"/>
       <c r="L49" s="444" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="M49" s="1" t="s">
         <v>287</v>
@@ -12007,15 +12057,15 @@
       </c>
     </row>
     <row r="9" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="450" t="s">
+      <c r="C9" s="453" t="s">
         <v>346</v>
       </c>
-      <c r="D9" s="451"/>
-      <c r="E9" s="469">
+      <c r="D9" s="454"/>
+      <c r="E9" s="472">
         <f>SUM(F7:F8)</f>
         <v>620000</v>
       </c>
-      <c r="F9" s="470"/>
+      <c r="F9" s="473"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Femto Project 비용 List.xlsx
+++ b/Femto Project 비용 List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3735" yWindow="1890" windowWidth="28800" windowHeight="12060" activeTab="1"/>
+    <workbookView xWindow="3735" yWindow="1890" windowWidth="28800" windowHeight="12060" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="전체 비용 List" sheetId="9" r:id="rId1"/>
@@ -3256,7 +3256,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="479">
+  <cellXfs count="476">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
@@ -4085,9 +4085,6 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
@@ -4159,11 +4156,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="35" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="35" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="41" fontId="0" fillId="35" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="38" borderId="16" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4306,6 +4298,12 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4333,48 +4331,48 @@
     <xf numFmtId="0" fontId="31" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="33" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="31" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4390,10 +4388,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4816,22 +4811,22 @@
       <c r="F3" s="195"/>
     </row>
     <row r="4" spans="2:7" s="197" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="381" t="s">
+      <c r="B4" s="380" t="s">
         <v>196</v>
       </c>
-      <c r="C4" s="382" t="s">
+      <c r="C4" s="381" t="s">
         <v>197</v>
       </c>
-      <c r="D4" s="383" t="s">
+      <c r="D4" s="382" t="s">
         <v>352</v>
       </c>
-      <c r="E4" s="383" t="s">
+      <c r="E4" s="382" t="s">
         <v>386</v>
       </c>
-      <c r="F4" s="383" t="s">
+      <c r="F4" s="382" t="s">
         <v>387</v>
       </c>
-      <c r="G4" s="384" t="s">
+      <c r="G4" s="383" t="s">
         <v>198</v>
       </c>
     </row>
@@ -4848,39 +4843,39 @@
         <f>SUM(E6:E28)</f>
         <v>4750000</v>
       </c>
-      <c r="F5" s="368">
+      <c r="F5" s="367">
         <f>SUM(F6:F28)</f>
         <v>1000000</v>
       </c>
-      <c r="G5" s="380"/>
+      <c r="G5" s="379"/>
     </row>
     <row r="6" spans="2:7" s="197" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="372">
+      <c r="B6" s="371">
         <v>43062</v>
       </c>
-      <c r="C6" s="373" t="s">
+      <c r="C6" s="372" t="s">
         <v>382</v>
       </c>
-      <c r="D6" s="374"/>
-      <c r="E6" s="374">
+      <c r="D6" s="373"/>
+      <c r="E6" s="373">
         <v>900000</v>
       </c>
-      <c r="F6" s="387"/>
-      <c r="G6" s="369"/>
+      <c r="F6" s="386"/>
+      <c r="G6" s="368"/>
     </row>
     <row r="7" spans="2:7" s="197" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="376">
+      <c r="B7" s="375">
         <v>43062</v>
       </c>
-      <c r="C7" s="377" t="s">
+      <c r="C7" s="376" t="s">
         <v>384</v>
       </c>
-      <c r="D7" s="378"/>
-      <c r="E7" s="378"/>
-      <c r="F7" s="378">
+      <c r="D7" s="377"/>
+      <c r="E7" s="377"/>
+      <c r="F7" s="377">
         <v>1000000</v>
       </c>
-      <c r="G7" s="379"/>
+      <c r="G7" s="378"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="203">
@@ -4893,8 +4888,8 @@
         <v>62080</v>
       </c>
       <c r="E8" s="348"/>
-      <c r="F8" s="388"/>
-      <c r="G8" s="370"/>
+      <c r="F8" s="387"/>
+      <c r="G8" s="369"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="203">
@@ -4907,8 +4902,8 @@
         <v>81880</v>
       </c>
       <c r="E9" s="348"/>
-      <c r="F9" s="388"/>
-      <c r="G9" s="370"/>
+      <c r="F9" s="387"/>
+      <c r="G9" s="369"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="203">
@@ -4921,8 +4916,8 @@
         <v>42900</v>
       </c>
       <c r="E10" s="348"/>
-      <c r="F10" s="388"/>
-      <c r="G10" s="370"/>
+      <c r="F10" s="387"/>
+      <c r="G10" s="369"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="203">
@@ -4935,8 +4930,8 @@
       <c r="E11" s="348">
         <v>830000</v>
       </c>
-      <c r="F11" s="388"/>
-      <c r="G11" s="370"/>
+      <c r="F11" s="387"/>
+      <c r="G11" s="369"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="203">
@@ -4949,8 +4944,8 @@
         <v>514080</v>
       </c>
       <c r="E12" s="348"/>
-      <c r="F12" s="388"/>
-      <c r="G12" s="370" t="s">
+      <c r="F12" s="387"/>
+      <c r="G12" s="369" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4965,8 +4960,8 @@
         <v>869390</v>
       </c>
       <c r="E13" s="348"/>
-      <c r="F13" s="388"/>
-      <c r="G13" s="370" t="s">
+      <c r="F13" s="387"/>
+      <c r="G13" s="369" t="s">
         <v>289</v>
       </c>
     </row>
@@ -4981,8 +4976,8 @@
       <c r="E14" s="348">
         <v>620000</v>
       </c>
-      <c r="F14" s="388"/>
-      <c r="G14" s="370"/>
+      <c r="F14" s="387"/>
+      <c r="G14" s="369"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="203">
@@ -4995,102 +4990,102 @@
         <v>88000</v>
       </c>
       <c r="E15" s="348"/>
-      <c r="F15" s="388"/>
-      <c r="G15" s="370"/>
+      <c r="F15" s="387"/>
+      <c r="G15" s="369"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="435">
+      <c r="B16" s="431">
         <v>43219</v>
       </c>
       <c r="C16" s="204" t="s">
         <v>461</v>
       </c>
       <c r="D16" s="9"/>
-      <c r="E16" s="448">
+      <c r="E16" s="444">
         <v>1250000</v>
       </c>
-      <c r="F16" s="388"/>
-      <c r="G16" s="370" t="s">
+      <c r="F16" s="387"/>
+      <c r="G16" s="369" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="435">
+      <c r="B17" s="431">
         <v>43219</v>
       </c>
       <c r="C17" s="204" t="s">
         <v>483</v>
       </c>
       <c r="D17" s="9"/>
-      <c r="E17" s="448">
+      <c r="E17" s="444">
         <v>300000</v>
       </c>
-      <c r="F17" s="388"/>
-      <c r="G17" s="370" t="s">
+      <c r="F17" s="387"/>
+      <c r="G17" s="369" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="435">
+      <c r="B18" s="431">
         <v>43222</v>
       </c>
       <c r="C18" s="204" t="s">
         <v>462</v>
       </c>
       <c r="D18" s="9"/>
-      <c r="E18" s="448">
+      <c r="E18" s="444">
         <v>250000</v>
       </c>
-      <c r="F18" s="388"/>
-      <c r="G18" s="370" t="s">
+      <c r="F18" s="387"/>
+      <c r="G18" s="369" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="435">
+      <c r="B19" s="431">
         <v>43222</v>
       </c>
       <c r="C19" s="204" t="s">
         <v>463</v>
       </c>
       <c r="D19" s="9"/>
-      <c r="E19" s="448">
+      <c r="E19" s="444">
         <v>90000</v>
       </c>
-      <c r="F19" s="388"/>
-      <c r="G19" s="370" t="s">
+      <c r="F19" s="387"/>
+      <c r="G19" s="369" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="435">
+      <c r="B20" s="431">
         <v>43222</v>
       </c>
       <c r="C20" s="204" t="s">
         <v>465</v>
       </c>
       <c r="D20" s="9"/>
-      <c r="E20" s="448">
+      <c r="E20" s="444">
         <v>375000</v>
       </c>
-      <c r="F20" s="388"/>
-      <c r="G20" s="370" t="s">
+      <c r="F20" s="387"/>
+      <c r="G20" s="369" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="435">
+      <c r="B21" s="431">
         <v>43222</v>
       </c>
       <c r="C21" s="204" t="s">
         <v>464</v>
       </c>
       <c r="D21" s="9"/>
-      <c r="E21" s="448">
+      <c r="E21" s="444">
         <v>135000</v>
       </c>
-      <c r="F21" s="388"/>
-      <c r="G21" s="370" t="s">
+      <c r="F21" s="387"/>
+      <c r="G21" s="369" t="s">
         <v>485</v>
       </c>
     </row>
@@ -5105,8 +5100,8 @@
         <v>395870</v>
       </c>
       <c r="E22" s="9"/>
-      <c r="F22" s="388"/>
-      <c r="G22" s="370" t="s">
+      <c r="F22" s="387"/>
+      <c r="G22" s="369" t="s">
         <v>467</v>
       </c>
     </row>
@@ -5121,8 +5116,8 @@
         <v>57600</v>
       </c>
       <c r="E23" s="9"/>
-      <c r="F23" s="388"/>
-      <c r="G23" s="370" t="s">
+      <c r="F23" s="387"/>
+      <c r="G23" s="369" t="s">
         <v>485</v>
       </c>
     </row>
@@ -5137,40 +5132,40 @@
         <v>61633</v>
       </c>
       <c r="E24" s="348"/>
-      <c r="F24" s="388"/>
-      <c r="G24" s="370"/>
+      <c r="F24" s="387"/>
+      <c r="G24" s="369"/>
     </row>
     <row r="25" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B25" s="203"/>
       <c r="C25" s="204"/>
       <c r="D25" s="348"/>
       <c r="E25" s="348"/>
-      <c r="F25" s="388"/>
-      <c r="G25" s="370"/>
+      <c r="F25" s="387"/>
+      <c r="G25" s="369"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="203"/>
       <c r="C26" s="204"/>
       <c r="D26" s="348"/>
       <c r="E26" s="348"/>
-      <c r="F26" s="388"/>
-      <c r="G26" s="370"/>
+      <c r="F26" s="387"/>
+      <c r="G26" s="369"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="203"/>
       <c r="C27" s="204"/>
       <c r="D27" s="348"/>
       <c r="E27" s="348"/>
-      <c r="F27" s="388"/>
-      <c r="G27" s="370"/>
+      <c r="F27" s="387"/>
+      <c r="G27" s="369"/>
     </row>
     <row r="28" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="205"/>
       <c r="C28" s="206"/>
       <c r="D28" s="352"/>
       <c r="E28" s="352"/>
-      <c r="F28" s="389"/>
-      <c r="G28" s="371"/>
+      <c r="F28" s="388"/>
+      <c r="G28" s="370"/>
     </row>
     <row r="33" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E33" s="50"/>
@@ -5401,29 +5396,29 @@
       </c>
     </row>
     <row r="9" spans="2:16" s="56" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="453" t="s">
+      <c r="C9" s="451" t="s">
         <v>296</v>
       </c>
-      <c r="D9" s="454"/>
-      <c r="E9" s="454"/>
+      <c r="D9" s="452"/>
+      <c r="E9" s="452"/>
       <c r="F9" s="264">
         <f>SUM(F6:F8)</f>
         <v>138411</v>
       </c>
-      <c r="H9" s="453" t="s">
+      <c r="H9" s="451" t="s">
         <v>296</v>
       </c>
-      <c r="I9" s="454"/>
-      <c r="J9" s="454"/>
+      <c r="I9" s="452"/>
+      <c r="J9" s="452"/>
       <c r="K9" s="264">
         <f>SUM(K6:K8)</f>
         <v>42250</v>
       </c>
-      <c r="M9" s="453" t="s">
+      <c r="M9" s="451" t="s">
         <v>296</v>
       </c>
-      <c r="N9" s="454"/>
-      <c r="O9" s="454"/>
+      <c r="N9" s="452"/>
+      <c r="O9" s="452"/>
       <c r="P9" s="264">
         <f>SUM(P6:P8)</f>
         <v>44750</v>
@@ -5564,37 +5559,37 @@
       </c>
     </row>
     <row r="14" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="453" t="s">
+      <c r="C14" s="451" t="s">
         <v>299</v>
       </c>
-      <c r="D14" s="454"/>
-      <c r="E14" s="474">
+      <c r="D14" s="452"/>
+      <c r="E14" s="472">
         <f>F12</f>
         <v>553644</v>
       </c>
-      <c r="F14" s="475"/>
-      <c r="H14" s="453" t="s">
+      <c r="F14" s="473"/>
+      <c r="H14" s="451" t="s">
         <v>299</v>
       </c>
-      <c r="I14" s="454"/>
-      <c r="J14" s="474">
+      <c r="I14" s="452"/>
+      <c r="J14" s="472">
         <f>K12</f>
         <v>169000</v>
       </c>
-      <c r="K14" s="475"/>
-      <c r="M14" s="453" t="s">
+      <c r="K14" s="473"/>
+      <c r="M14" s="451" t="s">
         <v>299</v>
       </c>
-      <c r="N14" s="454"/>
-      <c r="O14" s="474">
+      <c r="N14" s="452"/>
+      <c r="O14" s="472">
         <f>P12</f>
         <v>150000</v>
       </c>
-      <c r="P14" s="475"/>
+      <c r="P14" s="473"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C15" s="476"/>
-      <c r="D15" s="476"/>
+      <c r="C15" s="474"/>
+      <c r="D15" s="474"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
@@ -5718,11 +5713,11 @@
       </c>
     </row>
     <row r="22" spans="3:16" s="56" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="453" t="s">
+      <c r="C22" s="451" t="s">
         <v>296</v>
       </c>
-      <c r="D22" s="454"/>
-      <c r="E22" s="454"/>
+      <c r="D22" s="452"/>
+      <c r="E22" s="452"/>
       <c r="F22" s="264">
         <f>SUM(F19:F21)</f>
         <v>45292</v>
@@ -5745,11 +5740,11 @@
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
-      <c r="M23" s="453" t="s">
+      <c r="M23" s="451" t="s">
         <v>296</v>
       </c>
-      <c r="N23" s="454"/>
-      <c r="O23" s="454"/>
+      <c r="N23" s="452"/>
+      <c r="O23" s="452"/>
       <c r="P23" s="264">
         <f>SUM(P20:P22)</f>
         <v>18000</v>
@@ -5859,24 +5854,24 @@
       </c>
     </row>
     <row r="28" spans="3:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="453" t="s">
+      <c r="C28" s="451" t="s">
         <v>299</v>
       </c>
-      <c r="D28" s="454"/>
-      <c r="E28" s="474">
+      <c r="D28" s="452"/>
+      <c r="E28" s="472">
         <f>SUM(F25:F27)</f>
         <v>291168</v>
       </c>
-      <c r="F28" s="475"/>
-      <c r="M28" s="453" t="s">
+      <c r="F28" s="473"/>
+      <c r="M28" s="451" t="s">
         <v>299</v>
       </c>
-      <c r="N28" s="454"/>
-      <c r="O28" s="474">
+      <c r="N28" s="452"/>
+      <c r="O28" s="472">
         <f>P26</f>
         <v>90000</v>
       </c>
-      <c r="P28" s="475"/>
+      <c r="P28" s="473"/>
     </row>
     <row r="31" spans="3:16" x14ac:dyDescent="0.3">
       <c r="M31" s="56" t="s">
@@ -5954,11 +5949,11 @@
       </c>
     </row>
     <row r="37" spans="13:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M37" s="453" t="s">
+      <c r="M37" s="451" t="s">
         <v>296</v>
       </c>
-      <c r="N37" s="454"/>
-      <c r="O37" s="454"/>
+      <c r="N37" s="452"/>
+      <c r="O37" s="452"/>
       <c r="P37" s="264">
         <f>SUM(P34:P36)</f>
         <v>13500</v>
@@ -6015,29 +6010,18 @@
       </c>
     </row>
     <row r="42" spans="13:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M42" s="453" t="s">
+      <c r="M42" s="451" t="s">
         <v>299</v>
       </c>
-      <c r="N42" s="454"/>
-      <c r="O42" s="474">
+      <c r="N42" s="452"/>
+      <c r="O42" s="472">
         <f>P40</f>
         <v>13500</v>
       </c>
-      <c r="P42" s="475"/>
+      <c r="P42" s="473"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C22:E22"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="H9:J9"/>
@@ -6046,6 +6030,17 @@
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6117,7 +6112,7 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="410" t="s">
+      <c r="B4" s="406" t="s">
         <v>393</v>
       </c>
       <c r="C4" s="35" t="s">
@@ -6126,7 +6121,7 @@
       <c r="D4" s="35" t="s">
         <v>392</v>
       </c>
-      <c r="E4" s="418" t="s">
+      <c r="E4" s="414" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="35"/>
@@ -6134,15 +6129,15 @@
         <v>17000</v>
       </c>
       <c r="H4" s="35"/>
-      <c r="I4" s="418">
+      <c r="I4" s="414">
         <v>2</v>
       </c>
-      <c r="J4" s="403">
+      <c r="J4" s="399">
         <f t="shared" ref="J4:J11" si="0">G4*I4</f>
         <v>34000</v>
       </c>
       <c r="K4" s="35"/>
-      <c r="L4" s="411" t="s">
+      <c r="L4" s="407" t="s">
         <v>409</v>
       </c>
       <c r="M4" s="55">
@@ -6166,14 +6161,14 @@
         <v>9</v>
       </c>
       <c r="F5" s="34"/>
-      <c r="G5" s="412">
+      <c r="G5" s="408">
         <v>24000</v>
       </c>
       <c r="H5" s="34"/>
       <c r="I5" s="17">
         <v>2</v>
       </c>
-      <c r="J5" s="413">
+      <c r="J5" s="409">
         <f t="shared" si="0"/>
         <v>48000</v>
       </c>
@@ -6189,7 +6184,7 @@
       <c r="A6" s="177">
         <v>3</v>
       </c>
-      <c r="B6" s="405" t="s">
+      <c r="B6" s="401" t="s">
         <v>418</v>
       </c>
       <c r="C6" s="180" t="s">
@@ -6202,14 +6197,14 @@
         <v>9</v>
       </c>
       <c r="F6" s="180"/>
-      <c r="G6" s="409">
+      <c r="G6" s="405">
         <v>17000</v>
       </c>
       <c r="H6" s="180"/>
-      <c r="I6" s="434">
+      <c r="I6" s="430">
         <v>3</v>
       </c>
-      <c r="J6" s="413">
+      <c r="J6" s="409">
         <f t="shared" si="0"/>
         <v>51000</v>
       </c>
@@ -6222,7 +6217,7 @@
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="405" t="s">
+      <c r="B7" s="401" t="s">
         <v>422</v>
       </c>
       <c r="C7" s="180" t="s">
@@ -6235,14 +6230,14 @@
         <v>9</v>
       </c>
       <c r="F7" s="180"/>
-      <c r="G7" s="409">
+      <c r="G7" s="405">
         <v>23500</v>
       </c>
       <c r="H7" s="180"/>
-      <c r="I7" s="434">
-        <v>1</v>
-      </c>
-      <c r="J7" s="413">
+      <c r="I7" s="430">
+        <v>1</v>
+      </c>
+      <c r="J7" s="409">
         <f t="shared" si="0"/>
         <v>23500</v>
       </c>
@@ -6255,7 +6250,7 @@
       <c r="A8" s="177">
         <v>5</v>
       </c>
-      <c r="B8" s="405" t="s">
+      <c r="B8" s="401" t="s">
         <v>427</v>
       </c>
       <c r="C8" s="180" t="s">
@@ -6268,14 +6263,14 @@
         <v>9</v>
       </c>
       <c r="F8" s="180"/>
-      <c r="G8" s="409">
+      <c r="G8" s="405">
         <v>4000</v>
       </c>
       <c r="H8" s="180"/>
-      <c r="I8" s="434">
+      <c r="I8" s="430">
         <v>3</v>
       </c>
-      <c r="J8" s="413">
+      <c r="J8" s="409">
         <f t="shared" si="0"/>
         <v>12000</v>
       </c>
@@ -6288,7 +6283,7 @@
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="405" t="s">
+      <c r="B9" s="401" t="s">
         <v>437</v>
       </c>
       <c r="C9" s="180"/>
@@ -6299,14 +6294,14 @@
         <v>9</v>
       </c>
       <c r="F9" s="180"/>
-      <c r="G9" s="409">
+      <c r="G9" s="405">
         <v>35000</v>
       </c>
       <c r="H9" s="180"/>
-      <c r="I9" s="434">
-        <v>1</v>
-      </c>
-      <c r="J9" s="413">
+      <c r="I9" s="430">
+        <v>1</v>
+      </c>
+      <c r="J9" s="409">
         <f t="shared" si="0"/>
         <v>35000</v>
       </c>
@@ -6319,7 +6314,7 @@
       <c r="A10" s="177">
         <v>7</v>
       </c>
-      <c r="B10" s="405" t="s">
+      <c r="B10" s="401" t="s">
         <v>430</v>
       </c>
       <c r="C10" s="180" t="s">
@@ -6332,14 +6327,14 @@
         <v>9</v>
       </c>
       <c r="F10" s="180"/>
-      <c r="G10" s="409">
+      <c r="G10" s="405">
         <v>25000</v>
       </c>
       <c r="H10" s="180"/>
-      <c r="I10" s="434">
-        <v>1</v>
-      </c>
-      <c r="J10" s="413">
+      <c r="I10" s="430">
+        <v>1</v>
+      </c>
+      <c r="J10" s="409">
         <f t="shared" si="0"/>
         <v>25000</v>
       </c>
@@ -6352,32 +6347,32 @@
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="437">
+      <c r="B11" s="433">
         <v>35590</v>
       </c>
-      <c r="C11" s="438" t="s">
+      <c r="C11" s="434" t="s">
         <v>434</v>
       </c>
-      <c r="D11" s="438" t="s">
+      <c r="D11" s="434" t="s">
         <v>474</v>
       </c>
-      <c r="E11" s="439" t="s">
+      <c r="E11" s="435" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="438"/>
-      <c r="G11" s="440">
+      <c r="F11" s="434"/>
+      <c r="G11" s="436">
         <v>11390</v>
       </c>
-      <c r="H11" s="438"/>
-      <c r="I11" s="438">
-        <v>1</v>
-      </c>
-      <c r="J11" s="441">
+      <c r="H11" s="434"/>
+      <c r="I11" s="434">
+        <v>1</v>
+      </c>
+      <c r="J11" s="437">
         <f t="shared" si="0"/>
         <v>11390</v>
       </c>
-      <c r="K11" s="438"/>
-      <c r="L11" s="442" t="s">
+      <c r="K11" s="434"/>
+      <c r="L11" s="438" t="s">
         <v>435</v>
       </c>
       <c r="M11" s="177" t="s">
@@ -6388,34 +6383,34 @@
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="419">
+      <c r="B12" s="415">
         <v>35283</v>
       </c>
-      <c r="C12" s="443" t="s">
+      <c r="C12" s="439" t="s">
         <v>477</v>
       </c>
-      <c r="D12" s="414" t="s">
+      <c r="D12" s="410" t="s">
         <v>475</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="414"/>
-      <c r="G12" s="415">
+      <c r="F12" s="410"/>
+      <c r="G12" s="411">
         <v>20720</v>
       </c>
-      <c r="H12" s="414"/>
-      <c r="I12" s="414">
-        <v>1</v>
-      </c>
-      <c r="J12" s="416"/>
-      <c r="K12" s="414"/>
-      <c r="L12" s="417" t="s">
+      <c r="H12" s="410"/>
+      <c r="I12" s="410">
+        <v>1</v>
+      </c>
+      <c r="J12" s="412"/>
+      <c r="K12" s="410"/>
+      <c r="L12" s="413" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="177" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G13" s="406"/>
+      <c r="G13" s="402"/>
     </row>
     <row r="14" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="56" t="s">
@@ -6439,7 +6434,7 @@
       <c r="F15" s="211" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="407" t="s">
+      <c r="G15" s="403" t="s">
         <v>6</v>
       </c>
       <c r="H15" s="81" t="s">
@@ -6462,7 +6457,7 @@
       <c r="A16" s="1">
         <v>1</v>
       </c>
-      <c r="B16" s="420" t="s">
+      <c r="B16" s="416" t="s">
         <v>403</v>
       </c>
       <c r="C16" s="186" t="s">
@@ -6471,27 +6466,27 @@
       <c r="D16" s="186" t="s">
         <v>405</v>
       </c>
-      <c r="E16" s="418" t="s">
+      <c r="E16" s="414" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="186">
         <v>1</v>
       </c>
-      <c r="G16" s="408">
+      <c r="G16" s="404">
         <v>1820</v>
       </c>
       <c r="H16" s="188">
         <v>5</v>
       </c>
-      <c r="I16" s="433">
+      <c r="I16" s="429">
         <v>50</v>
       </c>
-      <c r="J16" s="403">
+      <c r="J16" s="399">
         <f>G16*I16</f>
         <v>91000</v>
       </c>
       <c r="K16" s="186"/>
-      <c r="L16" s="404" t="s">
+      <c r="L16" s="400" t="s">
         <v>420</v>
       </c>
     </row>
@@ -6499,36 +6494,36 @@
       <c r="A17" s="1">
         <v>2</v>
       </c>
-      <c r="B17" s="421" t="s">
+      <c r="B17" s="417" t="s">
         <v>406</v>
       </c>
-      <c r="C17" s="414" t="s">
+      <c r="C17" s="410" t="s">
         <v>200</v>
       </c>
-      <c r="D17" s="414" t="s">
+      <c r="D17" s="410" t="s">
         <v>407</v>
       </c>
       <c r="E17" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="414">
+      <c r="F17" s="410">
         <v>2</v>
       </c>
-      <c r="G17" s="415">
+      <c r="G17" s="411">
         <v>930</v>
       </c>
-      <c r="H17" s="414">
-        <v>1</v>
-      </c>
-      <c r="I17" s="432">
+      <c r="H17" s="410">
+        <v>1</v>
+      </c>
+      <c r="I17" s="428">
         <v>30</v>
       </c>
-      <c r="J17" s="416">
+      <c r="J17" s="412">
         <f>G17*I17</f>
         <v>27900</v>
       </c>
-      <c r="K17" s="414"/>
-      <c r="L17" s="417" t="s">
+      <c r="K17" s="410"/>
+      <c r="L17" s="413" t="s">
         <v>408</v>
       </c>
     </row>
@@ -6558,7 +6553,7 @@
       <c r="F20" s="211" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="407" t="s">
+      <c r="G20" s="403" t="s">
         <v>6</v>
       </c>
       <c r="H20" s="81" t="s">
@@ -6583,7 +6578,7 @@
       <c r="A21" s="1">
         <v>1</v>
       </c>
-      <c r="B21" s="420" t="s">
+      <c r="B21" s="416" t="s">
         <v>410</v>
       </c>
       <c r="C21" s="186" t="s">
@@ -6592,20 +6587,20 @@
       <c r="D21" s="186" t="s">
         <v>331</v>
       </c>
-      <c r="E21" s="418" t="s">
+      <c r="E21" s="414" t="s">
         <v>9</v>
       </c>
       <c r="F21" s="186">
         <v>1</v>
       </c>
-      <c r="G21" s="408">
+      <c r="G21" s="404">
         <v>30</v>
       </c>
       <c r="H21" s="186">
         <f>F21*P$3</f>
         <v>0</v>
       </c>
-      <c r="I21" s="433">
+      <c r="I21" s="429">
         <v>10</v>
       </c>
       <c r="J21" s="186">
@@ -6613,7 +6608,7 @@
         <v>300</v>
       </c>
       <c r="K21" s="186"/>
-      <c r="L21" s="404" t="s">
+      <c r="L21" s="400" t="s">
         <v>411</v>
       </c>
       <c r="M21" s="1"/>
@@ -6626,34 +6621,34 @@
       <c r="B22" s="193" t="s">
         <v>412</v>
       </c>
-      <c r="C22" s="414" t="s">
+      <c r="C22" s="410" t="s">
         <v>413</v>
       </c>
-      <c r="D22" s="414" t="s">
+      <c r="D22" s="410" t="s">
         <v>414</v>
       </c>
       <c r="E22" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="414">
-        <v>1</v>
-      </c>
-      <c r="G22" s="415">
+      <c r="F22" s="410">
+        <v>1</v>
+      </c>
+      <c r="G22" s="411">
         <v>160</v>
       </c>
-      <c r="H22" s="414">
+      <c r="H22" s="410">
         <f>F22*P$3</f>
         <v>0</v>
       </c>
-      <c r="I22" s="432">
+      <c r="I22" s="428">
         <v>5</v>
       </c>
-      <c r="J22" s="414">
+      <c r="J22" s="410">
         <f>G22*I22</f>
         <v>800</v>
       </c>
-      <c r="K22" s="414"/>
-      <c r="L22" s="417" t="s">
+      <c r="K22" s="410"/>
+      <c r="L22" s="413" t="s">
         <v>441</v>
       </c>
       <c r="M22" s="1"/>
@@ -6723,7 +6718,7 @@
       <c r="F3" s="211" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="407" t="s">
+      <c r="G3" s="403" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="81" t="s">
@@ -6756,20 +6751,20 @@
       <c r="F4" s="187">
         <v>5</v>
       </c>
-      <c r="G4" s="403">
+      <c r="G4" s="399">
         <v>50</v>
       </c>
-      <c r="H4" s="436">
+      <c r="H4" s="432">
         <v>100</v>
       </c>
-      <c r="I4" s="433">
+      <c r="I4" s="429">
         <v>200</v>
       </c>
-      <c r="J4" s="425">
+      <c r="J4" s="421">
         <v>10000</v>
       </c>
-      <c r="K4" s="425"/>
-      <c r="L4" s="404" t="s">
+      <c r="K4" s="421"/>
+      <c r="L4" s="400" t="s">
         <v>468</v>
       </c>
     </row>
@@ -6799,7 +6794,7 @@
         <v>2000</v>
       </c>
       <c r="K5" s="347"/>
-      <c r="L5" s="426" t="s">
+      <c r="L5" s="422" t="s">
         <v>469</v>
       </c>
     </row>
@@ -6834,7 +6829,7 @@
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="427" t="s">
+      <c r="B7" s="423" t="s">
         <v>453</v>
       </c>
       <c r="C7" s="180" t="s">
@@ -6872,14 +6867,14 @@
         <v>457</v>
       </c>
       <c r="E8" s="326"/>
-      <c r="F8" s="428"/>
-      <c r="G8" s="428">
+      <c r="F8" s="424"/>
+      <c r="G8" s="424">
         <v>130</v>
       </c>
-      <c r="H8" s="428">
+      <c r="H8" s="424">
         <v>300</v>
       </c>
-      <c r="I8" s="447">
+      <c r="I8" s="443">
         <v>300</v>
       </c>
       <c r="J8" s="352">
@@ -6887,7 +6882,7 @@
         <v>39000</v>
       </c>
       <c r="K8" s="36"/>
-      <c r="L8" s="417" t="s">
+      <c r="L8" s="413" t="s">
         <v>472</v>
       </c>
       <c r="P8" s="39"/>
@@ -6896,11 +6891,11 @@
       <c r="G9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="2:16" s="423" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="422" t="s">
+    <row r="10" spans="2:16" s="419" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="418" t="s">
         <v>454</v>
       </c>
-      <c r="J10" s="424"/>
+      <c r="J10" s="420"/>
     </row>
     <row r="11" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="210" t="s">
@@ -6918,7 +6913,7 @@
       <c r="F11" s="211" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="407" t="s">
+      <c r="G11" s="403" t="s">
         <v>6</v>
       </c>
       <c r="H11" s="81" t="s">
@@ -6938,10 +6933,10 @@
       </c>
     </row>
     <row r="12" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="429" t="s">
+      <c r="B12" s="425" t="s">
         <v>455</v>
       </c>
-      <c r="C12" s="430" t="s">
+      <c r="C12" s="426" t="s">
         <v>64</v>
       </c>
       <c r="D12" s="104" t="s">
@@ -6955,7 +6950,7 @@
       <c r="H12" s="104">
         <v>10</v>
       </c>
-      <c r="I12" s="446">
+      <c r="I12" s="442">
         <v>10</v>
       </c>
       <c r="J12" s="142">
@@ -6963,7 +6958,7 @@
         <v>2500</v>
       </c>
       <c r="K12" s="104"/>
-      <c r="L12" s="431" t="s">
+      <c r="L12" s="427" t="s">
         <v>473</v>
       </c>
     </row>
@@ -6996,7 +6991,7 @@
       <c r="F20" s="211" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="407" t="s">
+      <c r="G20" s="403" t="s">
         <v>6</v>
       </c>
       <c r="H20" s="81" t="s">
@@ -7016,7 +7011,7 @@
       </c>
     </row>
     <row r="21" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="429" t="s">
+      <c r="B21" s="425" t="s">
         <v>458</v>
       </c>
       <c r="C21" s="104"/>
@@ -7037,7 +7032,7 @@
         <v>57600</v>
       </c>
       <c r="K21" s="104"/>
-      <c r="L21" s="431" t="s">
+      <c r="L21" s="427" t="s">
         <v>460</v>
       </c>
     </row>
@@ -7052,8 +7047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7104,22 +7099,22 @@
       <c r="I4" s="261" t="s">
         <v>373</v>
       </c>
-      <c r="K4" s="455" t="s">
+      <c r="K4" s="453" t="s">
         <v>94</v>
       </c>
-      <c r="L4" s="449"/>
-      <c r="M4" s="457" t="s">
+      <c r="L4" s="447"/>
+      <c r="M4" s="455" t="s">
         <v>84</v>
       </c>
-      <c r="N4" s="457"/>
-      <c r="O4" s="457"/>
-      <c r="P4" s="449" t="s">
+      <c r="N4" s="455"/>
+      <c r="O4" s="455"/>
+      <c r="P4" s="447" t="s">
         <v>88</v>
       </c>
-      <c r="Q4" s="449" t="s">
+      <c r="Q4" s="447" t="s">
         <v>89</v>
       </c>
-      <c r="R4" s="451" t="s">
+      <c r="R4" s="449" t="s">
         <v>92</v>
       </c>
     </row>
@@ -7149,20 +7144,20 @@
         <f t="shared" ref="I5:I10" si="0">G5*H5</f>
         <v>750000</v>
       </c>
-      <c r="K5" s="456"/>
-      <c r="L5" s="450"/>
-      <c r="M5" s="386" t="s">
+      <c r="K5" s="454"/>
+      <c r="L5" s="448"/>
+      <c r="M5" s="385" t="s">
         <v>85</v>
       </c>
-      <c r="N5" s="386" t="s">
+      <c r="N5" s="385" t="s">
         <v>86</v>
       </c>
-      <c r="O5" s="386" t="s">
+      <c r="O5" s="385" t="s">
         <v>96</v>
       </c>
-      <c r="P5" s="450"/>
-      <c r="Q5" s="450"/>
-      <c r="R5" s="452"/>
+      <c r="P5" s="448"/>
+      <c r="Q5" s="448"/>
+      <c r="R5" s="450"/>
     </row>
     <row r="6" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="203">
@@ -7186,14 +7181,14 @@
       <c r="H6" s="348">
         <v>50000</v>
       </c>
-      <c r="I6" s="375">
+      <c r="I6" s="374">
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
-      <c r="K6" s="453" t="s">
+      <c r="K6" s="451" t="s">
         <v>97</v>
       </c>
-      <c r="L6" s="454"/>
+      <c r="L6" s="452"/>
       <c r="M6" s="141">
         <v>1</v>
       </c>
@@ -7238,14 +7233,14 @@
       <c r="H7" s="348">
         <v>250000</v>
       </c>
-      <c r="I7" s="375">
+      <c r="I7" s="374">
         <f t="shared" si="0"/>
         <v>750000</v>
       </c>
-      <c r="K7" s="477" t="s">
+      <c r="K7" s="445" t="s">
         <v>486</v>
       </c>
-      <c r="L7" s="478"/>
+      <c r="L7" s="446"/>
       <c r="M7" s="141"/>
       <c r="N7" s="104">
         <v>1</v>
@@ -7287,7 +7282,7 @@
       <c r="H8" s="348">
         <v>10000</v>
       </c>
-      <c r="I8" s="375">
+      <c r="I8" s="374">
         <f t="shared" si="0"/>
         <v>80000</v>
       </c>
@@ -7314,7 +7309,7 @@
       <c r="H9" s="348">
         <v>250000</v>
       </c>
-      <c r="I9" s="375">
+      <c r="I9" s="374">
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
@@ -7341,170 +7336,170 @@
       <c r="H10" s="348">
         <v>40000</v>
       </c>
-      <c r="I10" s="375">
+      <c r="I10" s="374">
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
       <c r="P10" s="11"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B11" s="392">
+      <c r="B11" s="431">
         <v>43219</v>
       </c>
-      <c r="C11" s="116" t="s">
+      <c r="C11" s="22" t="s">
         <v>357</v>
       </c>
-      <c r="D11" s="116" t="s">
+      <c r="D11" s="22" t="s">
         <v>376</v>
       </c>
-      <c r="E11" s="116" t="s">
+      <c r="E11" s="22" t="s">
         <v>359</v>
       </c>
-      <c r="F11" s="116" t="s">
+      <c r="F11" s="22" t="s">
         <v>372</v>
       </c>
-      <c r="G11" s="110">
+      <c r="G11" s="34">
         <v>5</v>
       </c>
-      <c r="H11" s="393">
+      <c r="H11" s="9">
         <v>250000</v>
       </c>
-      <c r="I11" s="394">
+      <c r="I11" s="444">
         <f t="shared" ref="I11:I12" si="1">G11*H11</f>
         <v>1250000</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="392">
+      <c r="B12" s="431">
         <v>43219</v>
       </c>
-      <c r="C12" s="116" t="s">
+      <c r="C12" s="22" t="s">
         <v>357</v>
       </c>
-      <c r="D12" s="116" t="s">
+      <c r="D12" s="22" t="s">
         <v>376</v>
       </c>
-      <c r="E12" s="116" t="s">
+      <c r="E12" s="22" t="s">
         <v>359</v>
       </c>
-      <c r="F12" s="116" t="s">
+      <c r="F12" s="22" t="s">
         <v>374</v>
       </c>
-      <c r="G12" s="110">
+      <c r="G12" s="34">
         <v>6</v>
       </c>
-      <c r="H12" s="393">
+      <c r="H12" s="9">
         <v>50000</v>
       </c>
-      <c r="I12" s="394">
+      <c r="I12" s="444">
         <f t="shared" si="1"/>
         <v>300000</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="392">
+      <c r="B13" s="431">
         <v>43222</v>
       </c>
-      <c r="C13" s="116" t="s">
+      <c r="C13" s="22" t="s">
         <v>357</v>
       </c>
-      <c r="D13" s="116" t="s">
+      <c r="D13" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="E13" s="116" t="s">
+      <c r="E13" s="22" t="s">
         <v>359</v>
       </c>
-      <c r="F13" s="116" t="s">
+      <c r="F13" s="22" t="s">
         <v>372</v>
       </c>
-      <c r="G13" s="110">
-        <v>1</v>
-      </c>
-      <c r="H13" s="393">
+      <c r="G13" s="34">
+        <v>1</v>
+      </c>
+      <c r="H13" s="9">
         <v>250000</v>
       </c>
-      <c r="I13" s="394">
+      <c r="I13" s="444">
         <f t="shared" ref="I13:I14" si="2">G13*H13</f>
         <v>250000</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B14" s="392">
+      <c r="B14" s="431">
         <v>43222</v>
       </c>
-      <c r="C14" s="116" t="s">
+      <c r="C14" s="22" t="s">
         <v>357</v>
       </c>
-      <c r="D14" s="116" t="s">
+      <c r="D14" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="E14" s="116" t="s">
+      <c r="E14" s="22" t="s">
         <v>359</v>
       </c>
-      <c r="F14" s="116" t="s">
+      <c r="F14" s="22" t="s">
         <v>374</v>
       </c>
-      <c r="G14" s="110">
+      <c r="G14" s="34">
         <v>5</v>
       </c>
-      <c r="H14" s="393">
+      <c r="H14" s="9">
         <v>18000</v>
       </c>
-      <c r="I14" s="394">
+      <c r="I14" s="444">
         <f t="shared" si="2"/>
         <v>90000</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="392">
+      <c r="B15" s="431">
         <v>43222</v>
       </c>
-      <c r="C15" s="116" t="s">
+      <c r="C15" s="22" t="s">
         <v>357</v>
       </c>
-      <c r="D15" s="116" t="s">
+      <c r="D15" s="22" t="s">
         <v>347</v>
       </c>
-      <c r="E15" s="116" t="s">
+      <c r="E15" s="22" t="s">
         <v>402</v>
       </c>
-      <c r="F15" s="116" t="s">
+      <c r="F15" s="22" t="s">
         <v>372</v>
       </c>
-      <c r="G15" s="110">
+      <c r="G15" s="34">
         <v>1.5</v>
       </c>
-      <c r="H15" s="393">
+      <c r="H15" s="9">
         <v>250000</v>
       </c>
-      <c r="I15" s="394">
+      <c r="I15" s="444">
         <f t="shared" ref="I15:I16" si="3">G15*H15</f>
         <v>375000</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="392">
+      <c r="B16" s="431">
         <v>43222</v>
       </c>
-      <c r="C16" s="116" t="s">
+      <c r="C16" s="22" t="s">
         <v>357</v>
       </c>
-      <c r="D16" s="116" t="s">
+      <c r="D16" s="22" t="s">
         <v>347</v>
       </c>
-      <c r="E16" s="116" t="s">
+      <c r="E16" s="22" t="s">
         <v>359</v>
       </c>
-      <c r="F16" s="116" t="s">
+      <c r="F16" s="22" t="s">
         <v>374</v>
       </c>
-      <c r="G16" s="110">
+      <c r="G16" s="34">
         <v>10</v>
       </c>
-      <c r="H16" s="393">
+      <c r="H16" s="9">
         <v>13500</v>
       </c>
-      <c r="I16" s="394">
+      <c r="I16" s="444">
         <f t="shared" si="3"/>
         <v>135000</v>
       </c>
@@ -7609,8 +7604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7636,53 +7631,53 @@
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="455" t="s">
+      <c r="B3" s="453" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="449"/>
-      <c r="D3" s="457" t="s">
+      <c r="C3" s="447"/>
+      <c r="D3" s="455" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="457"/>
-      <c r="F3" s="457"/>
-      <c r="G3" s="449" t="s">
+      <c r="E3" s="455"/>
+      <c r="F3" s="455"/>
+      <c r="G3" s="447" t="s">
         <v>88</v>
       </c>
-      <c r="H3" s="449" t="s">
+      <c r="H3" s="447" t="s">
         <v>89</v>
       </c>
-      <c r="I3" s="470" t="s">
+      <c r="I3" s="465" t="s">
         <v>92</v>
       </c>
-      <c r="J3" s="468" t="s">
+      <c r="J3" s="463" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="4" spans="2:15" s="137" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="464"/>
-      <c r="C4" s="465"/>
-      <c r="D4" s="385" t="s">
+      <c r="B4" s="469"/>
+      <c r="C4" s="467"/>
+      <c r="D4" s="384" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="385" t="s">
+      <c r="E4" s="384" t="s">
         <v>86</v>
       </c>
-      <c r="F4" s="385" t="s">
+      <c r="F4" s="384" t="s">
         <v>87</v>
       </c>
-      <c r="G4" s="465"/>
-      <c r="H4" s="465"/>
-      <c r="I4" s="471"/>
-      <c r="J4" s="469"/>
+      <c r="G4" s="467"/>
+      <c r="H4" s="467"/>
+      <c r="I4" s="466"/>
+      <c r="J4" s="464"/>
     </row>
     <row r="5" spans="2:15" s="341" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="458" t="s">
+      <c r="B5" s="460" t="s">
         <v>357</v>
       </c>
-      <c r="C5" s="364" t="s">
+      <c r="C5" s="363" t="s">
         <v>358</v>
       </c>
-      <c r="D5" s="365">
+      <c r="D5" s="364">
         <v>1</v>
       </c>
       <c r="E5" s="343">
@@ -7699,16 +7694,16 @@
       <c r="H5" s="343">
         <v>0.8</v>
       </c>
-      <c r="I5" s="366">
+      <c r="I5" s="365">
         <f t="shared" ref="I5:I14" si="2">F5*G5*H5</f>
         <v>1200000</v>
       </c>
-      <c r="J5" s="367">
+      <c r="J5" s="366">
         <v>1000000</v>
       </c>
     </row>
     <row r="6" spans="2:15" s="137" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="460"/>
+      <c r="B6" s="462"/>
       <c r="C6" s="356" t="s">
         <v>359</v>
       </c>
@@ -7733,10 +7728,13 @@
         <f t="shared" si="2"/>
         <v>600000</v>
       </c>
-      <c r="J6" s="360"/>
+      <c r="J6" s="475">
+        <f>I6</f>
+        <v>600000</v>
+      </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="458" t="s">
+      <c r="B7" s="460" t="s">
         <v>93</v>
       </c>
       <c r="C7" s="139" t="s">
@@ -7763,7 +7761,7 @@
         <f t="shared" si="2"/>
         <v>1800000</v>
       </c>
-      <c r="J7" s="361"/>
+      <c r="J7" s="360"/>
       <c r="K7" s="5"/>
       <c r="L7" s="11">
         <v>4300000</v>
@@ -7778,20 +7776,20 @@
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="463"/>
+      <c r="B8" s="461"/>
       <c r="C8" s="345" t="s">
         <v>90</v>
       </c>
       <c r="D8" s="346">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E8" s="347">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F8" s="347">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G8" s="348">
         <v>25000</v>
@@ -7801,12 +7799,12 @@
       </c>
       <c r="I8" s="359">
         <f t="shared" si="2"/>
-        <v>600000</v>
-      </c>
-      <c r="J8" s="362"/>
+        <v>1200000</v>
+      </c>
+      <c r="J8" s="361"/>
     </row>
     <row r="9" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="460"/>
+      <c r="B9" s="462"/>
       <c r="C9" s="349" t="s">
         <v>91</v>
       </c>
@@ -7831,10 +7829,10 @@
         <f t="shared" si="2"/>
         <v>1200000</v>
       </c>
-      <c r="J9" s="363"/>
+      <c r="J9" s="362"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="458" t="s">
+      <c r="B10" s="460" t="s">
         <v>95</v>
       </c>
       <c r="C10" s="139" t="s">
@@ -7861,10 +7859,10 @@
         <f t="shared" si="2"/>
         <v>2400000</v>
       </c>
-      <c r="J10" s="361"/>
+      <c r="J10" s="360"/>
     </row>
     <row r="11" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="463"/>
+      <c r="B11" s="461"/>
       <c r="C11" s="345" t="s">
         <v>361</v>
       </c>
@@ -7889,10 +7887,10 @@
         <f t="shared" ref="I11:I12" si="5">F11*G11*H11</f>
         <v>1200000</v>
       </c>
-      <c r="J11" s="362"/>
+      <c r="J11" s="361"/>
     </row>
     <row r="12" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="463"/>
+      <c r="B12" s="461"/>
       <c r="C12" s="345" t="s">
         <v>362</v>
       </c>
@@ -7917,10 +7915,10 @@
         <f t="shared" si="5"/>
         <v>1200000</v>
       </c>
-      <c r="J12" s="362"/>
+      <c r="J12" s="361"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="463"/>
+      <c r="B13" s="461"/>
       <c r="C13" s="345" t="s">
         <v>90</v>
       </c>
@@ -7945,10 +7943,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J13" s="362"/>
+      <c r="J13" s="361"/>
     </row>
     <row r="14" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="460"/>
+      <c r="B14" s="462"/>
       <c r="C14" s="349" t="s">
         <v>91</v>
       </c>
@@ -7973,7 +7971,7 @@
         <f t="shared" si="2"/>
         <v>600000</v>
       </c>
-      <c r="J14" s="363"/>
+      <c r="J14" s="362"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="G16" s="11"/>
@@ -7993,28 +7991,28 @@
     </row>
     <row r="23" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="458" t="s">
+      <c r="B24" s="460" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="459"/>
-      <c r="D24" s="462" t="s">
+      <c r="C24" s="456"/>
+      <c r="D24" s="468" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="462"/>
-      <c r="F24" s="462"/>
-      <c r="G24" s="459" t="s">
+      <c r="E24" s="468"/>
+      <c r="F24" s="468"/>
+      <c r="G24" s="456" t="s">
         <v>88</v>
       </c>
-      <c r="H24" s="459" t="s">
+      <c r="H24" s="456" t="s">
         <v>89</v>
       </c>
-      <c r="I24" s="466" t="s">
+      <c r="I24" s="458" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="460"/>
-      <c r="C25" s="461"/>
+      <c r="B25" s="462"/>
+      <c r="C25" s="457"/>
       <c r="D25" s="138" t="s">
         <v>85</v>
       </c>
@@ -8024,15 +8022,15 @@
       <c r="F25" s="138" t="s">
         <v>87</v>
       </c>
-      <c r="G25" s="461"/>
-      <c r="H25" s="461"/>
-      <c r="I25" s="467"/>
+      <c r="G25" s="457"/>
+      <c r="H25" s="457"/>
+      <c r="I25" s="459"/>
     </row>
     <row r="26" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="453" t="s">
+      <c r="B26" s="451" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="454"/>
+      <c r="C26" s="452"/>
       <c r="D26" s="141">
         <v>3</v>
       </c>
@@ -8073,6 +8071,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B3:C4"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="I24:I25"/>
@@ -8083,11 +8086,6 @@
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B3:C4"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11273,7 +11271,7 @@
       <c r="C49" s="231" t="s">
         <v>76</v>
       </c>
-      <c r="D49" s="445" t="s">
+      <c r="D49" s="441" t="s">
         <v>481</v>
       </c>
       <c r="E49" s="35" t="s">
@@ -11293,7 +11291,7 @@
         <v>0</v>
       </c>
       <c r="K49" s="35"/>
-      <c r="L49" s="444" t="s">
+      <c r="L49" s="440" t="s">
         <v>480</v>
       </c>
       <c r="M49" s="1" t="s">
@@ -12057,15 +12055,15 @@
       </c>
     </row>
     <row r="9" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="453" t="s">
+      <c r="C9" s="451" t="s">
         <v>346</v>
       </c>
-      <c r="D9" s="454"/>
-      <c r="E9" s="472">
+      <c r="D9" s="452"/>
+      <c r="E9" s="470">
         <f>SUM(F7:F8)</f>
         <v>620000</v>
       </c>
-      <c r="F9" s="473"/>
+      <c r="F9" s="471"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -13131,42 +13129,42 @@
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B29" s="395" t="s">
+      <c r="B29" s="391" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="396"/>
-      <c r="D29" s="397" t="s">
+      <c r="C29" s="392"/>
+      <c r="D29" s="393" t="s">
         <v>348</v>
       </c>
-      <c r="E29" s="397"/>
-      <c r="F29" s="397"/>
-      <c r="G29" s="398">
+      <c r="E29" s="393"/>
+      <c r="F29" s="393"/>
+      <c r="G29" s="394">
         <v>2</v>
       </c>
-      <c r="H29" s="399" t="s">
+      <c r="H29" s="395" t="s">
         <v>23</v>
       </c>
-      <c r="I29" s="400">
-        <v>1</v>
-      </c>
-      <c r="J29" s="400">
+      <c r="I29" s="396">
+        <v>1</v>
+      </c>
+      <c r="J29" s="396">
         <v>1260</v>
       </c>
-      <c r="K29" s="400"/>
-      <c r="L29" s="400">
+      <c r="K29" s="396"/>
+      <c r="L29" s="396">
         <v>6</v>
       </c>
-      <c r="M29" s="400">
+      <c r="M29" s="396">
         <f>J29*L29</f>
         <v>7560</v>
       </c>
-      <c r="N29" s="401">
+      <c r="N29" s="397">
         <v>2</v>
       </c>
-      <c r="O29" s="401" t="s">
+      <c r="O29" s="397" t="s">
         <v>26</v>
       </c>
-      <c r="P29" s="402" t="s">
+      <c r="P29" s="398" t="s">
         <v>9</v>
       </c>
     </row>
@@ -13760,7 +13758,7 @@
       <c r="Q44" s="1"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B45" s="391" t="s">
+      <c r="B45" s="390" t="s">
         <v>389</v>
       </c>
       <c r="C45" s="234"/>
@@ -13789,7 +13787,7 @@
       </c>
       <c r="M45" s="293"/>
       <c r="N45" s="34"/>
-      <c r="O45" s="390" t="s">
+      <c r="O45" s="389" t="s">
         <v>388</v>
       </c>
       <c r="P45" s="39" t="s">

--- a/Femto Project 비용 List.xlsx
+++ b/Femto Project 비용 List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3735" yWindow="1890" windowWidth="28800" windowHeight="12060" activeTab="2"/>
+    <workbookView xWindow="3735" yWindow="1890" windowWidth="28800" windowHeight="12060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="전체 비용 List" sheetId="9" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="489">
   <si>
     <t>Vendor</t>
   </si>
@@ -1850,6 +1850,14 @@
   </si>
   <si>
     <t>Artwork</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2.0</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -4298,6 +4306,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4331,27 +4342,36 @@
     <xf numFmtId="0" fontId="31" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="33" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4364,15 +4384,6 @@
     <xf numFmtId="0" fontId="31" fillId="33" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="31" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4386,9 +4397,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5396,29 +5404,29 @@
       </c>
     </row>
     <row r="9" spans="2:16" s="56" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="451" t="s">
+      <c r="C9" s="452" t="s">
         <v>296</v>
       </c>
-      <c r="D9" s="452"/>
-      <c r="E9" s="452"/>
+      <c r="D9" s="453"/>
+      <c r="E9" s="453"/>
       <c r="F9" s="264">
         <f>SUM(F6:F8)</f>
         <v>138411</v>
       </c>
-      <c r="H9" s="451" t="s">
+      <c r="H9" s="452" t="s">
         <v>296</v>
       </c>
-      <c r="I9" s="452"/>
-      <c r="J9" s="452"/>
+      <c r="I9" s="453"/>
+      <c r="J9" s="453"/>
       <c r="K9" s="264">
         <f>SUM(K6:K8)</f>
         <v>42250</v>
       </c>
-      <c r="M9" s="451" t="s">
+      <c r="M9" s="452" t="s">
         <v>296</v>
       </c>
-      <c r="N9" s="452"/>
-      <c r="O9" s="452"/>
+      <c r="N9" s="453"/>
+      <c r="O9" s="453"/>
       <c r="P9" s="264">
         <f>SUM(P6:P8)</f>
         <v>44750</v>
@@ -5559,37 +5567,37 @@
       </c>
     </row>
     <row r="14" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="451" t="s">
+      <c r="C14" s="452" t="s">
         <v>299</v>
       </c>
-      <c r="D14" s="452"/>
-      <c r="E14" s="472">
+      <c r="D14" s="453"/>
+      <c r="E14" s="473">
         <f>F12</f>
         <v>553644</v>
       </c>
-      <c r="F14" s="473"/>
-      <c r="H14" s="451" t="s">
+      <c r="F14" s="474"/>
+      <c r="H14" s="452" t="s">
         <v>299</v>
       </c>
-      <c r="I14" s="452"/>
-      <c r="J14" s="472">
+      <c r="I14" s="453"/>
+      <c r="J14" s="473">
         <f>K12</f>
         <v>169000</v>
       </c>
-      <c r="K14" s="473"/>
-      <c r="M14" s="451" t="s">
+      <c r="K14" s="474"/>
+      <c r="M14" s="452" t="s">
         <v>299</v>
       </c>
-      <c r="N14" s="452"/>
-      <c r="O14" s="472">
+      <c r="N14" s="453"/>
+      <c r="O14" s="473">
         <f>P12</f>
         <v>150000</v>
       </c>
-      <c r="P14" s="473"/>
+      <c r="P14" s="474"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C15" s="474"/>
-      <c r="D15" s="474"/>
+      <c r="C15" s="475"/>
+      <c r="D15" s="475"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
@@ -5713,11 +5721,11 @@
       </c>
     </row>
     <row r="22" spans="3:16" s="56" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="451" t="s">
+      <c r="C22" s="452" t="s">
         <v>296</v>
       </c>
-      <c r="D22" s="452"/>
-      <c r="E22" s="452"/>
+      <c r="D22" s="453"/>
+      <c r="E22" s="453"/>
       <c r="F22" s="264">
         <f>SUM(F19:F21)</f>
         <v>45292</v>
@@ -5740,11 +5748,11 @@
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
-      <c r="M23" s="451" t="s">
+      <c r="M23" s="452" t="s">
         <v>296</v>
       </c>
-      <c r="N23" s="452"/>
-      <c r="O23" s="452"/>
+      <c r="N23" s="453"/>
+      <c r="O23" s="453"/>
       <c r="P23" s="264">
         <f>SUM(P20:P22)</f>
         <v>18000</v>
@@ -5854,24 +5862,24 @@
       </c>
     </row>
     <row r="28" spans="3:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="451" t="s">
+      <c r="C28" s="452" t="s">
         <v>299</v>
       </c>
-      <c r="D28" s="452"/>
-      <c r="E28" s="472">
+      <c r="D28" s="453"/>
+      <c r="E28" s="473">
         <f>SUM(F25:F27)</f>
         <v>291168</v>
       </c>
-      <c r="F28" s="473"/>
-      <c r="M28" s="451" t="s">
+      <c r="F28" s="474"/>
+      <c r="M28" s="452" t="s">
         <v>299</v>
       </c>
-      <c r="N28" s="452"/>
-      <c r="O28" s="472">
+      <c r="N28" s="453"/>
+      <c r="O28" s="473">
         <f>P26</f>
         <v>90000</v>
       </c>
-      <c r="P28" s="473"/>
+      <c r="P28" s="474"/>
     </row>
     <row r="31" spans="3:16" x14ac:dyDescent="0.3">
       <c r="M31" s="56" t="s">
@@ -5949,11 +5957,11 @@
       </c>
     </row>
     <row r="37" spans="13:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M37" s="451" t="s">
+      <c r="M37" s="452" t="s">
         <v>296</v>
       </c>
-      <c r="N37" s="452"/>
-      <c r="O37" s="452"/>
+      <c r="N37" s="453"/>
+      <c r="O37" s="453"/>
       <c r="P37" s="264">
         <f>SUM(P34:P36)</f>
         <v>13500</v>
@@ -6010,18 +6018,29 @@
       </c>
     </row>
     <row r="42" spans="13:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M42" s="451" t="s">
+      <c r="M42" s="452" t="s">
         <v>299</v>
       </c>
-      <c r="N42" s="452"/>
-      <c r="O42" s="472">
+      <c r="N42" s="453"/>
+      <c r="O42" s="473">
         <f>P40</f>
         <v>13500</v>
       </c>
-      <c r="P42" s="473"/>
+      <c r="P42" s="474"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C22:E22"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="H9:J9"/>
@@ -6030,17 +6049,6 @@
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:P42"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7047,8 +7055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7099,22 +7107,22 @@
       <c r="I4" s="261" t="s">
         <v>373</v>
       </c>
-      <c r="K4" s="453" t="s">
+      <c r="K4" s="454" t="s">
         <v>94</v>
       </c>
-      <c r="L4" s="447"/>
-      <c r="M4" s="455" t="s">
+      <c r="L4" s="448"/>
+      <c r="M4" s="456" t="s">
         <v>84</v>
       </c>
-      <c r="N4" s="455"/>
-      <c r="O4" s="455"/>
-      <c r="P4" s="447" t="s">
+      <c r="N4" s="456"/>
+      <c r="O4" s="456"/>
+      <c r="P4" s="448" t="s">
         <v>88</v>
       </c>
-      <c r="Q4" s="447" t="s">
+      <c r="Q4" s="448" t="s">
         <v>89</v>
       </c>
-      <c r="R4" s="449" t="s">
+      <c r="R4" s="450" t="s">
         <v>92</v>
       </c>
     </row>
@@ -7144,8 +7152,8 @@
         <f t="shared" ref="I5:I10" si="0">G5*H5</f>
         <v>750000</v>
       </c>
-      <c r="K5" s="454"/>
-      <c r="L5" s="448"/>
+      <c r="K5" s="455"/>
+      <c r="L5" s="449"/>
       <c r="M5" s="385" t="s">
         <v>85</v>
       </c>
@@ -7155,9 +7163,9 @@
       <c r="O5" s="385" t="s">
         <v>96</v>
       </c>
-      <c r="P5" s="448"/>
-      <c r="Q5" s="448"/>
-      <c r="R5" s="450"/>
+      <c r="P5" s="449"/>
+      <c r="Q5" s="449"/>
+      <c r="R5" s="451"/>
     </row>
     <row r="6" spans="2:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="203">
@@ -7185,10 +7193,10 @@
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
-      <c r="K6" s="451" t="s">
+      <c r="K6" s="452" t="s">
         <v>97</v>
       </c>
-      <c r="L6" s="452"/>
+      <c r="L6" s="453"/>
       <c r="M6" s="141">
         <v>1</v>
       </c>
@@ -7237,10 +7245,10 @@
         <f t="shared" si="0"/>
         <v>750000</v>
       </c>
-      <c r="K7" s="445" t="s">
+      <c r="K7" s="446" t="s">
         <v>486</v>
       </c>
-      <c r="L7" s="446"/>
+      <c r="L7" s="447"/>
       <c r="M7" s="141"/>
       <c r="N7" s="104">
         <v>1</v>
@@ -7473,7 +7481,7 @@
         <v>250000</v>
       </c>
       <c r="I15" s="444">
-        <f t="shared" ref="I15:I16" si="3">G15*H15</f>
+        <f t="shared" ref="I15:I17" si="3">G15*H15</f>
         <v>375000</v>
       </c>
     </row>
@@ -7505,14 +7513,31 @@
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="203"/>
-      <c r="C17" s="347"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="347"/>
-      <c r="H17" s="347"/>
-      <c r="I17" s="18"/>
+      <c r="B17" s="203">
+        <v>43317</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="D17" s="86" t="s">
+        <v>487</v>
+      </c>
+      <c r="E17" s="86" t="s">
+        <v>488</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>372</v>
+      </c>
+      <c r="G17" s="347">
+        <v>2</v>
+      </c>
+      <c r="H17" s="9">
+        <v>250000</v>
+      </c>
+      <c r="I17" s="444">
+        <f t="shared" si="3"/>
+        <v>500000</v>
+      </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="203"/>
@@ -7604,8 +7629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7631,31 +7656,31 @@
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="453" t="s">
+      <c r="B3" s="454" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="447"/>
-      <c r="D3" s="455" t="s">
+      <c r="C3" s="448"/>
+      <c r="D3" s="456" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="455"/>
-      <c r="F3" s="455"/>
-      <c r="G3" s="447" t="s">
+      <c r="E3" s="456"/>
+      <c r="F3" s="456"/>
+      <c r="G3" s="448" t="s">
         <v>88</v>
       </c>
-      <c r="H3" s="447" t="s">
+      <c r="H3" s="448" t="s">
         <v>89</v>
       </c>
-      <c r="I3" s="465" t="s">
+      <c r="I3" s="469" t="s">
         <v>92</v>
       </c>
-      <c r="J3" s="463" t="s">
+      <c r="J3" s="467" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="4" spans="2:15" s="137" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="469"/>
-      <c r="C4" s="467"/>
+      <c r="B4" s="463"/>
+      <c r="C4" s="464"/>
       <c r="D4" s="384" t="s">
         <v>85</v>
       </c>
@@ -7665,13 +7690,13 @@
       <c r="F4" s="384" t="s">
         <v>87</v>
       </c>
-      <c r="G4" s="467"/>
-      <c r="H4" s="467"/>
-      <c r="I4" s="466"/>
-      <c r="J4" s="464"/>
+      <c r="G4" s="464"/>
+      <c r="H4" s="464"/>
+      <c r="I4" s="470"/>
+      <c r="J4" s="468"/>
     </row>
     <row r="5" spans="2:15" s="341" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="460" t="s">
+      <c r="B5" s="457" t="s">
         <v>357</v>
       </c>
       <c r="C5" s="363" t="s">
@@ -7703,7 +7728,7 @@
       </c>
     </row>
     <row r="6" spans="2:15" s="137" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="462"/>
+      <c r="B6" s="459"/>
       <c r="C6" s="356" t="s">
         <v>359</v>
       </c>
@@ -7728,13 +7753,13 @@
         <f t="shared" si="2"/>
         <v>600000</v>
       </c>
-      <c r="J6" s="475">
+      <c r="J6" s="445">
         <f>I6</f>
         <v>600000</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="460" t="s">
+      <c r="B7" s="457" t="s">
         <v>93</v>
       </c>
       <c r="C7" s="139" t="s">
@@ -7776,7 +7801,7 @@
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="461"/>
+      <c r="B8" s="462"/>
       <c r="C8" s="345" t="s">
         <v>90</v>
       </c>
@@ -7804,7 +7829,7 @@
       <c r="J8" s="361"/>
     </row>
     <row r="9" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="462"/>
+      <c r="B9" s="459"/>
       <c r="C9" s="349" t="s">
         <v>91</v>
       </c>
@@ -7832,7 +7857,7 @@
       <c r="J9" s="362"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="460" t="s">
+      <c r="B10" s="457" t="s">
         <v>95</v>
       </c>
       <c r="C10" s="139" t="s">
@@ -7862,7 +7887,7 @@
       <c r="J10" s="360"/>
     </row>
     <row r="11" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="461"/>
+      <c r="B11" s="462"/>
       <c r="C11" s="345" t="s">
         <v>361</v>
       </c>
@@ -7890,7 +7915,7 @@
       <c r="J11" s="361"/>
     </row>
     <row r="12" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="461"/>
+      <c r="B12" s="462"/>
       <c r="C12" s="345" t="s">
         <v>362</v>
       </c>
@@ -7918,7 +7943,7 @@
       <c r="J12" s="361"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="461"/>
+      <c r="B13" s="462"/>
       <c r="C13" s="345" t="s">
         <v>90</v>
       </c>
@@ -7946,7 +7971,7 @@
       <c r="J13" s="361"/>
     </row>
     <row r="14" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="462"/>
+      <c r="B14" s="459"/>
       <c r="C14" s="349" t="s">
         <v>91</v>
       </c>
@@ -7991,28 +8016,28 @@
     </row>
     <row r="23" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="460" t="s">
+      <c r="B24" s="457" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="456"/>
-      <c r="D24" s="468" t="s">
+      <c r="C24" s="458"/>
+      <c r="D24" s="461" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="468"/>
-      <c r="F24" s="468"/>
-      <c r="G24" s="456" t="s">
+      <c r="E24" s="461"/>
+      <c r="F24" s="461"/>
+      <c r="G24" s="458" t="s">
         <v>88</v>
       </c>
-      <c r="H24" s="456" t="s">
+      <c r="H24" s="458" t="s">
         <v>89</v>
       </c>
-      <c r="I24" s="458" t="s">
+      <c r="I24" s="465" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="462"/>
-      <c r="C25" s="457"/>
+      <c r="B25" s="459"/>
+      <c r="C25" s="460"/>
       <c r="D25" s="138" t="s">
         <v>85</v>
       </c>
@@ -8022,15 +8047,15 @@
       <c r="F25" s="138" t="s">
         <v>87</v>
       </c>
-      <c r="G25" s="457"/>
-      <c r="H25" s="457"/>
-      <c r="I25" s="459"/>
+      <c r="G25" s="460"/>
+      <c r="H25" s="460"/>
+      <c r="I25" s="466"/>
     </row>
     <row r="26" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="451" t="s">
+      <c r="B26" s="452" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="452"/>
+      <c r="C26" s="453"/>
       <c r="D26" s="141">
         <v>3</v>
       </c>
@@ -8071,11 +8096,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B3:C4"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="I24:I25"/>
@@ -8086,6 +8106,11 @@
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="G3:G4"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B3:C4"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12055,15 +12080,15 @@
       </c>
     </row>
     <row r="9" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="451" t="s">
+      <c r="C9" s="452" t="s">
         <v>346</v>
       </c>
-      <c r="D9" s="452"/>
-      <c r="E9" s="470">
+      <c r="D9" s="453"/>
+      <c r="E9" s="471">
         <f>SUM(F7:F8)</f>
         <v>620000</v>
       </c>
-      <c r="F9" s="471"/>
+      <c r="F9" s="472"/>
     </row>
   </sheetData>
   <mergeCells count="2">
